--- a/Results/Profit Ctab SBAV R25.xlsx
+++ b/Results/Profit Ctab SBAV R25.xlsx
@@ -759,184 +759,184 @@
         </is>
       </c>
       <c r="B2">
-        <v>-10742.2</v>
+        <v>-8281.56</v>
       </c>
       <c r="C2">
-        <v>-11085.74</v>
+        <v>-8625.1</v>
       </c>
       <c r="D2">
-        <v>-11728.2</v>
+        <v>-9267.57</v>
       </c>
       <c r="E2">
-        <v>-10672.12</v>
+        <v>-8211.48</v>
       </c>
       <c r="F2">
-        <v>-10924.2</v>
+        <v>-8463.56</v>
       </c>
       <c r="G2">
-        <v>-11176.27</v>
+        <v>-8715.64</v>
       </c>
       <c r="H2">
-        <v>-11440.28</v>
+        <v>-8979.64</v>
       </c>
       <c r="I2">
-        <v>-12470.9</v>
+        <v>-10010.26</v>
       </c>
       <c r="J2">
-        <v>-14398.3</v>
+        <v>-11937.66</v>
       </c>
       <c r="K2">
-        <v>-11230.46</v>
+        <v>-8769.82</v>
       </c>
       <c r="L2">
-        <v>-11986.69</v>
+        <v>-9526.06</v>
       </c>
       <c r="M2">
-        <v>-12742.93</v>
+        <v>-10282.29</v>
       </c>
       <c r="N2">
-        <v>-11790.32</v>
+        <v>-9329.68</v>
       </c>
       <c r="O2">
-        <v>-13164.48</v>
+        <v>-10703.84</v>
       </c>
       <c r="P2">
-        <v>-15734.35</v>
+        <v>-13273.71</v>
       </c>
       <c r="Q2">
-        <v>-11509.67</v>
+        <v>-9049.04</v>
       </c>
       <c r="R2">
-        <v>-12517.99</v>
+        <v>-10057.35</v>
       </c>
       <c r="S2">
-        <v>-13526.3</v>
+        <v>-11065.67</v>
       </c>
       <c r="T2">
-        <v>-12489.56</v>
+        <v>-10028.92</v>
       </c>
       <c r="U2">
-        <v>-14550.81</v>
+        <v>-12090.17</v>
       </c>
       <c r="V2">
-        <v>-18405.6</v>
+        <v>-15944.97</v>
       </c>
       <c r="W2">
-        <v>-12068.9</v>
+        <v>-9608.26</v>
       </c>
       <c r="X2">
-        <v>-13581.37</v>
+        <v>-11120.74</v>
       </c>
       <c r="Y2">
-        <v>-15093.85</v>
+        <v>-12633.21</v>
       </c>
       <c r="Z2">
-        <v>-12838.9</v>
+        <v>-10378.27</v>
       </c>
       <c r="AA2">
-        <v>-15243.69</v>
+        <v>-12783.05</v>
       </c>
       <c r="AB2">
-        <v>-19740.95</v>
+        <v>-17280.32</v>
       </c>
       <c r="AC2">
-        <v>-12348.16</v>
+        <v>-9887.53</v>
       </c>
       <c r="AD2">
-        <v>-14112.72</v>
+        <v>-11652.08</v>
       </c>
       <c r="AE2">
-        <v>-15877.27</v>
+        <v>-13416.63</v>
       </c>
       <c r="AF2">
-        <v>-13537.49</v>
+        <v>-11076.86</v>
       </c>
       <c r="AG2">
-        <v>-16629.36</v>
+        <v>-14168.73</v>
       </c>
       <c r="AH2">
-        <v>-22411.56</v>
+        <v>-19950.92</v>
       </c>
       <c r="AI2">
-        <v>-12906.78</v>
+        <v>-10446.15</v>
       </c>
       <c r="AJ2">
-        <v>-15175.49</v>
+        <v>-12714.86</v>
       </c>
       <c r="AK2">
-        <v>-17444.2</v>
+        <v>-14983.56</v>
       </c>
       <c r="AL2">
-        <v>-13886.84</v>
+        <v>-11426.2</v>
       </c>
       <c r="AM2">
-        <v>-17322.25</v>
+        <v>-14861.61</v>
       </c>
       <c r="AN2">
-        <v>-23746.91</v>
+        <v>-21286.27</v>
       </c>
       <c r="AO2">
-        <v>-13186.05</v>
+        <v>-10725.41</v>
       </c>
       <c r="AP2">
-        <v>-15706.84</v>
+        <v>-13246.2</v>
       </c>
       <c r="AQ2">
-        <v>-18227.62</v>
+        <v>-15766.99</v>
       </c>
       <c r="AR2">
-        <v>-14585.48</v>
+        <v>-12124.84</v>
       </c>
       <c r="AS2">
-        <v>-18707.97</v>
+        <v>-16247.33</v>
       </c>
       <c r="AT2">
-        <v>-26417.56</v>
+        <v>-23956.93</v>
       </c>
       <c r="AU2">
-        <v>-13744.62</v>
+        <v>-11283.98</v>
       </c>
       <c r="AV2">
-        <v>-16769.57</v>
+        <v>-14308.93</v>
       </c>
       <c r="AW2">
-        <v>-19794.51</v>
+        <v>-17333.87</v>
       </c>
       <c r="AX2">
-        <v>-14934.77</v>
+        <v>-12474.13</v>
       </c>
       <c r="AY2">
-        <v>-19400.8</v>
+        <v>-16940.17</v>
       </c>
       <c r="AZ2">
-        <v>-27752.87</v>
+        <v>-25292.23</v>
       </c>
       <c r="BA2">
-        <v>-14023.93</v>
+        <v>-11563.29</v>
       </c>
       <c r="BB2">
-        <v>-17300.95</v>
+        <v>-14840.32</v>
       </c>
       <c r="BC2">
-        <v>-20577.98</v>
+        <v>-18117.34</v>
       </c>
       <c r="BD2">
-        <v>-15633.46</v>
+        <v>-13172.82</v>
       </c>
       <c r="BE2">
-        <v>-20786.57</v>
+        <v>-18325.93</v>
       </c>
       <c r="BF2">
-        <v>-30423.57</v>
+        <v>-27962.93</v>
       </c>
       <c r="BG2">
-        <v>-14582.55</v>
+        <v>-12121.91</v>
       </c>
       <c r="BH2">
-        <v>-18363.73</v>
+        <v>-15903.09</v>
       </c>
       <c r="BI2">
-        <v>-22144.91</v>
+        <v>-19684.28</v>
       </c>
     </row>
     <row r="3">
@@ -946,184 +946,184 @@
         </is>
       </c>
       <c r="B3">
-        <v>-6129.7</v>
+        <v>-3667.56</v>
       </c>
       <c r="C3">
-        <v>-6473.24</v>
+        <v>-4011.1</v>
       </c>
       <c r="D3">
-        <v>-7115.7</v>
+        <v>-4653.57</v>
       </c>
       <c r="E3">
-        <v>-6059.62</v>
+        <v>-3597.48</v>
       </c>
       <c r="F3">
-        <v>-6311.7</v>
+        <v>-3849.56</v>
       </c>
       <c r="G3">
-        <v>-6563.77</v>
+        <v>-4101.64</v>
       </c>
       <c r="H3">
-        <v>-6827.78</v>
+        <v>-4365.64</v>
       </c>
       <c r="I3">
-        <v>-7858.4</v>
+        <v>-5396.26</v>
       </c>
       <c r="J3">
-        <v>-9785.8</v>
+        <v>-7323.66</v>
       </c>
       <c r="K3">
-        <v>-6617.96</v>
+        <v>-4155.82</v>
       </c>
       <c r="L3">
-        <v>-7374.19</v>
+        <v>-4912.06</v>
       </c>
       <c r="M3">
-        <v>-8130.43</v>
+        <v>-5668.29</v>
       </c>
       <c r="N3">
-        <v>-7177.82</v>
+        <v>-4715.68</v>
       </c>
       <c r="O3">
-        <v>-8551.98</v>
+        <v>-6089.84</v>
       </c>
       <c r="P3">
-        <v>-11121.85</v>
+        <v>-8659.71</v>
       </c>
       <c r="Q3">
-        <v>-6897.17</v>
+        <v>-4435.04</v>
       </c>
       <c r="R3">
-        <v>-7905.49</v>
+        <v>-5443.35</v>
       </c>
       <c r="S3">
-        <v>-8913.8</v>
+        <v>-6451.67</v>
       </c>
       <c r="T3">
-        <v>-7877.06</v>
+        <v>-5414.92</v>
       </c>
       <c r="U3">
-        <v>-9938.31</v>
+        <v>-7476.17</v>
       </c>
       <c r="V3">
-        <v>-13793.1</v>
+        <v>-11330.97</v>
       </c>
       <c r="W3">
-        <v>-7456.4</v>
+        <v>-4994.26</v>
       </c>
       <c r="X3">
-        <v>-8968.87</v>
+        <v>-6506.74</v>
       </c>
       <c r="Y3">
-        <v>-10481.35</v>
+        <v>-8019.21</v>
       </c>
       <c r="Z3">
-        <v>-8226.4</v>
+        <v>-5764.27</v>
       </c>
       <c r="AA3">
-        <v>-10631.19</v>
+        <v>-8169.05</v>
       </c>
       <c r="AB3">
-        <v>-15128.45</v>
+        <v>-12666.32</v>
       </c>
       <c r="AC3">
-        <v>-7735.66</v>
+        <v>-5273.53</v>
       </c>
       <c r="AD3">
-        <v>-9500.22</v>
+        <v>-7038.08</v>
       </c>
       <c r="AE3">
-        <v>-11264.77</v>
+        <v>-8802.63</v>
       </c>
       <c r="AF3">
-        <v>-8924.99</v>
+        <v>-6462.86</v>
       </c>
       <c r="AG3">
-        <v>-12016.86</v>
+        <v>-9554.73</v>
       </c>
       <c r="AH3">
-        <v>-17799.06</v>
+        <v>-15336.92</v>
       </c>
       <c r="AI3">
-        <v>-8294.28</v>
+        <v>-5832.15</v>
       </c>
       <c r="AJ3">
-        <v>-10562.99</v>
+        <v>-8100.86</v>
       </c>
       <c r="AK3">
-        <v>-12831.7</v>
+        <v>-10369.56</v>
       </c>
       <c r="AL3">
-        <v>-9274.34</v>
+        <v>-6812.2</v>
       </c>
       <c r="AM3">
-        <v>-12709.75</v>
+        <v>-10247.61</v>
       </c>
       <c r="AN3">
-        <v>-19134.41</v>
+        <v>-16672.27</v>
       </c>
       <c r="AO3">
-        <v>-8573.55</v>
+        <v>-6111.41</v>
       </c>
       <c r="AP3">
-        <v>-11094.34</v>
+        <v>-8632.2</v>
       </c>
       <c r="AQ3">
-        <v>-13615.12</v>
+        <v>-11152.99</v>
       </c>
       <c r="AR3">
-        <v>-9972.98</v>
+        <v>-7510.84</v>
       </c>
       <c r="AS3">
-        <v>-14095.47</v>
+        <v>-11633.33</v>
       </c>
       <c r="AT3">
-        <v>-21805.06</v>
+        <v>-19342.93</v>
       </c>
       <c r="AU3">
-        <v>-9132.12</v>
+        <v>-6669.98</v>
       </c>
       <c r="AV3">
-        <v>-12157.07</v>
+        <v>-9694.93</v>
       </c>
       <c r="AW3">
-        <v>-15182.01</v>
+        <v>-12719.87</v>
       </c>
       <c r="AX3">
-        <v>-10322.27</v>
+        <v>-7860.13</v>
       </c>
       <c r="AY3">
-        <v>-14788.3</v>
+        <v>-12326.17</v>
       </c>
       <c r="AZ3">
-        <v>-23140.37</v>
+        <v>-20678.23</v>
       </c>
       <c r="BA3">
-        <v>-9411.43</v>
+        <v>-6949.29</v>
       </c>
       <c r="BB3">
-        <v>-12688.45</v>
+        <v>-10226.32</v>
       </c>
       <c r="BC3">
-        <v>-15965.48</v>
+        <v>-13503.34</v>
       </c>
       <c r="BD3">
-        <v>-11020.96</v>
+        <v>-8558.82</v>
       </c>
       <c r="BE3">
-        <v>-16174.07</v>
+        <v>-13711.93</v>
       </c>
       <c r="BF3">
-        <v>-25811.07</v>
+        <v>-23348.93</v>
       </c>
       <c r="BG3">
-        <v>-9970.05</v>
+        <v>-7507.91</v>
       </c>
       <c r="BH3">
-        <v>-13751.23</v>
+        <v>-11289.09</v>
       </c>
       <c r="BI3">
-        <v>-17532.41</v>
+        <v>-15070.28</v>
       </c>
     </row>
     <row r="4">
@@ -1133,184 +1133,184 @@
         </is>
       </c>
       <c r="B4">
-        <v>-1517.2</v>
+        <v>946.44</v>
       </c>
       <c r="C4">
-        <v>-1860.74</v>
+        <v>602.9</v>
       </c>
       <c r="D4">
-        <v>-2503.2</v>
+        <v>-39.57</v>
       </c>
       <c r="E4">
-        <v>-1447.12</v>
+        <v>1016.52</v>
       </c>
       <c r="F4">
-        <v>-1699.2</v>
+        <v>764.44</v>
       </c>
       <c r="G4">
-        <v>-1951.27</v>
+        <v>512.36</v>
       </c>
       <c r="H4">
-        <v>-2215.28</v>
+        <v>248.36</v>
       </c>
       <c r="I4">
-        <v>-3245.9</v>
+        <v>-782.26</v>
       </c>
       <c r="J4">
-        <v>-5173.3</v>
+        <v>-2709.66</v>
       </c>
       <c r="K4">
-        <v>-2005.46</v>
+        <v>458.18</v>
       </c>
       <c r="L4">
-        <v>-2761.69</v>
+        <v>-298.06</v>
       </c>
       <c r="M4">
-        <v>-3517.93</v>
+        <v>-1054.29</v>
       </c>
       <c r="N4">
-        <v>-2565.32</v>
+        <v>-101.68</v>
       </c>
       <c r="O4">
-        <v>-3939.48</v>
+        <v>-1475.84</v>
       </c>
       <c r="P4">
-        <v>-6509.35</v>
+        <v>-4045.71</v>
       </c>
       <c r="Q4">
-        <v>-2284.67</v>
+        <v>178.96</v>
       </c>
       <c r="R4">
-        <v>-3292.99</v>
+        <v>-829.35</v>
       </c>
       <c r="S4">
-        <v>-4301.3</v>
+        <v>-1837.67</v>
       </c>
       <c r="T4">
-        <v>-3264.56</v>
+        <v>-800.92</v>
       </c>
       <c r="U4">
-        <v>-5325.81</v>
+        <v>-2862.17</v>
       </c>
       <c r="V4">
-        <v>-9180.6</v>
+        <v>-6716.97</v>
       </c>
       <c r="W4">
-        <v>-2843.9</v>
+        <v>-380.26</v>
       </c>
       <c r="X4">
-        <v>-4356.37</v>
+        <v>-1892.74</v>
       </c>
       <c r="Y4">
-        <v>-5868.85</v>
+        <v>-3405.21</v>
       </c>
       <c r="Z4">
-        <v>-3613.9</v>
+        <v>-1150.27</v>
       </c>
       <c r="AA4">
-        <v>-6018.69</v>
+        <v>-3555.05</v>
       </c>
       <c r="AB4">
-        <v>-10515.95</v>
+        <v>-8052.32</v>
       </c>
       <c r="AC4">
-        <v>-3123.16</v>
+        <v>-659.53</v>
       </c>
       <c r="AD4">
-        <v>-4887.72</v>
+        <v>-2424.08</v>
       </c>
       <c r="AE4">
-        <v>-6652.27</v>
+        <v>-4188.63</v>
       </c>
       <c r="AF4">
-        <v>-4312.49</v>
+        <v>-1848.86</v>
       </c>
       <c r="AG4">
-        <v>-7404.36</v>
+        <v>-4940.73</v>
       </c>
       <c r="AH4">
-        <v>-13186.56</v>
+        <v>-10722.92</v>
       </c>
       <c r="AI4">
-        <v>-3681.78</v>
+        <v>-1218.15</v>
       </c>
       <c r="AJ4">
-        <v>-5950.49</v>
+        <v>-3486.86</v>
       </c>
       <c r="AK4">
-        <v>-8219.2</v>
+        <v>-5755.56</v>
       </c>
       <c r="AL4">
-        <v>-4661.84</v>
+        <v>-2198.2</v>
       </c>
       <c r="AM4">
-        <v>-8097.25</v>
+        <v>-5633.61</v>
       </c>
       <c r="AN4">
-        <v>-14521.91</v>
+        <v>-12058.27</v>
       </c>
       <c r="AO4">
-        <v>-3961.05</v>
+        <v>-1497.41</v>
       </c>
       <c r="AP4">
-        <v>-6481.84</v>
+        <v>-4018.2</v>
       </c>
       <c r="AQ4">
-        <v>-9002.62</v>
+        <v>-6538.99</v>
       </c>
       <c r="AR4">
-        <v>-5360.48</v>
+        <v>-2896.84</v>
       </c>
       <c r="AS4">
-        <v>-9482.97</v>
+        <v>-7019.33</v>
       </c>
       <c r="AT4">
-        <v>-17192.56</v>
+        <v>-14728.93</v>
       </c>
       <c r="AU4">
-        <v>-4519.62</v>
+        <v>-2055.98</v>
       </c>
       <c r="AV4">
-        <v>-7544.57</v>
+        <v>-5080.93</v>
       </c>
       <c r="AW4">
-        <v>-10569.51</v>
+        <v>-8105.87</v>
       </c>
       <c r="AX4">
-        <v>-5709.77</v>
+        <v>-3246.13</v>
       </c>
       <c r="AY4">
-        <v>-10175.8</v>
+        <v>-7712.17</v>
       </c>
       <c r="AZ4">
-        <v>-18527.87</v>
+        <v>-16064.23</v>
       </c>
       <c r="BA4">
-        <v>-4798.93</v>
+        <v>-2335.29</v>
       </c>
       <c r="BB4">
-        <v>-8075.95</v>
+        <v>-5612.32</v>
       </c>
       <c r="BC4">
-        <v>-11352.98</v>
+        <v>-8889.34</v>
       </c>
       <c r="BD4">
-        <v>-6408.46</v>
+        <v>-3944.82</v>
       </c>
       <c r="BE4">
-        <v>-11561.57</v>
+        <v>-9097.93</v>
       </c>
       <c r="BF4">
-        <v>-21198.57</v>
+        <v>-18734.93</v>
       </c>
       <c r="BG4">
-        <v>-5357.55</v>
+        <v>-2893.91</v>
       </c>
       <c r="BH4">
-        <v>-9138.73</v>
+        <v>-6675.09</v>
       </c>
       <c r="BI4">
-        <v>-12919.91</v>
+        <v>-10456.28</v>
       </c>
     </row>
     <row r="5">
@@ -1320,184 +1320,184 @@
         </is>
       </c>
       <c r="B5">
-        <v>-7857.92</v>
+        <v>-5398.22</v>
       </c>
       <c r="C5">
-        <v>-8201.46</v>
+        <v>-5741.76</v>
       </c>
       <c r="D5">
-        <v>-8843.93</v>
+        <v>-6384.23</v>
       </c>
       <c r="E5">
-        <v>-7787.84</v>
+        <v>-5328.14</v>
       </c>
       <c r="F5">
-        <v>-8039.92</v>
+        <v>-5580.22</v>
       </c>
       <c r="G5">
-        <v>-8292</v>
+        <v>-5832.3</v>
       </c>
       <c r="H5">
-        <v>-8556</v>
+        <v>-6096.3</v>
       </c>
       <c r="I5">
-        <v>-9586.62</v>
+        <v>-7126.92</v>
       </c>
       <c r="J5">
-        <v>-11514.02</v>
+        <v>-9054.32</v>
       </c>
       <c r="K5">
-        <v>-8346.18</v>
+        <v>-5886.48</v>
       </c>
       <c r="L5">
-        <v>-9102.42</v>
+        <v>-6642.72</v>
       </c>
       <c r="M5">
-        <v>-9858.66</v>
+        <v>-7398.96</v>
       </c>
       <c r="N5">
-        <v>-8906.04</v>
+        <v>-6446.34</v>
       </c>
       <c r="O5">
-        <v>-10280.21</v>
+        <v>-7820.51</v>
       </c>
       <c r="P5">
-        <v>-12850.07</v>
+        <v>-10390.37</v>
       </c>
       <c r="Q5">
-        <v>-8625.4</v>
+        <v>-6165.7</v>
       </c>
       <c r="R5">
-        <v>-9633.71</v>
+        <v>-7174.01</v>
       </c>
       <c r="S5">
-        <v>-10642.03</v>
+        <v>-8182.33</v>
       </c>
       <c r="T5">
-        <v>-9605.29</v>
+        <v>-7145.59</v>
       </c>
       <c r="U5">
-        <v>-11666.53</v>
+        <v>-9206.83</v>
       </c>
       <c r="V5">
-        <v>-15521.33</v>
+        <v>-13061.63</v>
       </c>
       <c r="W5">
-        <v>-9184.63</v>
+        <v>-6724.93</v>
       </c>
       <c r="X5">
-        <v>-10697.1</v>
+        <v>-8237.4</v>
       </c>
       <c r="Y5">
-        <v>-12209.57</v>
+        <v>-9749.87</v>
       </c>
       <c r="Z5">
-        <v>-9954.63</v>
+        <v>-7494.93</v>
       </c>
       <c r="AA5">
-        <v>-12359.42</v>
+        <v>-9899.72</v>
       </c>
       <c r="AB5">
-        <v>-16856.68</v>
+        <v>-14396.98</v>
       </c>
       <c r="AC5">
-        <v>-9463.89</v>
+        <v>-7004.19</v>
       </c>
       <c r="AD5">
-        <v>-11228.44</v>
+        <v>-8768.74</v>
       </c>
       <c r="AE5">
-        <v>-12992.99</v>
+        <v>-10533.29</v>
       </c>
       <c r="AF5">
-        <v>-10653.22</v>
+        <v>-8193.52</v>
       </c>
       <c r="AG5">
-        <v>-13745.09</v>
+        <v>-11285.39</v>
       </c>
       <c r="AH5">
-        <v>-19527.29</v>
+        <v>-17067.59</v>
       </c>
       <c r="AI5">
-        <v>-10022.51</v>
+        <v>-7562.81</v>
       </c>
       <c r="AJ5">
-        <v>-12291.22</v>
+        <v>-9831.52</v>
       </c>
       <c r="AK5">
-        <v>-14559.93</v>
+        <v>-12100.23</v>
       </c>
       <c r="AL5">
-        <v>-11002.56</v>
+        <v>-8542.86</v>
       </c>
       <c r="AM5">
-        <v>-14437.97</v>
+        <v>-11978.27</v>
       </c>
       <c r="AN5">
-        <v>-20862.64</v>
+        <v>-18402.94</v>
       </c>
       <c r="AO5">
-        <v>-10301.77</v>
+        <v>-7842.07</v>
       </c>
       <c r="AP5">
-        <v>-12822.56</v>
+        <v>-10362.86</v>
       </c>
       <c r="AQ5">
-        <v>-15343.35</v>
+        <v>-12883.65</v>
       </c>
       <c r="AR5">
-        <v>-11701.2</v>
+        <v>-9241.5</v>
       </c>
       <c r="AS5">
-        <v>-15823.69</v>
+        <v>-13363.99</v>
       </c>
       <c r="AT5">
-        <v>-23533.29</v>
+        <v>-21073.59</v>
       </c>
       <c r="AU5">
-        <v>-10860.35</v>
+        <v>-8400.65</v>
       </c>
       <c r="AV5">
-        <v>-13885.29</v>
+        <v>-11425.59</v>
       </c>
       <c r="AW5">
-        <v>-16910.24</v>
+        <v>-14450.54</v>
       </c>
       <c r="AX5">
-        <v>-12050.5</v>
+        <v>-9590.8</v>
       </c>
       <c r="AY5">
-        <v>-16516.53</v>
+        <v>-14056.83</v>
       </c>
       <c r="AZ5">
-        <v>-24868.59</v>
+        <v>-22408.89</v>
       </c>
       <c r="BA5">
-        <v>-11139.66</v>
+        <v>-8679.96</v>
       </c>
       <c r="BB5">
-        <v>-14416.68</v>
+        <v>-11956.98</v>
       </c>
       <c r="BC5">
-        <v>-17693.7</v>
+        <v>-15234</v>
       </c>
       <c r="BD5">
-        <v>-12749.18</v>
+        <v>-10289.48</v>
       </c>
       <c r="BE5">
-        <v>-17902.3</v>
+        <v>-15442.6</v>
       </c>
       <c r="BF5">
-        <v>-27539.29</v>
+        <v>-25079.59</v>
       </c>
       <c r="BG5">
-        <v>-11698.28</v>
+        <v>-9238.58</v>
       </c>
       <c r="BH5">
-        <v>-15479.46</v>
+        <v>-13019.76</v>
       </c>
       <c r="BI5">
-        <v>-19260.64</v>
+        <v>-16800.94</v>
       </c>
     </row>
     <row r="6">
@@ -1507,184 +1507,184 @@
         </is>
       </c>
       <c r="B6">
-        <v>1367.08</v>
+        <v>3826.78</v>
       </c>
       <c r="C6">
-        <v>1023.54</v>
+        <v>3483.24</v>
       </c>
       <c r="D6">
-        <v>381.07</v>
+        <v>2840.77</v>
       </c>
       <c r="E6">
-        <v>1437.16</v>
+        <v>3896.86</v>
       </c>
       <c r="F6">
-        <v>1185.08</v>
+        <v>3644.78</v>
       </c>
       <c r="G6">
-        <v>933</v>
+        <v>3392.7</v>
       </c>
       <c r="H6">
-        <v>669</v>
+        <v>3128.7</v>
       </c>
       <c r="I6">
-        <v>-361.62</v>
+        <v>2098.08</v>
       </c>
       <c r="J6">
-        <v>-2289.02</v>
+        <v>170.68</v>
       </c>
       <c r="K6">
-        <v>878.82</v>
+        <v>3338.52</v>
       </c>
       <c r="L6">
-        <v>122.58</v>
+        <v>2582.28</v>
       </c>
       <c r="M6">
-        <v>-633.66</v>
+        <v>1826.04</v>
       </c>
       <c r="N6">
-        <v>318.96</v>
+        <v>2778.66</v>
       </c>
       <c r="O6">
-        <v>-1055.21</v>
+        <v>1404.49</v>
       </c>
       <c r="P6">
-        <v>-3625.07</v>
+        <v>-1165.37</v>
       </c>
       <c r="Q6">
-        <v>599.6</v>
+        <v>3059.3</v>
       </c>
       <c r="R6">
-        <v>-408.71</v>
+        <v>2050.99</v>
       </c>
       <c r="S6">
-        <v>-1417.03</v>
+        <v>1042.67</v>
       </c>
       <c r="T6">
-        <v>-380.29</v>
+        <v>2079.41</v>
       </c>
       <c r="U6">
-        <v>-2441.53</v>
+        <v>18.17</v>
       </c>
       <c r="V6">
-        <v>-6296.33</v>
+        <v>-3836.63</v>
       </c>
       <c r="W6">
-        <v>40.37</v>
+        <v>2500.07</v>
       </c>
       <c r="X6">
-        <v>-1472.1</v>
+        <v>987.6</v>
       </c>
       <c r="Y6">
-        <v>-2984.57</v>
+        <v>-524.87</v>
       </c>
       <c r="Z6">
-        <v>-729.63</v>
+        <v>1730.07</v>
       </c>
       <c r="AA6">
-        <v>-3134.42</v>
+        <v>-674.72</v>
       </c>
       <c r="AB6">
-        <v>-7631.68</v>
+        <v>-5171.98</v>
       </c>
       <c r="AC6">
-        <v>-238.89</v>
+        <v>2220.81</v>
       </c>
       <c r="AD6">
-        <v>-2003.44</v>
+        <v>456.26</v>
       </c>
       <c r="AE6">
-        <v>-3767.99</v>
+        <v>-1308.29</v>
       </c>
       <c r="AF6">
-        <v>-1428.22</v>
+        <v>1031.48</v>
       </c>
       <c r="AG6">
-        <v>-4520.09</v>
+        <v>-2060.39</v>
       </c>
       <c r="AH6">
-        <v>-10302.29</v>
+        <v>-7842.59</v>
       </c>
       <c r="AI6">
-        <v>-797.51</v>
+        <v>1662.19</v>
       </c>
       <c r="AJ6">
-        <v>-3066.22</v>
+        <v>-606.52</v>
       </c>
       <c r="AK6">
-        <v>-5334.93</v>
+        <v>-2875.23</v>
       </c>
       <c r="AL6">
-        <v>-1777.56</v>
+        <v>682.14</v>
       </c>
       <c r="AM6">
-        <v>-5212.97</v>
+        <v>-2753.27</v>
       </c>
       <c r="AN6">
-        <v>-11637.64</v>
+        <v>-9177.94</v>
       </c>
       <c r="AO6">
-        <v>-1076.77</v>
+        <v>1382.93</v>
       </c>
       <c r="AP6">
-        <v>-3597.56</v>
+        <v>-1137.86</v>
       </c>
       <c r="AQ6">
-        <v>-6118.35</v>
+        <v>-3658.65</v>
       </c>
       <c r="AR6">
-        <v>-2476.2</v>
+        <v>-16.5</v>
       </c>
       <c r="AS6">
-        <v>-6598.69</v>
+        <v>-4138.99</v>
       </c>
       <c r="AT6">
-        <v>-14308.29</v>
+        <v>-11848.59</v>
       </c>
       <c r="AU6">
-        <v>-1635.35</v>
+        <v>824.35</v>
       </c>
       <c r="AV6">
-        <v>-4660.29</v>
+        <v>-2200.59</v>
       </c>
       <c r="AW6">
-        <v>-7685.24</v>
+        <v>-5225.54</v>
       </c>
       <c r="AX6">
-        <v>-2825.5</v>
+        <v>-365.8</v>
       </c>
       <c r="AY6">
-        <v>-7291.53</v>
+        <v>-4831.83</v>
       </c>
       <c r="AZ6">
-        <v>-15643.59</v>
+        <v>-13183.89</v>
       </c>
       <c r="BA6">
-        <v>-1914.66</v>
+        <v>545.04</v>
       </c>
       <c r="BB6">
-        <v>-5191.68</v>
+        <v>-2731.98</v>
       </c>
       <c r="BC6">
-        <v>-8468.7</v>
+        <v>-6009</v>
       </c>
       <c r="BD6">
-        <v>-3524.18</v>
+        <v>-1064.48</v>
       </c>
       <c r="BE6">
-        <v>-8677.3</v>
+        <v>-6217.6</v>
       </c>
       <c r="BF6">
-        <v>-18314.29</v>
+        <v>-15854.59</v>
       </c>
       <c r="BG6">
-        <v>-2473.28</v>
+        <v>-13.58</v>
       </c>
       <c r="BH6">
-        <v>-6254.46</v>
+        <v>-3794.76</v>
       </c>
       <c r="BI6">
-        <v>-10035.64</v>
+        <v>-7575.94</v>
       </c>
     </row>
     <row r="7">
@@ -1694,184 +1694,184 @@
         </is>
       </c>
       <c r="B7">
-        <v>10592.08</v>
+        <v>13051.78</v>
       </c>
       <c r="C7">
-        <v>10248.54</v>
+        <v>12708.24</v>
       </c>
       <c r="D7">
-        <v>9606.07</v>
+        <v>12065.77</v>
       </c>
       <c r="E7">
-        <v>10662.16</v>
+        <v>13121.86</v>
       </c>
       <c r="F7">
-        <v>10410.08</v>
+        <v>12869.78</v>
       </c>
       <c r="G7">
-        <v>10158</v>
+        <v>12617.7</v>
       </c>
       <c r="H7">
-        <v>9894</v>
+        <v>12353.7</v>
       </c>
       <c r="I7">
-        <v>8863.38</v>
+        <v>11323.08</v>
       </c>
       <c r="J7">
-        <v>6935.98</v>
+        <v>9395.68</v>
       </c>
       <c r="K7">
-        <v>10103.82</v>
+        <v>12563.52</v>
       </c>
       <c r="L7">
-        <v>9347.58</v>
+        <v>11807.28</v>
       </c>
       <c r="M7">
-        <v>8591.34</v>
+        <v>11051.04</v>
       </c>
       <c r="N7">
-        <v>9543.96</v>
+        <v>12003.66</v>
       </c>
       <c r="O7">
-        <v>8169.79</v>
+        <v>10629.49</v>
       </c>
       <c r="P7">
-        <v>5599.93</v>
+        <v>8059.63</v>
       </c>
       <c r="Q7">
-        <v>9824.6</v>
+        <v>12284.3</v>
       </c>
       <c r="R7">
-        <v>8816.29</v>
+        <v>11275.99</v>
       </c>
       <c r="S7">
-        <v>7807.97</v>
+        <v>10267.67</v>
       </c>
       <c r="T7">
-        <v>8844.71</v>
+        <v>11304.41</v>
       </c>
       <c r="U7">
-        <v>6783.47</v>
+        <v>9243.17</v>
       </c>
       <c r="V7">
-        <v>2928.67</v>
+        <v>5388.37</v>
       </c>
       <c r="W7">
-        <v>9265.37</v>
+        <v>11725.07</v>
       </c>
       <c r="X7">
-        <v>7752.9</v>
+        <v>10212.6</v>
       </c>
       <c r="Y7">
-        <v>6240.43</v>
+        <v>8700.13</v>
       </c>
       <c r="Z7">
-        <v>8495.37</v>
+        <v>10955.07</v>
       </c>
       <c r="AA7">
-        <v>6090.58</v>
+        <v>8550.28</v>
       </c>
       <c r="AB7">
-        <v>1593.32</v>
+        <v>4053.02</v>
       </c>
       <c r="AC7">
-        <v>8986.11</v>
+        <v>11445.81</v>
       </c>
       <c r="AD7">
-        <v>7221.56</v>
+        <v>9681.26</v>
       </c>
       <c r="AE7">
-        <v>5457.01</v>
+        <v>7916.71</v>
       </c>
       <c r="AF7">
-        <v>7796.78</v>
+        <v>10256.48</v>
       </c>
       <c r="AG7">
-        <v>4704.91</v>
+        <v>7164.61</v>
       </c>
       <c r="AH7">
-        <v>-1077.29</v>
+        <v>1382.41</v>
       </c>
       <c r="AI7">
-        <v>8427.49</v>
+        <v>10887.19</v>
       </c>
       <c r="AJ7">
-        <v>6158.78</v>
+        <v>8618.48</v>
       </c>
       <c r="AK7">
-        <v>3890.07</v>
+        <v>6349.77</v>
       </c>
       <c r="AL7">
-        <v>7447.44</v>
+        <v>9907.14</v>
       </c>
       <c r="AM7">
-        <v>4012.03</v>
+        <v>6471.73</v>
       </c>
       <c r="AN7">
-        <v>-2412.64</v>
+        <v>47.06</v>
       </c>
       <c r="AO7">
-        <v>8148.23</v>
+        <v>10607.93</v>
       </c>
       <c r="AP7">
-        <v>5627.44</v>
+        <v>8087.14</v>
       </c>
       <c r="AQ7">
-        <v>3106.65</v>
+        <v>5566.35</v>
       </c>
       <c r="AR7">
-        <v>6748.8</v>
+        <v>9208.5</v>
       </c>
       <c r="AS7">
-        <v>2626.31</v>
+        <v>5086.01</v>
       </c>
       <c r="AT7">
-        <v>-5083.29</v>
+        <v>-2623.59</v>
       </c>
       <c r="AU7">
-        <v>7589.65</v>
+        <v>10049.35</v>
       </c>
       <c r="AV7">
-        <v>4564.71</v>
+        <v>7024.41</v>
       </c>
       <c r="AW7">
-        <v>1539.76</v>
+        <v>3999.46</v>
       </c>
       <c r="AX7">
-        <v>6399.5</v>
+        <v>8859.2</v>
       </c>
       <c r="AY7">
-        <v>1933.47</v>
+        <v>4393.17</v>
       </c>
       <c r="AZ7">
-        <v>-6418.59</v>
+        <v>-3958.89</v>
       </c>
       <c r="BA7">
-        <v>7310.34</v>
+        <v>9770.04</v>
       </c>
       <c r="BB7">
-        <v>4033.32</v>
+        <v>6493.02</v>
       </c>
       <c r="BC7">
-        <v>756.3</v>
+        <v>3216</v>
       </c>
       <c r="BD7">
-        <v>5700.82</v>
+        <v>8160.52</v>
       </c>
       <c r="BE7">
-        <v>547.7</v>
+        <v>3007.4</v>
       </c>
       <c r="BF7">
-        <v>-9089.29</v>
+        <v>-6629.59</v>
       </c>
       <c r="BG7">
-        <v>6751.72</v>
+        <v>9211.42</v>
       </c>
       <c r="BH7">
-        <v>2970.54</v>
+        <v>5430.24</v>
       </c>
       <c r="BI7">
-        <v>-810.64</v>
+        <v>1649.06</v>
       </c>
     </row>
     <row r="8">
@@ -1881,184 +1881,184 @@
         </is>
       </c>
       <c r="B8">
-        <v>-4973.65</v>
+        <v>-2513.01</v>
       </c>
       <c r="C8">
-        <v>-5317.19</v>
+        <v>-2856.55</v>
       </c>
       <c r="D8">
-        <v>-5959.65</v>
+        <v>-3499.02</v>
       </c>
       <c r="E8">
-        <v>-4903.57</v>
+        <v>-2442.93</v>
       </c>
       <c r="F8">
-        <v>-5155.65</v>
+        <v>-2695.01</v>
       </c>
       <c r="G8">
-        <v>-5407.72</v>
+        <v>-2947.09</v>
       </c>
       <c r="H8">
-        <v>-5671.73</v>
+        <v>-3211.09</v>
       </c>
       <c r="I8">
-        <v>-6702.35</v>
+        <v>-4241.71</v>
       </c>
       <c r="J8">
-        <v>-8629.75</v>
+        <v>-6169.11</v>
       </c>
       <c r="K8">
-        <v>-5461.91</v>
+        <v>-3001.27</v>
       </c>
       <c r="L8">
-        <v>-6218.14</v>
+        <v>-3757.51</v>
       </c>
       <c r="M8">
-        <v>-6974.38</v>
+        <v>-4513.74</v>
       </c>
       <c r="N8">
-        <v>-6021.77</v>
+        <v>-3561.13</v>
       </c>
       <c r="O8">
-        <v>-7395.93</v>
+        <v>-4935.29</v>
       </c>
       <c r="P8">
-        <v>-9965.8</v>
+        <v>-7505.16</v>
       </c>
       <c r="Q8">
-        <v>-5741.12</v>
+        <v>-3280.49</v>
       </c>
       <c r="R8">
-        <v>-6749.44</v>
+        <v>-4288.8</v>
       </c>
       <c r="S8">
-        <v>-7757.75</v>
+        <v>-5297.12</v>
       </c>
       <c r="T8">
-        <v>-6721.01</v>
+        <v>-4260.37</v>
       </c>
       <c r="U8">
-        <v>-8782.26</v>
+        <v>-6321.62</v>
       </c>
       <c r="V8">
-        <v>-12637.05</v>
+        <v>-10176.42</v>
       </c>
       <c r="W8">
-        <v>-6300.35</v>
+        <v>-3839.71</v>
       </c>
       <c r="X8">
-        <v>-7812.82</v>
+        <v>-5352.19</v>
       </c>
       <c r="Y8">
-        <v>-9325.3</v>
+        <v>-6864.66</v>
       </c>
       <c r="Z8">
-        <v>-7070.35</v>
+        <v>-4609.72</v>
       </c>
       <c r="AA8">
-        <v>-9475.14</v>
+        <v>-7014.5</v>
       </c>
       <c r="AB8">
-        <v>-13972.4</v>
+        <v>-11511.77</v>
       </c>
       <c r="AC8">
-        <v>-6579.61</v>
+        <v>-4118.98</v>
       </c>
       <c r="AD8">
-        <v>-8344.17</v>
+        <v>-5883.53</v>
       </c>
       <c r="AE8">
-        <v>-10108.72</v>
+        <v>-7648.08</v>
       </c>
       <c r="AF8">
-        <v>-7768.94</v>
+        <v>-5308.31</v>
       </c>
       <c r="AG8">
-        <v>-10860.81</v>
+        <v>-8400.18</v>
       </c>
       <c r="AH8">
-        <v>-16643.01</v>
+        <v>-14182.37</v>
       </c>
       <c r="AI8">
-        <v>-7138.23</v>
+        <v>-4677.6</v>
       </c>
       <c r="AJ8">
-        <v>-9406.94</v>
+        <v>-6946.31</v>
       </c>
       <c r="AK8">
-        <v>-11675.65</v>
+        <v>-9215.01</v>
       </c>
       <c r="AL8">
-        <v>-8118.29</v>
+        <v>-5657.65</v>
       </c>
       <c r="AM8">
-        <v>-11553.7</v>
+        <v>-9093.06</v>
       </c>
       <c r="AN8">
-        <v>-17978.36</v>
+        <v>-15517.72</v>
       </c>
       <c r="AO8">
-        <v>-7417.5</v>
+        <v>-4956.86</v>
       </c>
       <c r="AP8">
-        <v>-9938.29</v>
+        <v>-7477.65</v>
       </c>
       <c r="AQ8">
-        <v>-12459.07</v>
+        <v>-9998.44</v>
       </c>
       <c r="AR8">
-        <v>-8816.93</v>
+        <v>-6356.29</v>
       </c>
       <c r="AS8">
-        <v>-12939.42</v>
+        <v>-10478.78</v>
       </c>
       <c r="AT8">
-        <v>-20649.01</v>
+        <v>-18188.38</v>
       </c>
       <c r="AU8">
-        <v>-7976.07</v>
+        <v>-5515.43</v>
       </c>
       <c r="AV8">
-        <v>-11001.02</v>
+        <v>-8540.38</v>
       </c>
       <c r="AW8">
-        <v>-14025.96</v>
+        <v>-11565.32</v>
       </c>
       <c r="AX8">
-        <v>-9166.22</v>
+        <v>-6705.58</v>
       </c>
       <c r="AY8">
-        <v>-13632.25</v>
+        <v>-11171.62</v>
       </c>
       <c r="AZ8">
-        <v>-21984.32</v>
+        <v>-19523.68</v>
       </c>
       <c r="BA8">
-        <v>-8255.38</v>
+        <v>-5794.74</v>
       </c>
       <c r="BB8">
-        <v>-11532.4</v>
+        <v>-9071.77</v>
       </c>
       <c r="BC8">
-        <v>-14809.43</v>
+        <v>-12348.79</v>
       </c>
       <c r="BD8">
-        <v>-9864.91</v>
+        <v>-7404.27</v>
       </c>
       <c r="BE8">
-        <v>-15018.02</v>
+        <v>-12557.38</v>
       </c>
       <c r="BF8">
-        <v>-24655.02</v>
+        <v>-22194.38</v>
       </c>
       <c r="BG8">
-        <v>-8814</v>
+        <v>-6353.36</v>
       </c>
       <c r="BH8">
-        <v>-12595.18</v>
+        <v>-10134.54</v>
       </c>
       <c r="BI8">
-        <v>-16376.36</v>
+        <v>-13915.73</v>
       </c>
     </row>
     <row r="9">
@@ -2068,184 +2068,184 @@
         </is>
       </c>
       <c r="B9">
-        <v>8863.85</v>
+        <v>11325.99</v>
       </c>
       <c r="C9">
-        <v>8520.31</v>
+        <v>10982.45</v>
       </c>
       <c r="D9">
-        <v>7877.85</v>
+        <v>10339.98</v>
       </c>
       <c r="E9">
-        <v>8933.93</v>
+        <v>11396.07</v>
       </c>
       <c r="F9">
-        <v>8681.85</v>
+        <v>11143.99</v>
       </c>
       <c r="G9">
-        <v>8429.78</v>
+        <v>10891.91</v>
       </c>
       <c r="H9">
-        <v>8165.77</v>
+        <v>10627.91</v>
       </c>
       <c r="I9">
-        <v>7135.15</v>
+        <v>9597.29</v>
       </c>
       <c r="J9">
-        <v>5207.75</v>
+        <v>7669.89</v>
       </c>
       <c r="K9">
-        <v>8375.59</v>
+        <v>10837.73</v>
       </c>
       <c r="L9">
-        <v>7619.36</v>
+        <v>10081.49</v>
       </c>
       <c r="M9">
-        <v>6863.12</v>
+        <v>9325.26</v>
       </c>
       <c r="N9">
-        <v>7815.73</v>
+        <v>10277.87</v>
       </c>
       <c r="O9">
-        <v>6441.57</v>
+        <v>8903.71</v>
       </c>
       <c r="P9">
-        <v>3871.7</v>
+        <v>6333.84</v>
       </c>
       <c r="Q9">
-        <v>8096.38</v>
+        <v>10558.51</v>
       </c>
       <c r="R9">
-        <v>7088.06</v>
+        <v>9550.2</v>
       </c>
       <c r="S9">
-        <v>6079.75</v>
+        <v>8541.88</v>
       </c>
       <c r="T9">
-        <v>7116.49</v>
+        <v>9578.63</v>
       </c>
       <c r="U9">
-        <v>5055.24</v>
+        <v>7517.38</v>
       </c>
       <c r="V9">
-        <v>1200.45</v>
+        <v>3662.58</v>
       </c>
       <c r="W9">
-        <v>7537.15</v>
+        <v>9999.29</v>
       </c>
       <c r="X9">
-        <v>6024.68</v>
+        <v>8486.81</v>
       </c>
       <c r="Y9">
-        <v>4512.2</v>
+        <v>6974.34</v>
       </c>
       <c r="Z9">
-        <v>6767.15</v>
+        <v>9229.28</v>
       </c>
       <c r="AA9">
-        <v>4362.36</v>
+        <v>6824.5</v>
       </c>
       <c r="AB9">
-        <v>-134.9</v>
+        <v>2327.23</v>
       </c>
       <c r="AC9">
-        <v>7257.89</v>
+        <v>9720.02</v>
       </c>
       <c r="AD9">
-        <v>5493.33</v>
+        <v>7955.47</v>
       </c>
       <c r="AE9">
-        <v>3728.78</v>
+        <v>6190.92</v>
       </c>
       <c r="AF9">
-        <v>6068.56</v>
+        <v>8530.69</v>
       </c>
       <c r="AG9">
-        <v>2976.69</v>
+        <v>5438.82</v>
       </c>
       <c r="AH9">
-        <v>-2805.51</v>
+        <v>-343.37</v>
       </c>
       <c r="AI9">
-        <v>6699.27</v>
+        <v>9161.4</v>
       </c>
       <c r="AJ9">
-        <v>4430.56</v>
+        <v>6892.69</v>
       </c>
       <c r="AK9">
-        <v>2161.85</v>
+        <v>4623.99</v>
       </c>
       <c r="AL9">
-        <v>5719.21</v>
+        <v>8181.35</v>
       </c>
       <c r="AM9">
-        <v>2283.8</v>
+        <v>4745.94</v>
       </c>
       <c r="AN9">
-        <v>-4140.86</v>
+        <v>-1678.72</v>
       </c>
       <c r="AO9">
-        <v>6420</v>
+        <v>8882.14</v>
       </c>
       <c r="AP9">
-        <v>3899.21</v>
+        <v>6361.35</v>
       </c>
       <c r="AQ9">
-        <v>1378.43</v>
+        <v>3840.56</v>
       </c>
       <c r="AR9">
-        <v>5020.57</v>
+        <v>7482.71</v>
       </c>
       <c r="AS9">
-        <v>898.08</v>
+        <v>3360.22</v>
       </c>
       <c r="AT9">
-        <v>-6811.51</v>
+        <v>-4349.38</v>
       </c>
       <c r="AU9">
-        <v>5861.43</v>
+        <v>8323.57</v>
       </c>
       <c r="AV9">
-        <v>2836.48</v>
+        <v>5298.62</v>
       </c>
       <c r="AW9">
-        <v>-188.46</v>
+        <v>2273.68</v>
       </c>
       <c r="AX9">
-        <v>4671.28</v>
+        <v>7133.42</v>
       </c>
       <c r="AY9">
-        <v>205.25</v>
+        <v>2667.38</v>
       </c>
       <c r="AZ9">
-        <v>-8146.82</v>
+        <v>-5684.68</v>
       </c>
       <c r="BA9">
-        <v>5582.12</v>
+        <v>8044.26</v>
       </c>
       <c r="BB9">
-        <v>2305.1</v>
+        <v>4767.23</v>
       </c>
       <c r="BC9">
-        <v>-971.93</v>
+        <v>1490.21</v>
       </c>
       <c r="BD9">
-        <v>3972.59</v>
+        <v>6434.73</v>
       </c>
       <c r="BE9">
-        <v>-1180.52</v>
+        <v>1281.62</v>
       </c>
       <c r="BF9">
-        <v>-10817.52</v>
+        <v>-8355.38</v>
       </c>
       <c r="BG9">
-        <v>5023.5</v>
+        <v>7485.64</v>
       </c>
       <c r="BH9">
-        <v>1242.32</v>
+        <v>3704.46</v>
       </c>
       <c r="BI9">
-        <v>-2538.86</v>
+        <v>-76.73</v>
       </c>
     </row>
     <row r="10">
@@ -2255,184 +2255,184 @@
         </is>
       </c>
       <c r="B10">
-        <v>22701.35</v>
+        <v>25164.99</v>
       </c>
       <c r="C10">
-        <v>22357.81</v>
+        <v>24821.45</v>
       </c>
       <c r="D10">
-        <v>21715.35</v>
+        <v>24178.98</v>
       </c>
       <c r="E10">
-        <v>22771.43</v>
+        <v>25235.07</v>
       </c>
       <c r="F10">
-        <v>22519.35</v>
+        <v>24982.99</v>
       </c>
       <c r="G10">
-        <v>22267.28</v>
+        <v>24730.91</v>
       </c>
       <c r="H10">
-        <v>22003.27</v>
+        <v>24466.91</v>
       </c>
       <c r="I10">
-        <v>20972.65</v>
+        <v>23436.29</v>
       </c>
       <c r="J10">
-        <v>19045.25</v>
+        <v>21508.89</v>
       </c>
       <c r="K10">
-        <v>22213.09</v>
+        <v>24676.73</v>
       </c>
       <c r="L10">
-        <v>21456.86</v>
+        <v>23920.49</v>
       </c>
       <c r="M10">
-        <v>20700.62</v>
+        <v>23164.26</v>
       </c>
       <c r="N10">
-        <v>21653.23</v>
+        <v>24116.87</v>
       </c>
       <c r="O10">
-        <v>20279.07</v>
+        <v>22742.71</v>
       </c>
       <c r="P10">
-        <v>17709.2</v>
+        <v>20172.84</v>
       </c>
       <c r="Q10">
-        <v>21933.88</v>
+        <v>24397.51</v>
       </c>
       <c r="R10">
-        <v>20925.56</v>
+        <v>23389.2</v>
       </c>
       <c r="S10">
-        <v>19917.25</v>
+        <v>22380.88</v>
       </c>
       <c r="T10">
-        <v>20953.99</v>
+        <v>23417.63</v>
       </c>
       <c r="U10">
-        <v>18892.74</v>
+        <v>21356.38</v>
       </c>
       <c r="V10">
-        <v>15037.95</v>
+        <v>17501.58</v>
       </c>
       <c r="W10">
-        <v>21374.65</v>
+        <v>23838.29</v>
       </c>
       <c r="X10">
-        <v>19862.18</v>
+        <v>22325.81</v>
       </c>
       <c r="Y10">
-        <v>18349.7</v>
+        <v>20813.34</v>
       </c>
       <c r="Z10">
-        <v>20604.65</v>
+        <v>23068.28</v>
       </c>
       <c r="AA10">
-        <v>18199.86</v>
+        <v>20663.5</v>
       </c>
       <c r="AB10">
-        <v>13702.6</v>
+        <v>16166.23</v>
       </c>
       <c r="AC10">
-        <v>21095.39</v>
+        <v>23559.02</v>
       </c>
       <c r="AD10">
-        <v>19330.83</v>
+        <v>21794.47</v>
       </c>
       <c r="AE10">
-        <v>17566.28</v>
+        <v>20029.92</v>
       </c>
       <c r="AF10">
-        <v>19906.06</v>
+        <v>22369.69</v>
       </c>
       <c r="AG10">
-        <v>16814.19</v>
+        <v>19277.82</v>
       </c>
       <c r="AH10">
-        <v>11031.99</v>
+        <v>13495.63</v>
       </c>
       <c r="AI10">
-        <v>20536.77</v>
+        <v>23000.4</v>
       </c>
       <c r="AJ10">
-        <v>18268.06</v>
+        <v>20731.69</v>
       </c>
       <c r="AK10">
-        <v>15999.35</v>
+        <v>18462.99</v>
       </c>
       <c r="AL10">
-        <v>19556.71</v>
+        <v>22020.35</v>
       </c>
       <c r="AM10">
-        <v>16121.3</v>
+        <v>18584.94</v>
       </c>
       <c r="AN10">
-        <v>9696.64</v>
+        <v>12160.28</v>
       </c>
       <c r="AO10">
-        <v>20257.5</v>
+        <v>22721.14</v>
       </c>
       <c r="AP10">
-        <v>17736.71</v>
+        <v>20200.35</v>
       </c>
       <c r="AQ10">
-        <v>15215.93</v>
+        <v>17679.56</v>
       </c>
       <c r="AR10">
-        <v>18858.07</v>
+        <v>21321.71</v>
       </c>
       <c r="AS10">
-        <v>14735.58</v>
+        <v>17199.22</v>
       </c>
       <c r="AT10">
-        <v>7025.99</v>
+        <v>9489.62</v>
       </c>
       <c r="AU10">
-        <v>19698.93</v>
+        <v>22162.57</v>
       </c>
       <c r="AV10">
-        <v>16673.98</v>
+        <v>19137.62</v>
       </c>
       <c r="AW10">
-        <v>13649.04</v>
+        <v>16112.68</v>
       </c>
       <c r="AX10">
-        <v>18508.78</v>
+        <v>20972.42</v>
       </c>
       <c r="AY10">
-        <v>14042.75</v>
+        <v>16506.38</v>
       </c>
       <c r="AZ10">
-        <v>5690.68</v>
+        <v>8154.32</v>
       </c>
       <c r="BA10">
-        <v>19419.62</v>
+        <v>21883.26</v>
       </c>
       <c r="BB10">
-        <v>16142.6</v>
+        <v>18606.23</v>
       </c>
       <c r="BC10">
-        <v>12865.57</v>
+        <v>15329.21</v>
       </c>
       <c r="BD10">
-        <v>17810.09</v>
+        <v>20273.73</v>
       </c>
       <c r="BE10">
-        <v>12656.98</v>
+        <v>15120.62</v>
       </c>
       <c r="BF10">
-        <v>3019.98</v>
+        <v>5483.62</v>
       </c>
       <c r="BG10">
-        <v>18861</v>
+        <v>21324.64</v>
       </c>
       <c r="BH10">
-        <v>15079.82</v>
+        <v>17543.46</v>
       </c>
       <c r="BI10">
-        <v>11298.64</v>
+        <v>13762.27</v>
       </c>
     </row>
     <row r="11">
@@ -2442,184 +2442,184 @@
         </is>
       </c>
       <c r="B11">
-        <v>-10677.52</v>
+        <v>-8216.88</v>
       </c>
       <c r="C11">
-        <v>-11021.06</v>
+        <v>-8560.42</v>
       </c>
       <c r="D11">
-        <v>-11663.52</v>
+        <v>-9202.88</v>
       </c>
       <c r="E11">
-        <v>-10575.28</v>
+        <v>-8114.64</v>
       </c>
       <c r="F11">
-        <v>-10827.36</v>
+        <v>-8366.72</v>
       </c>
       <c r="G11">
-        <v>-11079.44</v>
+        <v>-8618.8</v>
       </c>
       <c r="H11">
-        <v>-11246.28</v>
+        <v>-8785.64</v>
       </c>
       <c r="I11">
-        <v>-12276.9</v>
+        <v>-9816.26</v>
       </c>
       <c r="J11">
-        <v>-14204.3</v>
+        <v>-11743.66</v>
       </c>
       <c r="K11">
-        <v>-10940.05</v>
+        <v>-8479.41</v>
       </c>
       <c r="L11">
-        <v>-11696.28</v>
+        <v>-9235.64</v>
       </c>
       <c r="M11">
-        <v>-12452.52</v>
+        <v>-9991.88</v>
       </c>
       <c r="N11">
-        <v>-11531.78</v>
+        <v>-9071.14</v>
       </c>
       <c r="O11">
-        <v>-12905.94</v>
+        <v>-10445.31</v>
       </c>
       <c r="P11">
-        <v>-15475.81</v>
+        <v>-13015.17</v>
       </c>
       <c r="Q11">
-        <v>-11122.52</v>
+        <v>-8661.88</v>
       </c>
       <c r="R11">
-        <v>-12130.84</v>
+        <v>-9670.2</v>
       </c>
       <c r="S11">
-        <v>-13139.15</v>
+        <v>-10678.51</v>
       </c>
       <c r="T11">
-        <v>-12101.76</v>
+        <v>-9641.12</v>
       </c>
       <c r="U11">
-        <v>-14163</v>
+        <v>-11702.36</v>
       </c>
       <c r="V11">
-        <v>-18017.8</v>
+        <v>-15557.16</v>
       </c>
       <c r="W11">
-        <v>-11488.26</v>
+        <v>-9027.63</v>
       </c>
       <c r="X11">
-        <v>-13000.74</v>
+        <v>-10540.1</v>
       </c>
       <c r="Y11">
-        <v>-14513.21</v>
+        <v>-12052.57</v>
       </c>
       <c r="Z11">
-        <v>-12386.46</v>
+        <v>-9925.83</v>
       </c>
       <c r="AA11">
-        <v>-14791.25</v>
+        <v>-12330.61</v>
       </c>
       <c r="AB11">
-        <v>-19288.51</v>
+        <v>-16827.88</v>
       </c>
       <c r="AC11">
-        <v>-11670.74</v>
+        <v>-9210.1</v>
       </c>
       <c r="AD11">
-        <v>-13435.29</v>
+        <v>-10974.65</v>
       </c>
       <c r="AE11">
-        <v>-15199.84</v>
+        <v>-12739.2</v>
       </c>
       <c r="AF11">
-        <v>-12955.83</v>
+        <v>-10495.2</v>
       </c>
       <c r="AG11">
-        <v>-16047.7</v>
+        <v>-13587.06</v>
       </c>
       <c r="AH11">
-        <v>-21829.9</v>
+        <v>-19369.26</v>
       </c>
       <c r="AI11">
-        <v>-12035.83</v>
+        <v>-9575.19</v>
       </c>
       <c r="AJ11">
-        <v>-14304.54</v>
+        <v>-11843.9</v>
       </c>
       <c r="AK11">
-        <v>-16573.25</v>
+        <v>-14112.61</v>
       </c>
       <c r="AL11">
-        <v>-13240.54</v>
+        <v>-10779.9</v>
       </c>
       <c r="AM11">
-        <v>-16675.95</v>
+        <v>-14215.31</v>
       </c>
       <c r="AN11">
-        <v>-23100.61</v>
+        <v>-20639.98</v>
       </c>
       <c r="AO11">
-        <v>-12218.35</v>
+        <v>-9757.71</v>
       </c>
       <c r="AP11">
-        <v>-14739.14</v>
+        <v>-12278.5</v>
       </c>
       <c r="AQ11">
-        <v>-17259.93</v>
+        <v>-14799.29</v>
       </c>
       <c r="AR11">
-        <v>-13809.91</v>
+        <v>-11349.27</v>
       </c>
       <c r="AS11">
-        <v>-17932.4</v>
+        <v>-15471.77</v>
       </c>
       <c r="AT11">
-        <v>-25642</v>
+        <v>-23181.36</v>
       </c>
       <c r="AU11">
-        <v>-12583.4</v>
+        <v>-10122.76</v>
       </c>
       <c r="AV11">
-        <v>-15608.34</v>
+        <v>-13147.7</v>
       </c>
       <c r="AW11">
-        <v>-18633.29</v>
+        <v>-16172.65</v>
       </c>
       <c r="AX11">
-        <v>-14094.62</v>
+        <v>-11633.98</v>
       </c>
       <c r="AY11">
-        <v>-18560.65</v>
+        <v>-16100.01</v>
       </c>
       <c r="AZ11">
-        <v>-26912.71</v>
+        <v>-24452.08</v>
       </c>
       <c r="BA11">
-        <v>-12765.92</v>
+        <v>-10305.28</v>
       </c>
       <c r="BB11">
-        <v>-16042.94</v>
+        <v>-13582.3</v>
       </c>
       <c r="BC11">
-        <v>-19319.97</v>
+        <v>-16859.33</v>
       </c>
       <c r="BD11">
-        <v>-14663.99</v>
+        <v>-12203.35</v>
       </c>
       <c r="BE11">
-        <v>-19817.1</v>
+        <v>-17356.47</v>
       </c>
       <c r="BF11">
-        <v>-29454.1</v>
+        <v>-26993.46</v>
       </c>
       <c r="BG11">
-        <v>-13131.05</v>
+        <v>-10670.42</v>
       </c>
       <c r="BH11">
-        <v>-16912.24</v>
+        <v>-14451.6</v>
       </c>
       <c r="BI11">
-        <v>-20693.42</v>
+        <v>-18232.78</v>
       </c>
     </row>
     <row r="12">
@@ -2629,184 +2629,184 @@
         </is>
       </c>
       <c r="B12">
-        <v>-6065.02</v>
+        <v>-3602.88</v>
       </c>
       <c r="C12">
-        <v>-6408.56</v>
+        <v>-3946.42</v>
       </c>
       <c r="D12">
-        <v>-7051.02</v>
+        <v>-4588.88</v>
       </c>
       <c r="E12">
-        <v>-5962.78</v>
+        <v>-3500.64</v>
       </c>
       <c r="F12">
-        <v>-6214.86</v>
+        <v>-3752.72</v>
       </c>
       <c r="G12">
-        <v>-6466.94</v>
+        <v>-4004.8</v>
       </c>
       <c r="H12">
-        <v>-6633.78</v>
+        <v>-4171.64</v>
       </c>
       <c r="I12">
-        <v>-7664.4</v>
+        <v>-5202.26</v>
       </c>
       <c r="J12">
-        <v>-9591.8</v>
+        <v>-7129.66</v>
       </c>
       <c r="K12">
-        <v>-6327.55</v>
+        <v>-3865.41</v>
       </c>
       <c r="L12">
-        <v>-7083.78</v>
+        <v>-4621.64</v>
       </c>
       <c r="M12">
-        <v>-7840.02</v>
+        <v>-5377.88</v>
       </c>
       <c r="N12">
-        <v>-6919.28</v>
+        <v>-4457.14</v>
       </c>
       <c r="O12">
-        <v>-8293.44</v>
+        <v>-5831.31</v>
       </c>
       <c r="P12">
-        <v>-10863.31</v>
+        <v>-8401.17</v>
       </c>
       <c r="Q12">
-        <v>-6510.02</v>
+        <v>-4047.88</v>
       </c>
       <c r="R12">
-        <v>-7518.34</v>
+        <v>-5056.2</v>
       </c>
       <c r="S12">
-        <v>-8526.65</v>
+        <v>-6064.51</v>
       </c>
       <c r="T12">
-        <v>-7489.26</v>
+        <v>-5027.12</v>
       </c>
       <c r="U12">
-        <v>-9550.5</v>
+        <v>-7088.36</v>
       </c>
       <c r="V12">
-        <v>-13405.3</v>
+        <v>-10943.16</v>
       </c>
       <c r="W12">
-        <v>-6875.76</v>
+        <v>-4413.63</v>
       </c>
       <c r="X12">
-        <v>-8388.24</v>
+        <v>-5926.1</v>
       </c>
       <c r="Y12">
-        <v>-9900.71</v>
+        <v>-7438.57</v>
       </c>
       <c r="Z12">
-        <v>-7773.96</v>
+        <v>-5311.83</v>
       </c>
       <c r="AA12">
-        <v>-10178.75</v>
+        <v>-7716.61</v>
       </c>
       <c r="AB12">
-        <v>-14676.01</v>
+        <v>-12213.88</v>
       </c>
       <c r="AC12">
-        <v>-7058.24</v>
+        <v>-4596.1</v>
       </c>
       <c r="AD12">
-        <v>-8822.79</v>
+        <v>-6360.65</v>
       </c>
       <c r="AE12">
-        <v>-10587.34</v>
+        <v>-8125.2</v>
       </c>
       <c r="AF12">
-        <v>-8343.33</v>
+        <v>-5881.2</v>
       </c>
       <c r="AG12">
-        <v>-11435.2</v>
+        <v>-8973.06</v>
       </c>
       <c r="AH12">
-        <v>-17217.4</v>
+        <v>-14755.26</v>
       </c>
       <c r="AI12">
-        <v>-7423.33</v>
+        <v>-4961.19</v>
       </c>
       <c r="AJ12">
-        <v>-9692.04</v>
+        <v>-7229.9</v>
       </c>
       <c r="AK12">
-        <v>-11960.75</v>
+        <v>-9498.61</v>
       </c>
       <c r="AL12">
-        <v>-8628.04</v>
+        <v>-6165.9</v>
       </c>
       <c r="AM12">
-        <v>-12063.45</v>
+        <v>-9601.31</v>
       </c>
       <c r="AN12">
-        <v>-18488.11</v>
+        <v>-16025.98</v>
       </c>
       <c r="AO12">
-        <v>-7605.85</v>
+        <v>-5143.71</v>
       </c>
       <c r="AP12">
-        <v>-10126.64</v>
+        <v>-7664.5</v>
       </c>
       <c r="AQ12">
-        <v>-12647.43</v>
+        <v>-10185.29</v>
       </c>
       <c r="AR12">
-        <v>-9197.41</v>
+        <v>-6735.27</v>
       </c>
       <c r="AS12">
-        <v>-13319.9</v>
+        <v>-10857.77</v>
       </c>
       <c r="AT12">
-        <v>-21029.5</v>
+        <v>-18567.36</v>
       </c>
       <c r="AU12">
-        <v>-7970.9</v>
+        <v>-5508.76</v>
       </c>
       <c r="AV12">
-        <v>-10995.84</v>
+        <v>-8533.7</v>
       </c>
       <c r="AW12">
-        <v>-14020.79</v>
+        <v>-11558.65</v>
       </c>
       <c r="AX12">
-        <v>-9482.12</v>
+        <v>-7019.98</v>
       </c>
       <c r="AY12">
-        <v>-13948.15</v>
+        <v>-11486.01</v>
       </c>
       <c r="AZ12">
-        <v>-22300.21</v>
+        <v>-19838.08</v>
       </c>
       <c r="BA12">
-        <v>-8153.42</v>
+        <v>-5691.28</v>
       </c>
       <c r="BB12">
-        <v>-11430.44</v>
+        <v>-8968.3</v>
       </c>
       <c r="BC12">
-        <v>-14707.47</v>
+        <v>-12245.33</v>
       </c>
       <c r="BD12">
-        <v>-10051.49</v>
+        <v>-7589.35</v>
       </c>
       <c r="BE12">
-        <v>-15204.6</v>
+        <v>-12742.47</v>
       </c>
       <c r="BF12">
-        <v>-24841.6</v>
+        <v>-22379.46</v>
       </c>
       <c r="BG12">
-        <v>-8518.55</v>
+        <v>-6056.42</v>
       </c>
       <c r="BH12">
-        <v>-12299.74</v>
+        <v>-9837.6</v>
       </c>
       <c r="BI12">
-        <v>-16080.92</v>
+        <v>-13618.78</v>
       </c>
     </row>
     <row r="13">
@@ -2816,184 +2816,184 @@
         </is>
       </c>
       <c r="B13">
-        <v>-1452.52</v>
+        <v>1011.12</v>
       </c>
       <c r="C13">
-        <v>-1796.06</v>
+        <v>667.58</v>
       </c>
       <c r="D13">
-        <v>-2438.52</v>
+        <v>25.12</v>
       </c>
       <c r="E13">
-        <v>-1350.28</v>
+        <v>1113.36</v>
       </c>
       <c r="F13">
-        <v>-1602.36</v>
+        <v>861.28</v>
       </c>
       <c r="G13">
-        <v>-1854.44</v>
+        <v>609.2</v>
       </c>
       <c r="H13">
-        <v>-2021.28</v>
+        <v>442.36</v>
       </c>
       <c r="I13">
-        <v>-3051.9</v>
+        <v>-588.26</v>
       </c>
       <c r="J13">
-        <v>-4979.3</v>
+        <v>-2515.66</v>
       </c>
       <c r="K13">
-        <v>-1715.05</v>
+        <v>748.59</v>
       </c>
       <c r="L13">
-        <v>-2471.28</v>
+        <v>-7.64</v>
       </c>
       <c r="M13">
-        <v>-3227.52</v>
+        <v>-763.88</v>
       </c>
       <c r="N13">
-        <v>-2306.78</v>
+        <v>156.86</v>
       </c>
       <c r="O13">
-        <v>-3680.94</v>
+        <v>-1217.31</v>
       </c>
       <c r="P13">
-        <v>-6250.81</v>
+        <v>-3787.17</v>
       </c>
       <c r="Q13">
-        <v>-1897.52</v>
+        <v>566.12</v>
       </c>
       <c r="R13">
-        <v>-2905.84</v>
+        <v>-442.2</v>
       </c>
       <c r="S13">
-        <v>-3914.15</v>
+        <v>-1450.51</v>
       </c>
       <c r="T13">
-        <v>-2876.76</v>
+        <v>-413.12</v>
       </c>
       <c r="U13">
-        <v>-4938</v>
+        <v>-2474.36</v>
       </c>
       <c r="V13">
-        <v>-8792.8</v>
+        <v>-6329.16</v>
       </c>
       <c r="W13">
-        <v>-2263.26</v>
+        <v>200.37</v>
       </c>
       <c r="X13">
-        <v>-3775.74</v>
+        <v>-1312.1</v>
       </c>
       <c r="Y13">
-        <v>-5288.21</v>
+        <v>-2824.57</v>
       </c>
       <c r="Z13">
-        <v>-3161.46</v>
+        <v>-697.83</v>
       </c>
       <c r="AA13">
-        <v>-5566.25</v>
+        <v>-3102.61</v>
       </c>
       <c r="AB13">
-        <v>-10063.51</v>
+        <v>-7599.88</v>
       </c>
       <c r="AC13">
-        <v>-2445.74</v>
+        <v>17.9</v>
       </c>
       <c r="AD13">
-        <v>-4210.29</v>
+        <v>-1746.65</v>
       </c>
       <c r="AE13">
-        <v>-5974.84</v>
+        <v>-3511.2</v>
       </c>
       <c r="AF13">
-        <v>-3730.83</v>
+        <v>-1267.2</v>
       </c>
       <c r="AG13">
-        <v>-6822.7</v>
+        <v>-4359.06</v>
       </c>
       <c r="AH13">
-        <v>-12604.9</v>
+        <v>-10141.26</v>
       </c>
       <c r="AI13">
-        <v>-2810.83</v>
+        <v>-347.19</v>
       </c>
       <c r="AJ13">
-        <v>-5079.54</v>
+        <v>-2615.9</v>
       </c>
       <c r="AK13">
-        <v>-7348.25</v>
+        <v>-4884.61</v>
       </c>
       <c r="AL13">
-        <v>-4015.54</v>
+        <v>-1551.9</v>
       </c>
       <c r="AM13">
-        <v>-7450.95</v>
+        <v>-4987.31</v>
       </c>
       <c r="AN13">
-        <v>-13875.61</v>
+        <v>-11411.98</v>
       </c>
       <c r="AO13">
-        <v>-2993.35</v>
+        <v>-529.71</v>
       </c>
       <c r="AP13">
-        <v>-5514.14</v>
+        <v>-3050.5</v>
       </c>
       <c r="AQ13">
-        <v>-8034.93</v>
+        <v>-5571.29</v>
       </c>
       <c r="AR13">
-        <v>-4584.91</v>
+        <v>-2121.27</v>
       </c>
       <c r="AS13">
-        <v>-8707.4</v>
+        <v>-6243.77</v>
       </c>
       <c r="AT13">
-        <v>-16417</v>
+        <v>-13953.36</v>
       </c>
       <c r="AU13">
-        <v>-3358.4</v>
+        <v>-894.76</v>
       </c>
       <c r="AV13">
-        <v>-6383.34</v>
+        <v>-3919.7</v>
       </c>
       <c r="AW13">
-        <v>-9408.29</v>
+        <v>-6944.65</v>
       </c>
       <c r="AX13">
-        <v>-4869.62</v>
+        <v>-2405.98</v>
       </c>
       <c r="AY13">
-        <v>-9335.65</v>
+        <v>-6872.01</v>
       </c>
       <c r="AZ13">
-        <v>-17687.71</v>
+        <v>-15224.08</v>
       </c>
       <c r="BA13">
-        <v>-3540.92</v>
+        <v>-1077.28</v>
       </c>
       <c r="BB13">
-        <v>-6817.94</v>
+        <v>-4354.3</v>
       </c>
       <c r="BC13">
-        <v>-10094.97</v>
+        <v>-7631.33</v>
       </c>
       <c r="BD13">
-        <v>-5438.99</v>
+        <v>-2975.35</v>
       </c>
       <c r="BE13">
-        <v>-10592.1</v>
+        <v>-8128.47</v>
       </c>
       <c r="BF13">
-        <v>-20229.1</v>
+        <v>-17765.46</v>
       </c>
       <c r="BG13">
-        <v>-3906.05</v>
+        <v>-1442.42</v>
       </c>
       <c r="BH13">
-        <v>-7687.24</v>
+        <v>-5223.6</v>
       </c>
       <c r="BI13">
-        <v>-11468.42</v>
+        <v>-9004.78</v>
       </c>
     </row>
     <row r="14">
@@ -3003,184 +3003,184 @@
         </is>
       </c>
       <c r="B14">
-        <v>-7793.24</v>
+        <v>-5333.54</v>
       </c>
       <c r="C14">
-        <v>-8136.78</v>
+        <v>-5677.08</v>
       </c>
       <c r="D14">
-        <v>-8779.25</v>
+        <v>-6319.55</v>
       </c>
       <c r="E14">
-        <v>-7691.01</v>
+        <v>-5231.31</v>
       </c>
       <c r="F14">
-        <v>-7943.09</v>
+        <v>-5483.39</v>
       </c>
       <c r="G14">
-        <v>-8195.17</v>
+        <v>-5735.47</v>
       </c>
       <c r="H14">
-        <v>-8362</v>
+        <v>-5902.3</v>
       </c>
       <c r="I14">
-        <v>-9392.63</v>
+        <v>-6932.93</v>
       </c>
       <c r="J14">
-        <v>-11320.03</v>
+        <v>-8860.33</v>
       </c>
       <c r="K14">
-        <v>-8055.77</v>
+        <v>-5596.07</v>
       </c>
       <c r="L14">
-        <v>-8812.01</v>
+        <v>-6352.31</v>
       </c>
       <c r="M14">
-        <v>-9568.24</v>
+        <v>-7108.54</v>
       </c>
       <c r="N14">
-        <v>-8647.5</v>
+        <v>-6187.8</v>
       </c>
       <c r="O14">
-        <v>-10021.67</v>
+        <v>-7561.97</v>
       </c>
       <c r="P14">
-        <v>-12591.53</v>
+        <v>-10131.83</v>
       </c>
       <c r="Q14">
-        <v>-8238.25</v>
+        <v>-5778.55</v>
       </c>
       <c r="R14">
-        <v>-9246.56</v>
+        <v>-6786.86</v>
       </c>
       <c r="S14">
-        <v>-10254.88</v>
+        <v>-7795.18</v>
       </c>
       <c r="T14">
-        <v>-9217.48</v>
+        <v>-6757.78</v>
       </c>
       <c r="U14">
-        <v>-11278.73</v>
+        <v>-8819.03</v>
       </c>
       <c r="V14">
-        <v>-15133.52</v>
+        <v>-12673.82</v>
       </c>
       <c r="W14">
-        <v>-8603.99</v>
+        <v>-6144.29</v>
       </c>
       <c r="X14">
-        <v>-10116.46</v>
+        <v>-7656.76</v>
       </c>
       <c r="Y14">
-        <v>-11628.93</v>
+        <v>-9169.23</v>
       </c>
       <c r="Z14">
-        <v>-9502.19</v>
+        <v>-7042.49</v>
       </c>
       <c r="AA14">
-        <v>-11906.98</v>
+        <v>-9447.28</v>
       </c>
       <c r="AB14">
-        <v>-16404.24</v>
+        <v>-13944.54</v>
       </c>
       <c r="AC14">
-        <v>-8786.46</v>
+        <v>-6326.76</v>
       </c>
       <c r="AD14">
-        <v>-10551.02</v>
+        <v>-8091.32</v>
       </c>
       <c r="AE14">
-        <v>-12315.57</v>
+        <v>-9855.87</v>
       </c>
       <c r="AF14">
-        <v>-10071.56</v>
+        <v>-7611.86</v>
       </c>
       <c r="AG14">
-        <v>-13163.43</v>
+        <v>-10703.73</v>
       </c>
       <c r="AH14">
-        <v>-18945.62</v>
+        <v>-16485.92</v>
       </c>
       <c r="AI14">
-        <v>-9151.55</v>
+        <v>-6691.85</v>
       </c>
       <c r="AJ14">
-        <v>-11420.26</v>
+        <v>-8960.56</v>
       </c>
       <c r="AK14">
-        <v>-13688.97</v>
+        <v>-11229.27</v>
       </c>
       <c r="AL14">
-        <v>-10356.27</v>
+        <v>-7896.57</v>
       </c>
       <c r="AM14">
-        <v>-13791.68</v>
+        <v>-11331.98</v>
       </c>
       <c r="AN14">
-        <v>-20216.34</v>
+        <v>-17756.64</v>
       </c>
       <c r="AO14">
-        <v>-9334.08</v>
+        <v>-6874.38</v>
       </c>
       <c r="AP14">
-        <v>-11854.86</v>
+        <v>-9395.16</v>
       </c>
       <c r="AQ14">
-        <v>-14375.65</v>
+        <v>-11915.95</v>
       </c>
       <c r="AR14">
-        <v>-10925.64</v>
+        <v>-8465.94</v>
       </c>
       <c r="AS14">
-        <v>-15048.13</v>
+        <v>-12588.43</v>
       </c>
       <c r="AT14">
-        <v>-22757.72</v>
+        <v>-20298.02</v>
       </c>
       <c r="AU14">
-        <v>-9699.12</v>
+        <v>-7239.42</v>
       </c>
       <c r="AV14">
-        <v>-12724.07</v>
+        <v>-10264.37</v>
       </c>
       <c r="AW14">
-        <v>-15749.01</v>
+        <v>-13289.31</v>
       </c>
       <c r="AX14">
-        <v>-11210.34</v>
+        <v>-8750.64</v>
       </c>
       <c r="AY14">
-        <v>-15676.38</v>
+        <v>-13216.68</v>
       </c>
       <c r="AZ14">
-        <v>-24028.44</v>
+        <v>-21568.74</v>
       </c>
       <c r="BA14">
-        <v>-9881.64</v>
+        <v>-7421.94</v>
       </c>
       <c r="BB14">
-        <v>-13158.67</v>
+        <v>-10698.97</v>
       </c>
       <c r="BC14">
-        <v>-16435.69</v>
+        <v>-13975.99</v>
       </c>
       <c r="BD14">
-        <v>-11779.71</v>
+        <v>-9320.01</v>
       </c>
       <c r="BE14">
-        <v>-16932.83</v>
+        <v>-14473.13</v>
       </c>
       <c r="BF14">
-        <v>-26569.82</v>
+        <v>-24110.12</v>
       </c>
       <c r="BG14">
-        <v>-10246.78</v>
+        <v>-7787.08</v>
       </c>
       <c r="BH14">
-        <v>-14027.96</v>
+        <v>-11568.26</v>
       </c>
       <c r="BI14">
-        <v>-17809.14</v>
+        <v>-15349.44</v>
       </c>
     </row>
     <row r="15">
@@ -3190,184 +3190,184 @@
         </is>
       </c>
       <c r="B15">
-        <v>1431.76</v>
+        <v>3891.46</v>
       </c>
       <c r="C15">
-        <v>1088.22</v>
+        <v>3547.92</v>
       </c>
       <c r="D15">
-        <v>445.75</v>
+        <v>2905.45</v>
       </c>
       <c r="E15">
-        <v>1533.99</v>
+        <v>3993.69</v>
       </c>
       <c r="F15">
-        <v>1281.91</v>
+        <v>3741.61</v>
       </c>
       <c r="G15">
-        <v>1029.83</v>
+        <v>3489.53</v>
       </c>
       <c r="H15">
-        <v>863</v>
+        <v>3322.7</v>
       </c>
       <c r="I15">
-        <v>-167.63</v>
+        <v>2292.07</v>
       </c>
       <c r="J15">
-        <v>-2095.03</v>
+        <v>364.67</v>
       </c>
       <c r="K15">
-        <v>1169.23</v>
+        <v>3628.93</v>
       </c>
       <c r="L15">
-        <v>412.99</v>
+        <v>2872.69</v>
       </c>
       <c r="M15">
-        <v>-343.24</v>
+        <v>2116.46</v>
       </c>
       <c r="N15">
-        <v>577.5</v>
+        <v>3037.2</v>
       </c>
       <c r="O15">
-        <v>-796.67</v>
+        <v>1663.03</v>
       </c>
       <c r="P15">
-        <v>-3366.53</v>
+        <v>-906.83</v>
       </c>
       <c r="Q15">
-        <v>986.75</v>
+        <v>3446.45</v>
       </c>
       <c r="R15">
-        <v>-21.56</v>
+        <v>2438.14</v>
       </c>
       <c r="S15">
-        <v>-1029.88</v>
+        <v>1429.82</v>
       </c>
       <c r="T15">
-        <v>7.52</v>
+        <v>2467.22</v>
       </c>
       <c r="U15">
-        <v>-2053.73</v>
+        <v>405.97</v>
       </c>
       <c r="V15">
-        <v>-5908.52</v>
+        <v>-3448.82</v>
       </c>
       <c r="W15">
-        <v>621.01</v>
+        <v>3080.71</v>
       </c>
       <c r="X15">
-        <v>-891.46</v>
+        <v>1568.24</v>
       </c>
       <c r="Y15">
-        <v>-2403.93</v>
+        <v>55.77</v>
       </c>
       <c r="Z15">
-        <v>-277.19</v>
+        <v>2182.51</v>
       </c>
       <c r="AA15">
-        <v>-2681.98</v>
+        <v>-222.28</v>
       </c>
       <c r="AB15">
-        <v>-7179.24</v>
+        <v>-4719.54</v>
       </c>
       <c r="AC15">
-        <v>438.54</v>
+        <v>2898.24</v>
       </c>
       <c r="AD15">
-        <v>-1326.02</v>
+        <v>1133.68</v>
       </c>
       <c r="AE15">
-        <v>-3090.57</v>
+        <v>-630.87</v>
       </c>
       <c r="AF15">
-        <v>-846.56</v>
+        <v>1613.14</v>
       </c>
       <c r="AG15">
-        <v>-3938.43</v>
+        <v>-1478.73</v>
       </c>
       <c r="AH15">
-        <v>-9720.62</v>
+        <v>-7260.92</v>
       </c>
       <c r="AI15">
-        <v>73.45</v>
+        <v>2533.15</v>
       </c>
       <c r="AJ15">
-        <v>-2195.26</v>
+        <v>264.44</v>
       </c>
       <c r="AK15">
-        <v>-4463.97</v>
+        <v>-2004.27</v>
       </c>
       <c r="AL15">
-        <v>-1131.27</v>
+        <v>1328.43</v>
       </c>
       <c r="AM15">
-        <v>-4566.68</v>
+        <v>-2106.98</v>
       </c>
       <c r="AN15">
-        <v>-10991.34</v>
+        <v>-8531.64</v>
       </c>
       <c r="AO15">
-        <v>-109.08</v>
+        <v>2350.62</v>
       </c>
       <c r="AP15">
-        <v>-2629.86</v>
+        <v>-170.16</v>
       </c>
       <c r="AQ15">
-        <v>-5150.65</v>
+        <v>-2690.95</v>
       </c>
       <c r="AR15">
-        <v>-1700.64</v>
+        <v>759.06</v>
       </c>
       <c r="AS15">
-        <v>-5823.13</v>
+        <v>-3363.43</v>
       </c>
       <c r="AT15">
-        <v>-13532.72</v>
+        <v>-11073.02</v>
       </c>
       <c r="AU15">
-        <v>-474.12</v>
+        <v>1985.58</v>
       </c>
       <c r="AV15">
-        <v>-3499.07</v>
+        <v>-1039.37</v>
       </c>
       <c r="AW15">
-        <v>-6524.01</v>
+        <v>-4064.31</v>
       </c>
       <c r="AX15">
-        <v>-1985.34</v>
+        <v>474.36</v>
       </c>
       <c r="AY15">
-        <v>-6451.38</v>
+        <v>-3991.68</v>
       </c>
       <c r="AZ15">
-        <v>-14803.44</v>
+        <v>-12343.74</v>
       </c>
       <c r="BA15">
-        <v>-656.64</v>
+        <v>1803.06</v>
       </c>
       <c r="BB15">
-        <v>-3933.67</v>
+        <v>-1473.97</v>
       </c>
       <c r="BC15">
-        <v>-7210.69</v>
+        <v>-4750.99</v>
       </c>
       <c r="BD15">
-        <v>-2554.71</v>
+        <v>-95.01</v>
       </c>
       <c r="BE15">
-        <v>-7707.83</v>
+        <v>-5248.13</v>
       </c>
       <c r="BF15">
-        <v>-17344.82</v>
+        <v>-14885.12</v>
       </c>
       <c r="BG15">
-        <v>-1021.78</v>
+        <v>1437.92</v>
       </c>
       <c r="BH15">
-        <v>-4802.96</v>
+        <v>-2343.26</v>
       </c>
       <c r="BI15">
-        <v>-8584.14</v>
+        <v>-6124.44</v>
       </c>
     </row>
     <row r="16">
@@ -3377,184 +3377,184 @@
         </is>
       </c>
       <c r="B16">
-        <v>10656.76</v>
+        <v>13116.46</v>
       </c>
       <c r="C16">
-        <v>10313.22</v>
+        <v>12772.92</v>
       </c>
       <c r="D16">
-        <v>9670.75</v>
+        <v>12130.45</v>
       </c>
       <c r="E16">
-        <v>10758.99</v>
+        <v>13218.69</v>
       </c>
       <c r="F16">
-        <v>10506.91</v>
+        <v>12966.61</v>
       </c>
       <c r="G16">
-        <v>10254.83</v>
+        <v>12714.53</v>
       </c>
       <c r="H16">
-        <v>10088</v>
+        <v>12547.7</v>
       </c>
       <c r="I16">
-        <v>9057.37</v>
+        <v>11517.07</v>
       </c>
       <c r="J16">
-        <v>7129.97</v>
+        <v>9589.67</v>
       </c>
       <c r="K16">
-        <v>10394.23</v>
+        <v>12853.93</v>
       </c>
       <c r="L16">
-        <v>9637.99</v>
+        <v>12097.69</v>
       </c>
       <c r="M16">
-        <v>8881.76</v>
+        <v>11341.46</v>
       </c>
       <c r="N16">
-        <v>9802.5</v>
+        <v>12262.2</v>
       </c>
       <c r="O16">
-        <v>8428.33</v>
+        <v>10888.03</v>
       </c>
       <c r="P16">
-        <v>5858.47</v>
+        <v>8318.17</v>
       </c>
       <c r="Q16">
-        <v>10211.75</v>
+        <v>12671.45</v>
       </c>
       <c r="R16">
-        <v>9203.44</v>
+        <v>11663.14</v>
       </c>
       <c r="S16">
-        <v>8195.12</v>
+        <v>10654.82</v>
       </c>
       <c r="T16">
-        <v>9232.52</v>
+        <v>11692.22</v>
       </c>
       <c r="U16">
-        <v>7171.27</v>
+        <v>9630.97</v>
       </c>
       <c r="V16">
-        <v>3316.48</v>
+        <v>5776.18</v>
       </c>
       <c r="W16">
-        <v>9846.01</v>
+        <v>12305.71</v>
       </c>
       <c r="X16">
-        <v>8333.54</v>
+        <v>10793.24</v>
       </c>
       <c r="Y16">
-        <v>6821.07</v>
+        <v>9280.77</v>
       </c>
       <c r="Z16">
-        <v>8947.81</v>
+        <v>11407.51</v>
       </c>
       <c r="AA16">
-        <v>6543.02</v>
+        <v>9002.72</v>
       </c>
       <c r="AB16">
-        <v>2045.76</v>
+        <v>4505.46</v>
       </c>
       <c r="AC16">
-        <v>9663.54</v>
+        <v>12123.24</v>
       </c>
       <c r="AD16">
-        <v>7898.98</v>
+        <v>10358.68</v>
       </c>
       <c r="AE16">
-        <v>6134.43</v>
+        <v>8594.13</v>
       </c>
       <c r="AF16">
-        <v>8378.44</v>
+        <v>10838.14</v>
       </c>
       <c r="AG16">
-        <v>5286.57</v>
+        <v>7746.27</v>
       </c>
       <c r="AH16">
-        <v>-495.62</v>
+        <v>1964.08</v>
       </c>
       <c r="AI16">
-        <v>9298.45</v>
+        <v>11758.15</v>
       </c>
       <c r="AJ16">
-        <v>7029.74</v>
+        <v>9489.44</v>
       </c>
       <c r="AK16">
-        <v>4761.03</v>
+        <v>7220.73</v>
       </c>
       <c r="AL16">
-        <v>8093.73</v>
+        <v>10553.43</v>
       </c>
       <c r="AM16">
-        <v>4658.32</v>
+        <v>7118.02</v>
       </c>
       <c r="AN16">
-        <v>-1766.34</v>
+        <v>693.36</v>
       </c>
       <c r="AO16">
-        <v>9115.92</v>
+        <v>11575.62</v>
       </c>
       <c r="AP16">
-        <v>6595.14</v>
+        <v>9054.84</v>
       </c>
       <c r="AQ16">
-        <v>4074.35</v>
+        <v>6534.05</v>
       </c>
       <c r="AR16">
-        <v>7524.36</v>
+        <v>9984.06</v>
       </c>
       <c r="AS16">
-        <v>3401.87</v>
+        <v>5861.57</v>
       </c>
       <c r="AT16">
-        <v>-4307.72</v>
+        <v>-1848.02</v>
       </c>
       <c r="AU16">
-        <v>8750.88</v>
+        <v>11210.58</v>
       </c>
       <c r="AV16">
-        <v>5725.93</v>
+        <v>8185.63</v>
       </c>
       <c r="AW16">
-        <v>2700.99</v>
+        <v>5160.69</v>
       </c>
       <c r="AX16">
-        <v>7239.66</v>
+        <v>9699.36</v>
       </c>
       <c r="AY16">
-        <v>2773.62</v>
+        <v>5233.32</v>
       </c>
       <c r="AZ16">
-        <v>-5578.44</v>
+        <v>-3118.74</v>
       </c>
       <c r="BA16">
-        <v>8568.36</v>
+        <v>11028.06</v>
       </c>
       <c r="BB16">
-        <v>5291.33</v>
+        <v>7751.03</v>
       </c>
       <c r="BC16">
-        <v>2014.31</v>
+        <v>4474.01</v>
       </c>
       <c r="BD16">
-        <v>6670.29</v>
+        <v>9129.99</v>
       </c>
       <c r="BE16">
-        <v>1517.17</v>
+        <v>3976.87</v>
       </c>
       <c r="BF16">
-        <v>-8119.82</v>
+        <v>-5660.12</v>
       </c>
       <c r="BG16">
-        <v>8203.22</v>
+        <v>10662.92</v>
       </c>
       <c r="BH16">
-        <v>4422.04</v>
+        <v>6881.74</v>
       </c>
       <c r="BI16">
-        <v>640.86</v>
+        <v>3100.56</v>
       </c>
     </row>
     <row r="17">
@@ -3564,184 +3564,184 @@
         </is>
       </c>
       <c r="B17">
-        <v>-4908.97</v>
+        <v>-2448.33</v>
       </c>
       <c r="C17">
-        <v>-5252.51</v>
+        <v>-2791.87</v>
       </c>
       <c r="D17">
-        <v>-5894.97</v>
+        <v>-3434.33</v>
       </c>
       <c r="E17">
-        <v>-4806.73</v>
+        <v>-2346.09</v>
       </c>
       <c r="F17">
-        <v>-5058.81</v>
+        <v>-2598.17</v>
       </c>
       <c r="G17">
-        <v>-5310.89</v>
+        <v>-2850.25</v>
       </c>
       <c r="H17">
-        <v>-5477.73</v>
+        <v>-3017.09</v>
       </c>
       <c r="I17">
-        <v>-6508.35</v>
+        <v>-4047.71</v>
       </c>
       <c r="J17">
-        <v>-8435.75</v>
+        <v>-5975.11</v>
       </c>
       <c r="K17">
-        <v>-5171.5</v>
+        <v>-2710.86</v>
       </c>
       <c r="L17">
-        <v>-5927.73</v>
+        <v>-3467.09</v>
       </c>
       <c r="M17">
-        <v>-6683.97</v>
+        <v>-4223.33</v>
       </c>
       <c r="N17">
-        <v>-5763.23</v>
+        <v>-3302.59</v>
       </c>
       <c r="O17">
-        <v>-7137.39</v>
+        <v>-4676.76</v>
       </c>
       <c r="P17">
-        <v>-9707.26</v>
+        <v>-7246.62</v>
       </c>
       <c r="Q17">
-        <v>-5353.97</v>
+        <v>-2893.33</v>
       </c>
       <c r="R17">
-        <v>-6362.29</v>
+        <v>-3901.65</v>
       </c>
       <c r="S17">
-        <v>-7370.6</v>
+        <v>-4909.96</v>
       </c>
       <c r="T17">
-        <v>-6333.21</v>
+        <v>-3872.57</v>
       </c>
       <c r="U17">
-        <v>-8394.45</v>
+        <v>-5933.81</v>
       </c>
       <c r="V17">
-        <v>-12249.25</v>
+        <v>-9788.61</v>
       </c>
       <c r="W17">
-        <v>-5719.71</v>
+        <v>-3259.08</v>
       </c>
       <c r="X17">
-        <v>-7232.19</v>
+        <v>-4771.55</v>
       </c>
       <c r="Y17">
-        <v>-8744.66</v>
+        <v>-6284.02</v>
       </c>
       <c r="Z17">
-        <v>-6617.91</v>
+        <v>-4157.28</v>
       </c>
       <c r="AA17">
-        <v>-9022.7</v>
+        <v>-6562.06</v>
       </c>
       <c r="AB17">
-        <v>-13519.96</v>
+        <v>-11059.33</v>
       </c>
       <c r="AC17">
-        <v>-5902.19</v>
+        <v>-3441.55</v>
       </c>
       <c r="AD17">
-        <v>-7666.74</v>
+        <v>-5206.1</v>
       </c>
       <c r="AE17">
-        <v>-9431.29</v>
+        <v>-6970.65</v>
       </c>
       <c r="AF17">
-        <v>-7187.28</v>
+        <v>-4726.65</v>
       </c>
       <c r="AG17">
-        <v>-10279.15</v>
+        <v>-7818.51</v>
       </c>
       <c r="AH17">
-        <v>-16061.35</v>
+        <v>-13600.71</v>
       </c>
       <c r="AI17">
-        <v>-6267.28</v>
+        <v>-3806.64</v>
       </c>
       <c r="AJ17">
-        <v>-8535.99</v>
+        <v>-6075.35</v>
       </c>
       <c r="AK17">
-        <v>-10804.7</v>
+        <v>-8344.06</v>
       </c>
       <c r="AL17">
-        <v>-7471.99</v>
+        <v>-5011.35</v>
       </c>
       <c r="AM17">
-        <v>-10907.4</v>
+        <v>-8446.76</v>
       </c>
       <c r="AN17">
-        <v>-17332.06</v>
+        <v>-14871.43</v>
       </c>
       <c r="AO17">
-        <v>-6449.8</v>
+        <v>-3989.16</v>
       </c>
       <c r="AP17">
-        <v>-8970.59</v>
+        <v>-6509.95</v>
       </c>
       <c r="AQ17">
-        <v>-11491.38</v>
+        <v>-9030.74</v>
       </c>
       <c r="AR17">
-        <v>-8041.36</v>
+        <v>-5580.72</v>
       </c>
       <c r="AS17">
-        <v>-12163.85</v>
+        <v>-9703.22</v>
       </c>
       <c r="AT17">
-        <v>-19873.45</v>
+        <v>-17412.81</v>
       </c>
       <c r="AU17">
-        <v>-6814.85</v>
+        <v>-4354.21</v>
       </c>
       <c r="AV17">
-        <v>-9839.79</v>
+        <v>-7379.15</v>
       </c>
       <c r="AW17">
-        <v>-12864.74</v>
+        <v>-10404.1</v>
       </c>
       <c r="AX17">
-        <v>-8326.07</v>
+        <v>-5865.43</v>
       </c>
       <c r="AY17">
-        <v>-12792.1</v>
+        <v>-10331.46</v>
       </c>
       <c r="AZ17">
-        <v>-21144.16</v>
+        <v>-18683.53</v>
       </c>
       <c r="BA17">
-        <v>-6997.37</v>
+        <v>-4536.73</v>
       </c>
       <c r="BB17">
-        <v>-10274.39</v>
+        <v>-7813.75</v>
       </c>
       <c r="BC17">
-        <v>-13551.42</v>
+        <v>-11090.78</v>
       </c>
       <c r="BD17">
-        <v>-8895.44</v>
+        <v>-6434.8</v>
       </c>
       <c r="BE17">
-        <v>-14048.55</v>
+        <v>-11587.92</v>
       </c>
       <c r="BF17">
-        <v>-23685.55</v>
+        <v>-21224.91</v>
       </c>
       <c r="BG17">
-        <v>-7362.5</v>
+        <v>-4901.87</v>
       </c>
       <c r="BH17">
-        <v>-11143.69</v>
+        <v>-8683.05</v>
       </c>
       <c r="BI17">
-        <v>-14924.87</v>
+        <v>-12464.23</v>
       </c>
     </row>
     <row r="18">
@@ -3751,184 +3751,184 @@
         </is>
       </c>
       <c r="B18">
-        <v>8928.53</v>
+        <v>11390.67</v>
       </c>
       <c r="C18">
-        <v>8584.99</v>
+        <v>11047.13</v>
       </c>
       <c r="D18">
-        <v>7942.53</v>
+        <v>10404.67</v>
       </c>
       <c r="E18">
-        <v>9030.77</v>
+        <v>11492.91</v>
       </c>
       <c r="F18">
-        <v>8778.69</v>
+        <v>11240.83</v>
       </c>
       <c r="G18">
-        <v>8526.61</v>
+        <v>10988.75</v>
       </c>
       <c r="H18">
-        <v>8359.77</v>
+        <v>10821.91</v>
       </c>
       <c r="I18">
-        <v>7329.15</v>
+        <v>9791.29</v>
       </c>
       <c r="J18">
-        <v>5401.75</v>
+        <v>7863.89</v>
       </c>
       <c r="K18">
-        <v>8666</v>
+        <v>11128.14</v>
       </c>
       <c r="L18">
-        <v>7909.77</v>
+        <v>10371.91</v>
       </c>
       <c r="M18">
-        <v>7153.53</v>
+        <v>9615.67</v>
       </c>
       <c r="N18">
-        <v>8074.27</v>
+        <v>10536.41</v>
       </c>
       <c r="O18">
-        <v>6700.11</v>
+        <v>9162.24</v>
       </c>
       <c r="P18">
-        <v>4130.24</v>
+        <v>6592.38</v>
       </c>
       <c r="Q18">
-        <v>8483.53</v>
+        <v>10945.67</v>
       </c>
       <c r="R18">
-        <v>7475.21</v>
+        <v>9937.35</v>
       </c>
       <c r="S18">
-        <v>6466.9</v>
+        <v>8929.04</v>
       </c>
       <c r="T18">
-        <v>7504.29</v>
+        <v>9966.43</v>
       </c>
       <c r="U18">
-        <v>5443.05</v>
+        <v>7905.19</v>
       </c>
       <c r="V18">
-        <v>1588.25</v>
+        <v>4050.39</v>
       </c>
       <c r="W18">
-        <v>8117.79</v>
+        <v>10579.92</v>
       </c>
       <c r="X18">
-        <v>6605.31</v>
+        <v>9067.45</v>
       </c>
       <c r="Y18">
-        <v>5092.84</v>
+        <v>7554.98</v>
       </c>
       <c r="Z18">
-        <v>7219.59</v>
+        <v>9681.72</v>
       </c>
       <c r="AA18">
-        <v>4814.8</v>
+        <v>7276.94</v>
       </c>
       <c r="AB18">
-        <v>317.54</v>
+        <v>2779.67</v>
       </c>
       <c r="AC18">
-        <v>7935.31</v>
+        <v>10397.45</v>
       </c>
       <c r="AD18">
-        <v>6170.76</v>
+        <v>8632.9</v>
       </c>
       <c r="AE18">
-        <v>4406.21</v>
+        <v>6868.35</v>
       </c>
       <c r="AF18">
-        <v>6650.22</v>
+        <v>9112.35</v>
       </c>
       <c r="AG18">
-        <v>3558.35</v>
+        <v>6020.49</v>
       </c>
       <c r="AH18">
-        <v>-2223.85</v>
+        <v>238.29</v>
       </c>
       <c r="AI18">
-        <v>7570.22</v>
+        <v>10032.36</v>
       </c>
       <c r="AJ18">
-        <v>5301.51</v>
+        <v>7763.65</v>
       </c>
       <c r="AK18">
-        <v>3032.8</v>
+        <v>5494.94</v>
       </c>
       <c r="AL18">
-        <v>6365.51</v>
+        <v>8827.65</v>
       </c>
       <c r="AM18">
-        <v>2930.1</v>
+        <v>5392.24</v>
       </c>
       <c r="AN18">
-        <v>-3494.56</v>
+        <v>-1032.43</v>
       </c>
       <c r="AO18">
-        <v>7387.7</v>
+        <v>9849.84</v>
       </c>
       <c r="AP18">
-        <v>4866.91</v>
+        <v>7329.05</v>
       </c>
       <c r="AQ18">
-        <v>2346.12</v>
+        <v>4808.26</v>
       </c>
       <c r="AR18">
-        <v>5796.14</v>
+        <v>8258.28</v>
       </c>
       <c r="AS18">
-        <v>1673.65</v>
+        <v>4135.78</v>
       </c>
       <c r="AT18">
-        <v>-6035.95</v>
+        <v>-3573.81</v>
       </c>
       <c r="AU18">
-        <v>7022.65</v>
+        <v>9484.79</v>
       </c>
       <c r="AV18">
-        <v>3997.71</v>
+        <v>6459.85</v>
       </c>
       <c r="AW18">
-        <v>972.76</v>
+        <v>3434.9</v>
       </c>
       <c r="AX18">
-        <v>5511.43</v>
+        <v>7973.57</v>
       </c>
       <c r="AY18">
-        <v>1045.4</v>
+        <v>3507.54</v>
       </c>
       <c r="AZ18">
-        <v>-7306.66</v>
+        <v>-4844.53</v>
       </c>
       <c r="BA18">
-        <v>6840.13</v>
+        <v>9302.27</v>
       </c>
       <c r="BB18">
-        <v>3563.11</v>
+        <v>6025.25</v>
       </c>
       <c r="BC18">
-        <v>286.08</v>
+        <v>2748.22</v>
       </c>
       <c r="BD18">
-        <v>4942.06</v>
+        <v>7404.2</v>
       </c>
       <c r="BE18">
-        <v>-211.05</v>
+        <v>2251.08</v>
       </c>
       <c r="BF18">
-        <v>-9848.05</v>
+        <v>-7385.91</v>
       </c>
       <c r="BG18">
-        <v>6475</v>
+        <v>8937.13</v>
       </c>
       <c r="BH18">
-        <v>2693.81</v>
+        <v>5155.95</v>
       </c>
       <c r="BI18">
-        <v>-1087.37</v>
+        <v>1374.77</v>
       </c>
     </row>
     <row r="19">
@@ -3938,184 +3938,184 @@
         </is>
       </c>
       <c r="B19">
-        <v>22766.03</v>
+        <v>25229.67</v>
       </c>
       <c r="C19">
-        <v>22422.49</v>
+        <v>24886.13</v>
       </c>
       <c r="D19">
-        <v>21780.03</v>
+        <v>24243.67</v>
       </c>
       <c r="E19">
-        <v>22868.27</v>
+        <v>25331.91</v>
       </c>
       <c r="F19">
-        <v>22616.19</v>
+        <v>25079.83</v>
       </c>
       <c r="G19">
-        <v>22364.11</v>
+        <v>24827.75</v>
       </c>
       <c r="H19">
-        <v>22197.27</v>
+        <v>24660.91</v>
       </c>
       <c r="I19">
-        <v>21166.65</v>
+        <v>23630.29</v>
       </c>
       <c r="J19">
-        <v>19239.25</v>
+        <v>21702.89</v>
       </c>
       <c r="K19">
-        <v>22503.5</v>
+        <v>24967.14</v>
       </c>
       <c r="L19">
-        <v>21747.27</v>
+        <v>24210.91</v>
       </c>
       <c r="M19">
-        <v>20991.03</v>
+        <v>23454.67</v>
       </c>
       <c r="N19">
-        <v>21911.77</v>
+        <v>24375.41</v>
       </c>
       <c r="O19">
-        <v>20537.61</v>
+        <v>23001.24</v>
       </c>
       <c r="P19">
-        <v>17967.74</v>
+        <v>20431.38</v>
       </c>
       <c r="Q19">
-        <v>22321.03</v>
+        <v>24784.67</v>
       </c>
       <c r="R19">
-        <v>21312.71</v>
+        <v>23776.35</v>
       </c>
       <c r="S19">
-        <v>20304.4</v>
+        <v>22768.04</v>
       </c>
       <c r="T19">
-        <v>21341.79</v>
+        <v>23805.43</v>
       </c>
       <c r="U19">
-        <v>19280.55</v>
+        <v>21744.19</v>
       </c>
       <c r="V19">
-        <v>15425.75</v>
+        <v>17889.39</v>
       </c>
       <c r="W19">
-        <v>21955.29</v>
+        <v>24418.92</v>
       </c>
       <c r="X19">
-        <v>20442.81</v>
+        <v>22906.45</v>
       </c>
       <c r="Y19">
-        <v>18930.34</v>
+        <v>21393.98</v>
       </c>
       <c r="Z19">
-        <v>21057.09</v>
+        <v>23520.72</v>
       </c>
       <c r="AA19">
-        <v>18652.3</v>
+        <v>21115.94</v>
       </c>
       <c r="AB19">
-        <v>14155.04</v>
+        <v>16618.67</v>
       </c>
       <c r="AC19">
-        <v>21772.81</v>
+        <v>24236.45</v>
       </c>
       <c r="AD19">
-        <v>20008.26</v>
+        <v>22471.9</v>
       </c>
       <c r="AE19">
-        <v>18243.71</v>
+        <v>20707.35</v>
       </c>
       <c r="AF19">
-        <v>20487.72</v>
+        <v>22951.35</v>
       </c>
       <c r="AG19">
-        <v>17395.85</v>
+        <v>19859.49</v>
       </c>
       <c r="AH19">
-        <v>11613.65</v>
+        <v>14077.29</v>
       </c>
       <c r="AI19">
-        <v>21407.72</v>
+        <v>23871.36</v>
       </c>
       <c r="AJ19">
-        <v>19139.01</v>
+        <v>21602.65</v>
       </c>
       <c r="AK19">
-        <v>16870.3</v>
+        <v>19333.94</v>
       </c>
       <c r="AL19">
-        <v>20203.01</v>
+        <v>22666.65</v>
       </c>
       <c r="AM19">
-        <v>16767.6</v>
+        <v>19231.24</v>
       </c>
       <c r="AN19">
-        <v>10342.94</v>
+        <v>12806.57</v>
       </c>
       <c r="AO19">
-        <v>21225.2</v>
+        <v>23688.84</v>
       </c>
       <c r="AP19">
-        <v>18704.41</v>
+        <v>21168.05</v>
       </c>
       <c r="AQ19">
-        <v>16183.62</v>
+        <v>18647.26</v>
       </c>
       <c r="AR19">
-        <v>19633.64</v>
+        <v>22097.28</v>
       </c>
       <c r="AS19">
-        <v>15511.15</v>
+        <v>17974.78</v>
       </c>
       <c r="AT19">
-        <v>7801.55</v>
+        <v>10265.19</v>
       </c>
       <c r="AU19">
-        <v>20860.15</v>
+        <v>23323.79</v>
       </c>
       <c r="AV19">
-        <v>17835.21</v>
+        <v>20298.85</v>
       </c>
       <c r="AW19">
-        <v>14810.26</v>
+        <v>17273.9</v>
       </c>
       <c r="AX19">
-        <v>19348.93</v>
+        <v>21812.57</v>
       </c>
       <c r="AY19">
-        <v>14882.9</v>
+        <v>17346.54</v>
       </c>
       <c r="AZ19">
-        <v>6530.84</v>
+        <v>8994.47</v>
       </c>
       <c r="BA19">
-        <v>20677.63</v>
+        <v>23141.27</v>
       </c>
       <c r="BB19">
-        <v>17400.61</v>
+        <v>19864.25</v>
       </c>
       <c r="BC19">
-        <v>14123.58</v>
+        <v>16587.22</v>
       </c>
       <c r="BD19">
-        <v>18779.56</v>
+        <v>21243.2</v>
       </c>
       <c r="BE19">
-        <v>13626.45</v>
+        <v>16090.08</v>
       </c>
       <c r="BF19">
-        <v>3989.45</v>
+        <v>6453.09</v>
       </c>
       <c r="BG19">
-        <v>20312.5</v>
+        <v>22776.13</v>
       </c>
       <c r="BH19">
-        <v>16531.31</v>
+        <v>18994.95</v>
       </c>
       <c r="BI19">
-        <v>12750.13</v>
+        <v>15213.77</v>
       </c>
     </row>
     <row r="20">
@@ -4125,184 +4125,184 @@
         </is>
       </c>
       <c r="B20">
-        <v>-10635.25</v>
+        <v>-8174.61</v>
       </c>
       <c r="C20">
-        <v>-10978.79</v>
+        <v>-8518.15</v>
       </c>
       <c r="D20">
-        <v>-11621.26</v>
+        <v>-9160.62</v>
       </c>
       <c r="E20">
-        <v>-10527.56</v>
+        <v>-8066.93</v>
       </c>
       <c r="F20">
-        <v>-10779.64</v>
+        <v>-8319</v>
       </c>
       <c r="G20">
-        <v>-11031.72</v>
+        <v>-8571.08</v>
       </c>
       <c r="H20">
-        <v>-11119.43</v>
+        <v>-8658.8</v>
       </c>
       <c r="I20">
-        <v>-12150.06</v>
+        <v>-9689.42</v>
       </c>
       <c r="J20">
-        <v>-14077.46</v>
+        <v>-11616.82</v>
       </c>
       <c r="K20">
-        <v>-10796.89</v>
+        <v>-8336.25</v>
       </c>
       <c r="L20">
-        <v>-11553.13</v>
+        <v>-9092.49</v>
       </c>
       <c r="M20">
-        <v>-12309.36</v>
+        <v>-9848.73</v>
       </c>
       <c r="N20">
-        <v>-11362.99</v>
+        <v>-8902.36</v>
       </c>
       <c r="O20">
-        <v>-12737.16</v>
+        <v>-10276.52</v>
       </c>
       <c r="P20">
-        <v>-15307.02</v>
+        <v>-12846.39</v>
       </c>
       <c r="Q20">
-        <v>-10931.65</v>
+        <v>-8471.01</v>
       </c>
       <c r="R20">
-        <v>-11939.96</v>
+        <v>-9479.33</v>
       </c>
       <c r="S20">
-        <v>-12948.28</v>
+        <v>-10487.64</v>
       </c>
       <c r="T20">
-        <v>-11848.67</v>
+        <v>-9388.03</v>
       </c>
       <c r="U20">
-        <v>-13909.92</v>
+        <v>-11449.28</v>
       </c>
       <c r="V20">
-        <v>-17764.71</v>
+        <v>-15304.08</v>
       </c>
       <c r="W20">
-        <v>-11201.95</v>
+        <v>-8741.32</v>
       </c>
       <c r="X20">
-        <v>-12714.43</v>
+        <v>-10253.79</v>
       </c>
       <c r="Y20">
-        <v>-14226.9</v>
+        <v>-11766.26</v>
       </c>
       <c r="Z20">
-        <v>-12091.21</v>
+        <v>-9630.57</v>
       </c>
       <c r="AA20">
-        <v>-14495.99</v>
+        <v>-12035.36</v>
       </c>
       <c r="AB20">
-        <v>-18993.26</v>
+        <v>-16532.62</v>
       </c>
       <c r="AC20">
-        <v>-11336.8</v>
+        <v>-8876.17</v>
       </c>
       <c r="AD20">
-        <v>-13101.36</v>
+        <v>-10640.72</v>
       </c>
       <c r="AE20">
-        <v>-14865.91</v>
+        <v>-12405.27</v>
       </c>
       <c r="AF20">
-        <v>-12576.18</v>
+        <v>-10115.55</v>
       </c>
       <c r="AG20">
-        <v>-15668.05</v>
+        <v>-13207.41</v>
       </c>
       <c r="AH20">
-        <v>-21450.25</v>
+        <v>-18989.61</v>
       </c>
       <c r="AI20">
-        <v>-11606.46</v>
+        <v>-9145.82</v>
       </c>
       <c r="AJ20">
-        <v>-13875.17</v>
+        <v>-11414.53</v>
       </c>
       <c r="AK20">
-        <v>-16143.88</v>
+        <v>-13683.24</v>
       </c>
       <c r="AL20">
-        <v>-12818.67</v>
+        <v>-10358.03</v>
       </c>
       <c r="AM20">
-        <v>-16254.08</v>
+        <v>-13793.44</v>
       </c>
       <c r="AN20">
-        <v>-22678.75</v>
+        <v>-20218.11</v>
       </c>
       <c r="AO20">
-        <v>-11741.26</v>
+        <v>-9280.62</v>
       </c>
       <c r="AP20">
-        <v>-14262.05</v>
+        <v>-11801.41</v>
       </c>
       <c r="AQ20">
-        <v>-16782.84</v>
+        <v>-14322.2</v>
       </c>
       <c r="AR20">
-        <v>-13303.7</v>
+        <v>-10843.06</v>
       </c>
       <c r="AS20">
-        <v>-17426.19</v>
+        <v>-14965.55</v>
       </c>
       <c r="AT20">
-        <v>-25135.78</v>
+        <v>-22675.15</v>
       </c>
       <c r="AU20">
-        <v>-12010.91</v>
+        <v>-9550.28</v>
       </c>
       <c r="AV20">
-        <v>-15035.86</v>
+        <v>-12575.22</v>
       </c>
       <c r="AW20">
-        <v>-18060.81</v>
+        <v>-15600.17</v>
       </c>
       <c r="AX20">
-        <v>-13546.23</v>
+        <v>-11085.59</v>
       </c>
       <c r="AY20">
-        <v>-18012.26</v>
+        <v>-15551.63</v>
       </c>
       <c r="AZ20">
-        <v>-26364.33</v>
+        <v>-23903.69</v>
       </c>
       <c r="BA20">
-        <v>-12145.72</v>
+        <v>-9685.08</v>
       </c>
       <c r="BB20">
-        <v>-15422.74</v>
+        <v>-12962.1</v>
       </c>
       <c r="BC20">
-        <v>-18699.77</v>
+        <v>-16239.13</v>
       </c>
       <c r="BD20">
-        <v>-14031.25</v>
+        <v>-11570.62</v>
       </c>
       <c r="BE20">
-        <v>-19184.37</v>
+        <v>-16723.73</v>
       </c>
       <c r="BF20">
-        <v>-28821.36</v>
+        <v>-26360.73</v>
       </c>
       <c r="BG20">
-        <v>-12415.46</v>
+        <v>-9954.83</v>
       </c>
       <c r="BH20">
-        <v>-16196.65</v>
+        <v>-13736.01</v>
       </c>
       <c r="BI20">
-        <v>-19977.83</v>
+        <v>-17517.19</v>
       </c>
     </row>
     <row r="21">
@@ -4312,184 +4312,184 @@
         </is>
       </c>
       <c r="B21">
-        <v>-6022.75</v>
+        <v>-3560.61</v>
       </c>
       <c r="C21">
-        <v>-6366.29</v>
+        <v>-3904.15</v>
       </c>
       <c r="D21">
-        <v>-7008.76</v>
+        <v>-4546.62</v>
       </c>
       <c r="E21">
-        <v>-5915.06</v>
+        <v>-3452.93</v>
       </c>
       <c r="F21">
-        <v>-6167.14</v>
+        <v>-3705</v>
       </c>
       <c r="G21">
-        <v>-6419.22</v>
+        <v>-3957.08</v>
       </c>
       <c r="H21">
-        <v>-6506.93</v>
+        <v>-4044.8</v>
       </c>
       <c r="I21">
-        <v>-7537.56</v>
+        <v>-5075.42</v>
       </c>
       <c r="J21">
-        <v>-9464.96</v>
+        <v>-7002.82</v>
       </c>
       <c r="K21">
-        <v>-6184.39</v>
+        <v>-3722.25</v>
       </c>
       <c r="L21">
-        <v>-6940.63</v>
+        <v>-4478.49</v>
       </c>
       <c r="M21">
-        <v>-7696.86</v>
+        <v>-5234.73</v>
       </c>
       <c r="N21">
-        <v>-6750.49</v>
+        <v>-4288.36</v>
       </c>
       <c r="O21">
-        <v>-8124.66</v>
+        <v>-5662.52</v>
       </c>
       <c r="P21">
-        <v>-10694.52</v>
+        <v>-8232.39</v>
       </c>
       <c r="Q21">
-        <v>-6319.15</v>
+        <v>-3857.01</v>
       </c>
       <c r="R21">
-        <v>-7327.46</v>
+        <v>-4865.33</v>
       </c>
       <c r="S21">
-        <v>-8335.78</v>
+        <v>-5873.64</v>
       </c>
       <c r="T21">
-        <v>-7236.17</v>
+        <v>-4774.03</v>
       </c>
       <c r="U21">
-        <v>-9297.42</v>
+        <v>-6835.28</v>
       </c>
       <c r="V21">
-        <v>-13152.21</v>
+        <v>-10690.08</v>
       </c>
       <c r="W21">
-        <v>-6589.45</v>
+        <v>-4127.32</v>
       </c>
       <c r="X21">
-        <v>-8101.93</v>
+        <v>-5639.79</v>
       </c>
       <c r="Y21">
-        <v>-9614.4</v>
+        <v>-7152.26</v>
       </c>
       <c r="Z21">
-        <v>-7478.71</v>
+        <v>-5016.57</v>
       </c>
       <c r="AA21">
-        <v>-9883.49</v>
+        <v>-7421.36</v>
       </c>
       <c r="AB21">
-        <v>-14380.76</v>
+        <v>-11918.62</v>
       </c>
       <c r="AC21">
-        <v>-6724.3</v>
+        <v>-4262.17</v>
       </c>
       <c r="AD21">
-        <v>-8488.86</v>
+        <v>-6026.72</v>
       </c>
       <c r="AE21">
-        <v>-10253.41</v>
+        <v>-7791.27</v>
       </c>
       <c r="AF21">
-        <v>-7963.68</v>
+        <v>-5501.55</v>
       </c>
       <c r="AG21">
-        <v>-11055.55</v>
+        <v>-8593.41</v>
       </c>
       <c r="AH21">
-        <v>-16837.75</v>
+        <v>-14375.61</v>
       </c>
       <c r="AI21">
-        <v>-6993.96</v>
+        <v>-4531.82</v>
       </c>
       <c r="AJ21">
-        <v>-9262.67</v>
+        <v>-6800.53</v>
       </c>
       <c r="AK21">
-        <v>-11531.38</v>
+        <v>-9069.24</v>
       </c>
       <c r="AL21">
-        <v>-8206.17</v>
+        <v>-5744.03</v>
       </c>
       <c r="AM21">
-        <v>-11641.58</v>
+        <v>-9179.44</v>
       </c>
       <c r="AN21">
-        <v>-18066.25</v>
+        <v>-15604.11</v>
       </c>
       <c r="AO21">
-        <v>-7128.76</v>
+        <v>-4666.62</v>
       </c>
       <c r="AP21">
-        <v>-9649.55</v>
+        <v>-7187.41</v>
       </c>
       <c r="AQ21">
-        <v>-12170.34</v>
+        <v>-9708.2</v>
       </c>
       <c r="AR21">
-        <v>-8691.2</v>
+        <v>-6229.06</v>
       </c>
       <c r="AS21">
-        <v>-12813.69</v>
+        <v>-10351.55</v>
       </c>
       <c r="AT21">
-        <v>-20523.28</v>
+        <v>-18061.15</v>
       </c>
       <c r="AU21">
-        <v>-7398.41</v>
+        <v>-4936.28</v>
       </c>
       <c r="AV21">
-        <v>-10423.36</v>
+        <v>-7961.22</v>
       </c>
       <c r="AW21">
-        <v>-13448.31</v>
+        <v>-10986.17</v>
       </c>
       <c r="AX21">
-        <v>-8933.73</v>
+        <v>-6471.59</v>
       </c>
       <c r="AY21">
-        <v>-13399.76</v>
+        <v>-10937.63</v>
       </c>
       <c r="AZ21">
-        <v>-21751.83</v>
+        <v>-19289.69</v>
       </c>
       <c r="BA21">
-        <v>-7533.22</v>
+        <v>-5071.08</v>
       </c>
       <c r="BB21">
-        <v>-10810.24</v>
+        <v>-8348.1</v>
       </c>
       <c r="BC21">
-        <v>-14087.27</v>
+        <v>-11625.13</v>
       </c>
       <c r="BD21">
-        <v>-9418.75</v>
+        <v>-6956.62</v>
       </c>
       <c r="BE21">
-        <v>-14571.87</v>
+        <v>-12109.73</v>
       </c>
       <c r="BF21">
-        <v>-24208.86</v>
+        <v>-21746.73</v>
       </c>
       <c r="BG21">
-        <v>-7802.96</v>
+        <v>-5340.83</v>
       </c>
       <c r="BH21">
-        <v>-11584.15</v>
+        <v>-9122.01</v>
       </c>
       <c r="BI21">
-        <v>-15365.33</v>
+        <v>-12903.19</v>
       </c>
     </row>
     <row r="22">
@@ -4499,184 +4499,184 @@
         </is>
       </c>
       <c r="B22">
-        <v>-1410.25</v>
+        <v>1053.39</v>
       </c>
       <c r="C22">
-        <v>-1753.79</v>
+        <v>709.85</v>
       </c>
       <c r="D22">
-        <v>-2396.26</v>
+        <v>67.38</v>
       </c>
       <c r="E22">
-        <v>-1302.56</v>
+        <v>1161.07</v>
       </c>
       <c r="F22">
-        <v>-1554.64</v>
+        <v>909</v>
       </c>
       <c r="G22">
-        <v>-1806.72</v>
+        <v>656.92</v>
       </c>
       <c r="H22">
-        <v>-1894.43</v>
+        <v>569.2</v>
       </c>
       <c r="I22">
-        <v>-2925.06</v>
+        <v>-461.42</v>
       </c>
       <c r="J22">
-        <v>-4852.46</v>
+        <v>-2388.82</v>
       </c>
       <c r="K22">
-        <v>-1571.89</v>
+        <v>891.75</v>
       </c>
       <c r="L22">
-        <v>-2328.13</v>
+        <v>135.51</v>
       </c>
       <c r="M22">
-        <v>-3084.36</v>
+        <v>-620.73</v>
       </c>
       <c r="N22">
-        <v>-2137.99</v>
+        <v>325.64</v>
       </c>
       <c r="O22">
-        <v>-3512.16</v>
+        <v>-1048.52</v>
       </c>
       <c r="P22">
-        <v>-6082.02</v>
+        <v>-3618.39</v>
       </c>
       <c r="Q22">
-        <v>-1706.65</v>
+        <v>756.99</v>
       </c>
       <c r="R22">
-        <v>-2714.96</v>
+        <v>-251.33</v>
       </c>
       <c r="S22">
-        <v>-3723.28</v>
+        <v>-1259.64</v>
       </c>
       <c r="T22">
-        <v>-2623.67</v>
+        <v>-160.03</v>
       </c>
       <c r="U22">
-        <v>-4684.92</v>
+        <v>-2221.28</v>
       </c>
       <c r="V22">
-        <v>-8539.71</v>
+        <v>-6076.08</v>
       </c>
       <c r="W22">
-        <v>-1976.95</v>
+        <v>486.68</v>
       </c>
       <c r="X22">
-        <v>-3489.43</v>
+        <v>-1025.79</v>
       </c>
       <c r="Y22">
-        <v>-5001.9</v>
+        <v>-2538.26</v>
       </c>
       <c r="Z22">
-        <v>-2866.21</v>
+        <v>-402.57</v>
       </c>
       <c r="AA22">
-        <v>-5270.99</v>
+        <v>-2807.36</v>
       </c>
       <c r="AB22">
-        <v>-9768.26</v>
+        <v>-7304.62</v>
       </c>
       <c r="AC22">
-        <v>-2111.8</v>
+        <v>351.83</v>
       </c>
       <c r="AD22">
-        <v>-3876.36</v>
+        <v>-1412.72</v>
       </c>
       <c r="AE22">
-        <v>-5640.91</v>
+        <v>-3177.27</v>
       </c>
       <c r="AF22">
-        <v>-3351.18</v>
+        <v>-887.55</v>
       </c>
       <c r="AG22">
-        <v>-6443.05</v>
+        <v>-3979.41</v>
       </c>
       <c r="AH22">
-        <v>-12225.25</v>
+        <v>-9761.61</v>
       </c>
       <c r="AI22">
-        <v>-2381.46</v>
+        <v>82.18</v>
       </c>
       <c r="AJ22">
-        <v>-4650.17</v>
+        <v>-2186.53</v>
       </c>
       <c r="AK22">
-        <v>-6918.88</v>
+        <v>-4455.24</v>
       </c>
       <c r="AL22">
-        <v>-3593.67</v>
+        <v>-1130.03</v>
       </c>
       <c r="AM22">
-        <v>-7029.08</v>
+        <v>-4565.44</v>
       </c>
       <c r="AN22">
-        <v>-13453.75</v>
+        <v>-10990.11</v>
       </c>
       <c r="AO22">
-        <v>-2516.26</v>
+        <v>-52.62</v>
       </c>
       <c r="AP22">
-        <v>-5037.05</v>
+        <v>-2573.41</v>
       </c>
       <c r="AQ22">
-        <v>-7557.84</v>
+        <v>-5094.2</v>
       </c>
       <c r="AR22">
-        <v>-4078.7</v>
+        <v>-1615.06</v>
       </c>
       <c r="AS22">
-        <v>-8201.19</v>
+        <v>-5737.55</v>
       </c>
       <c r="AT22">
-        <v>-15910.78</v>
+        <v>-13447.15</v>
       </c>
       <c r="AU22">
-        <v>-2785.91</v>
+        <v>-322.28</v>
       </c>
       <c r="AV22">
-        <v>-5810.86</v>
+        <v>-3347.22</v>
       </c>
       <c r="AW22">
-        <v>-8835.81</v>
+        <v>-6372.17</v>
       </c>
       <c r="AX22">
-        <v>-4321.23</v>
+        <v>-1857.59</v>
       </c>
       <c r="AY22">
-        <v>-8787.26</v>
+        <v>-6323.63</v>
       </c>
       <c r="AZ22">
-        <v>-17139.33</v>
+        <v>-14675.69</v>
       </c>
       <c r="BA22">
-        <v>-2920.72</v>
+        <v>-457.08</v>
       </c>
       <c r="BB22">
-        <v>-6197.74</v>
+        <v>-3734.1</v>
       </c>
       <c r="BC22">
-        <v>-9474.77</v>
+        <v>-7011.13</v>
       </c>
       <c r="BD22">
-        <v>-4806.25</v>
+        <v>-2342.62</v>
       </c>
       <c r="BE22">
-        <v>-9959.37</v>
+        <v>-7495.73</v>
       </c>
       <c r="BF22">
-        <v>-19596.36</v>
+        <v>-17132.73</v>
       </c>
       <c r="BG22">
-        <v>-3190.46</v>
+        <v>-726.83</v>
       </c>
       <c r="BH22">
-        <v>-6971.65</v>
+        <v>-4508.01</v>
       </c>
       <c r="BI22">
-        <v>-10752.83</v>
+        <v>-8289.19</v>
       </c>
     </row>
     <row r="23">
@@ -4686,184 +4686,184 @@
         </is>
       </c>
       <c r="B23">
-        <v>-7750.97</v>
+        <v>-5291.27</v>
       </c>
       <c r="C23">
-        <v>-8094.52</v>
+        <v>-5634.82</v>
       </c>
       <c r="D23">
-        <v>-8736.98</v>
+        <v>-6277.28</v>
       </c>
       <c r="E23">
-        <v>-7643.29</v>
+        <v>-5183.59</v>
       </c>
       <c r="F23">
-        <v>-7895.37</v>
+        <v>-5435.67</v>
       </c>
       <c r="G23">
-        <v>-8147.45</v>
+        <v>-5687.75</v>
       </c>
       <c r="H23">
-        <v>-8235.16</v>
+        <v>-5775.46</v>
       </c>
       <c r="I23">
-        <v>-9265.78</v>
+        <v>-6806.08</v>
       </c>
       <c r="J23">
-        <v>-11193.18</v>
+        <v>-8733.48</v>
       </c>
       <c r="K23">
-        <v>-7912.62</v>
+        <v>-5452.92</v>
       </c>
       <c r="L23">
-        <v>-8668.85</v>
+        <v>-6209.15</v>
       </c>
       <c r="M23">
-        <v>-9425.09</v>
+        <v>-6965.39</v>
       </c>
       <c r="N23">
-        <v>-8478.72</v>
+        <v>-6019.02</v>
       </c>
       <c r="O23">
-        <v>-9852.88</v>
+        <v>-7393.18</v>
       </c>
       <c r="P23">
-        <v>-12422.75</v>
+        <v>-9963.05</v>
       </c>
       <c r="Q23">
-        <v>-8047.37</v>
+        <v>-5587.67</v>
       </c>
       <c r="R23">
-        <v>-9055.69</v>
+        <v>-6595.99</v>
       </c>
       <c r="S23">
-        <v>-10064</v>
+        <v>-7604.3</v>
       </c>
       <c r="T23">
-        <v>-8964.4</v>
+        <v>-6504.7</v>
       </c>
       <c r="U23">
-        <v>-11025.64</v>
+        <v>-8565.94</v>
       </c>
       <c r="V23">
-        <v>-14880.44</v>
+        <v>-12420.74</v>
       </c>
       <c r="W23">
-        <v>-8317.68</v>
+        <v>-5857.98</v>
       </c>
       <c r="X23">
-        <v>-9830.15</v>
+        <v>-7370.45</v>
       </c>
       <c r="Y23">
-        <v>-11342.62</v>
+        <v>-8882.92</v>
       </c>
       <c r="Z23">
-        <v>-9206.93</v>
+        <v>-6747.23</v>
       </c>
       <c r="AA23">
-        <v>-11611.72</v>
+        <v>-9152.02</v>
       </c>
       <c r="AB23">
-        <v>-16108.98</v>
+        <v>-13649.28</v>
       </c>
       <c r="AC23">
-        <v>-8452.53</v>
+        <v>-5992.83</v>
       </c>
       <c r="AD23">
-        <v>-10217.08</v>
+        <v>-7757.38</v>
       </c>
       <c r="AE23">
-        <v>-11981.63</v>
+        <v>-9521.93</v>
       </c>
       <c r="AF23">
-        <v>-9691.91</v>
+        <v>-7232.21</v>
       </c>
       <c r="AG23">
-        <v>-12783.78</v>
+        <v>-10324.08</v>
       </c>
       <c r="AH23">
-        <v>-18565.97</v>
+        <v>-16106.27</v>
       </c>
       <c r="AI23">
-        <v>-8722.18</v>
+        <v>-6262.48</v>
       </c>
       <c r="AJ23">
-        <v>-10990.89</v>
+        <v>-8531.19</v>
       </c>
       <c r="AK23">
-        <v>-13259.6</v>
+        <v>-10799.9</v>
       </c>
       <c r="AL23">
-        <v>-9934.4</v>
+        <v>-7474.7</v>
       </c>
       <c r="AM23">
-        <v>-13369.81</v>
+        <v>-10910.11</v>
       </c>
       <c r="AN23">
-        <v>-19794.47</v>
+        <v>-17334.77</v>
       </c>
       <c r="AO23">
-        <v>-8856.99</v>
+        <v>-6397.29</v>
       </c>
       <c r="AP23">
-        <v>-11377.77</v>
+        <v>-8918.07</v>
       </c>
       <c r="AQ23">
-        <v>-13898.56</v>
+        <v>-11438.86</v>
       </c>
       <c r="AR23">
-        <v>-10419.42</v>
+        <v>-7959.72</v>
       </c>
       <c r="AS23">
-        <v>-14541.91</v>
+        <v>-12082.21</v>
       </c>
       <c r="AT23">
-        <v>-22251.51</v>
+        <v>-19791.81</v>
       </c>
       <c r="AU23">
-        <v>-9126.64</v>
+        <v>-6666.94</v>
       </c>
       <c r="AV23">
-        <v>-12151.58</v>
+        <v>-9691.88</v>
       </c>
       <c r="AW23">
-        <v>-15176.53</v>
+        <v>-12716.83</v>
       </c>
       <c r="AX23">
-        <v>-10661.96</v>
+        <v>-8202.26</v>
       </c>
       <c r="AY23">
-        <v>-15127.99</v>
+        <v>-12668.29</v>
       </c>
       <c r="AZ23">
-        <v>-23480.05</v>
+        <v>-21020.35</v>
       </c>
       <c r="BA23">
-        <v>-9261.44</v>
+        <v>-6801.74</v>
       </c>
       <c r="BB23">
-        <v>-12538.47</v>
+        <v>-10078.77</v>
       </c>
       <c r="BC23">
-        <v>-15815.49</v>
+        <v>-13355.79</v>
       </c>
       <c r="BD23">
-        <v>-11146.98</v>
+        <v>-8687.28</v>
       </c>
       <c r="BE23">
-        <v>-16300.09</v>
+        <v>-13840.39</v>
       </c>
       <c r="BF23">
-        <v>-25937.09</v>
+        <v>-23477.39</v>
       </c>
       <c r="BG23">
-        <v>-9531.19</v>
+        <v>-7071.49</v>
       </c>
       <c r="BH23">
-        <v>-13312.37</v>
+        <v>-10852.67</v>
       </c>
       <c r="BI23">
-        <v>-17093.55</v>
+        <v>-14633.85</v>
       </c>
     </row>
     <row r="24">
@@ -4873,184 +4873,184 @@
         </is>
       </c>
       <c r="B24">
-        <v>1474.03</v>
+        <v>3933.73</v>
       </c>
       <c r="C24">
-        <v>1130.48</v>
+        <v>3590.18</v>
       </c>
       <c r="D24">
-        <v>488.02</v>
+        <v>2947.72</v>
       </c>
       <c r="E24">
-        <v>1581.71</v>
+        <v>4041.41</v>
       </c>
       <c r="F24">
-        <v>1329.63</v>
+        <v>3789.33</v>
       </c>
       <c r="G24">
-        <v>1077.55</v>
+        <v>3537.25</v>
       </c>
       <c r="H24">
-        <v>989.84</v>
+        <v>3449.54</v>
       </c>
       <c r="I24">
-        <v>-40.78</v>
+        <v>2418.92</v>
       </c>
       <c r="J24">
-        <v>-1968.18</v>
+        <v>491.52</v>
       </c>
       <c r="K24">
-        <v>1312.38</v>
+        <v>3772.08</v>
       </c>
       <c r="L24">
-        <v>556.15</v>
+        <v>3015.85</v>
       </c>
       <c r="M24">
-        <v>-200.09</v>
+        <v>2259.61</v>
       </c>
       <c r="N24">
-        <v>746.28</v>
+        <v>3205.98</v>
       </c>
       <c r="O24">
-        <v>-627.88</v>
+        <v>1831.82</v>
       </c>
       <c r="P24">
-        <v>-3197.75</v>
+        <v>-738.05</v>
       </c>
       <c r="Q24">
-        <v>1177.63</v>
+        <v>3637.33</v>
       </c>
       <c r="R24">
-        <v>169.31</v>
+        <v>2629.01</v>
       </c>
       <c r="S24">
-        <v>-839</v>
+        <v>1620.7</v>
       </c>
       <c r="T24">
-        <v>260.6</v>
+        <v>2720.3</v>
       </c>
       <c r="U24">
-        <v>-1800.64</v>
+        <v>659.06</v>
       </c>
       <c r="V24">
-        <v>-5655.44</v>
+        <v>-3195.74</v>
       </c>
       <c r="W24">
-        <v>907.32</v>
+        <v>3367.02</v>
       </c>
       <c r="X24">
-        <v>-605.15</v>
+        <v>1854.55</v>
       </c>
       <c r="Y24">
-        <v>-2117.62</v>
+        <v>342.08</v>
       </c>
       <c r="Z24">
-        <v>18.07</v>
+        <v>2477.77</v>
       </c>
       <c r="AA24">
-        <v>-2386.72</v>
+        <v>72.98</v>
       </c>
       <c r="AB24">
-        <v>-6883.98</v>
+        <v>-4424.28</v>
       </c>
       <c r="AC24">
-        <v>772.47</v>
+        <v>3232.17</v>
       </c>
       <c r="AD24">
-        <v>-992.08</v>
+        <v>1467.62</v>
       </c>
       <c r="AE24">
-        <v>-2756.63</v>
+        <v>-296.93</v>
       </c>
       <c r="AF24">
-        <v>-466.91</v>
+        <v>1992.79</v>
       </c>
       <c r="AG24">
-        <v>-3558.78</v>
+        <v>-1099.08</v>
       </c>
       <c r="AH24">
-        <v>-9340.97</v>
+        <v>-6881.27</v>
       </c>
       <c r="AI24">
-        <v>502.82</v>
+        <v>2962.52</v>
       </c>
       <c r="AJ24">
-        <v>-1765.89</v>
+        <v>693.81</v>
       </c>
       <c r="AK24">
-        <v>-4034.6</v>
+        <v>-1574.9</v>
       </c>
       <c r="AL24">
-        <v>-709.4</v>
+        <v>1750.3</v>
       </c>
       <c r="AM24">
-        <v>-4144.81</v>
+        <v>-1685.11</v>
       </c>
       <c r="AN24">
-        <v>-10569.47</v>
+        <v>-8109.77</v>
       </c>
       <c r="AO24">
-        <v>368.01</v>
+        <v>2827.71</v>
       </c>
       <c r="AP24">
-        <v>-2152.77</v>
+        <v>306.93</v>
       </c>
       <c r="AQ24">
-        <v>-4673.56</v>
+        <v>-2213.86</v>
       </c>
       <c r="AR24">
-        <v>-1194.42</v>
+        <v>1265.28</v>
       </c>
       <c r="AS24">
-        <v>-5316.91</v>
+        <v>-2857.21</v>
       </c>
       <c r="AT24">
-        <v>-13026.51</v>
+        <v>-10566.81</v>
       </c>
       <c r="AU24">
-        <v>98.36</v>
+        <v>2558.06</v>
       </c>
       <c r="AV24">
-        <v>-2926.58</v>
+        <v>-466.88</v>
       </c>
       <c r="AW24">
-        <v>-5951.53</v>
+        <v>-3491.83</v>
       </c>
       <c r="AX24">
-        <v>-1436.96</v>
+        <v>1022.74</v>
       </c>
       <c r="AY24">
-        <v>-5902.99</v>
+        <v>-3443.29</v>
       </c>
       <c r="AZ24">
-        <v>-14255.05</v>
+        <v>-11795.35</v>
       </c>
       <c r="BA24">
-        <v>-36.44</v>
+        <v>2423.26</v>
       </c>
       <c r="BB24">
-        <v>-3313.47</v>
+        <v>-853.77</v>
       </c>
       <c r="BC24">
-        <v>-6590.49</v>
+        <v>-4130.79</v>
       </c>
       <c r="BD24">
-        <v>-1921.98</v>
+        <v>537.72</v>
       </c>
       <c r="BE24">
-        <v>-7075.09</v>
+        <v>-4615.39</v>
       </c>
       <c r="BF24">
-        <v>-16712.09</v>
+        <v>-14252.39</v>
       </c>
       <c r="BG24">
-        <v>-306.19</v>
+        <v>2153.51</v>
       </c>
       <c r="BH24">
-        <v>-4087.37</v>
+        <v>-1627.67</v>
       </c>
       <c r="BI24">
-        <v>-7868.55</v>
+        <v>-5408.85</v>
       </c>
     </row>
     <row r="25">
@@ -5060,184 +5060,184 @@
         </is>
       </c>
       <c r="B25">
-        <v>10699.03</v>
+        <v>13158.73</v>
       </c>
       <c r="C25">
-        <v>10355.48</v>
+        <v>12815.18</v>
       </c>
       <c r="D25">
-        <v>9713.02</v>
+        <v>12172.72</v>
       </c>
       <c r="E25">
-        <v>10806.71</v>
+        <v>13266.41</v>
       </c>
       <c r="F25">
-        <v>10554.63</v>
+        <v>13014.33</v>
       </c>
       <c r="G25">
-        <v>10302.55</v>
+        <v>12762.25</v>
       </c>
       <c r="H25">
-        <v>10214.84</v>
+        <v>12674.54</v>
       </c>
       <c r="I25">
-        <v>9184.22</v>
+        <v>11643.92</v>
       </c>
       <c r="J25">
-        <v>7256.82</v>
+        <v>9716.52</v>
       </c>
       <c r="K25">
-        <v>10537.38</v>
+        <v>12997.08</v>
       </c>
       <c r="L25">
-        <v>9781.15</v>
+        <v>12240.85</v>
       </c>
       <c r="M25">
-        <v>9024.91</v>
+        <v>11484.61</v>
       </c>
       <c r="N25">
-        <v>9971.28</v>
+        <v>12430.98</v>
       </c>
       <c r="O25">
-        <v>8597.12</v>
+        <v>11056.82</v>
       </c>
       <c r="P25">
-        <v>6027.25</v>
+        <v>8486.95</v>
       </c>
       <c r="Q25">
-        <v>10402.63</v>
+        <v>12862.33</v>
       </c>
       <c r="R25">
-        <v>9394.31</v>
+        <v>11854.01</v>
       </c>
       <c r="S25">
-        <v>8386</v>
+        <v>10845.7</v>
       </c>
       <c r="T25">
-        <v>9485.6</v>
+        <v>11945.3</v>
       </c>
       <c r="U25">
-        <v>7424.36</v>
+        <v>9884.06</v>
       </c>
       <c r="V25">
-        <v>3569.56</v>
+        <v>6029.26</v>
       </c>
       <c r="W25">
-        <v>10132.32</v>
+        <v>12592.02</v>
       </c>
       <c r="X25">
-        <v>8619.85</v>
+        <v>11079.55</v>
       </c>
       <c r="Y25">
-        <v>7107.38</v>
+        <v>9567.08</v>
       </c>
       <c r="Z25">
-        <v>9243.07</v>
+        <v>11702.77</v>
       </c>
       <c r="AA25">
-        <v>6838.28</v>
+        <v>9297.98</v>
       </c>
       <c r="AB25">
-        <v>2341.02</v>
+        <v>4800.72</v>
       </c>
       <c r="AC25">
-        <v>9997.47</v>
+        <v>12457.17</v>
       </c>
       <c r="AD25">
-        <v>8232.92</v>
+        <v>10692.62</v>
       </c>
       <c r="AE25">
-        <v>6468.37</v>
+        <v>8928.07</v>
       </c>
       <c r="AF25">
-        <v>8758.09</v>
+        <v>11217.79</v>
       </c>
       <c r="AG25">
-        <v>5666.22</v>
+        <v>8125.92</v>
       </c>
       <c r="AH25">
-        <v>-115.97</v>
+        <v>2343.73</v>
       </c>
       <c r="AI25">
-        <v>9727.82</v>
+        <v>12187.52</v>
       </c>
       <c r="AJ25">
-        <v>7459.11</v>
+        <v>9918.81</v>
       </c>
       <c r="AK25">
-        <v>5190.4</v>
+        <v>7650.1</v>
       </c>
       <c r="AL25">
-        <v>8515.6</v>
+        <v>10975.3</v>
       </c>
       <c r="AM25">
-        <v>5080.19</v>
+        <v>7539.89</v>
       </c>
       <c r="AN25">
-        <v>-1344.47</v>
+        <v>1115.23</v>
       </c>
       <c r="AO25">
-        <v>9593.01</v>
+        <v>12052.71</v>
       </c>
       <c r="AP25">
-        <v>7072.23</v>
+        <v>9531.93</v>
       </c>
       <c r="AQ25">
-        <v>4551.44</v>
+        <v>7011.14</v>
       </c>
       <c r="AR25">
-        <v>8030.58</v>
+        <v>10490.28</v>
       </c>
       <c r="AS25">
-        <v>3908.09</v>
+        <v>6367.79</v>
       </c>
       <c r="AT25">
-        <v>-3801.51</v>
+        <v>-1341.81</v>
       </c>
       <c r="AU25">
-        <v>9323.36</v>
+        <v>11783.06</v>
       </c>
       <c r="AV25">
-        <v>6298.42</v>
+        <v>8758.12</v>
       </c>
       <c r="AW25">
-        <v>3273.47</v>
+        <v>5733.17</v>
       </c>
       <c r="AX25">
-        <v>7788.04</v>
+        <v>10247.74</v>
       </c>
       <c r="AY25">
-        <v>3322.01</v>
+        <v>5781.71</v>
       </c>
       <c r="AZ25">
-        <v>-5030.05</v>
+        <v>-2570.35</v>
       </c>
       <c r="BA25">
-        <v>9188.56</v>
+        <v>11648.26</v>
       </c>
       <c r="BB25">
-        <v>5911.53</v>
+        <v>8371.23</v>
       </c>
       <c r="BC25">
-        <v>2634.51</v>
+        <v>5094.21</v>
       </c>
       <c r="BD25">
-        <v>7303.02</v>
+        <v>9762.72</v>
       </c>
       <c r="BE25">
-        <v>2149.91</v>
+        <v>4609.61</v>
       </c>
       <c r="BF25">
-        <v>-7487.09</v>
+        <v>-5027.39</v>
       </c>
       <c r="BG25">
-        <v>8918.81</v>
+        <v>11378.51</v>
       </c>
       <c r="BH25">
-        <v>5137.63</v>
+        <v>7597.33</v>
       </c>
       <c r="BI25">
-        <v>1356.45</v>
+        <v>3816.15</v>
       </c>
     </row>
     <row r="26">
@@ -5247,184 +5247,184 @@
         </is>
       </c>
       <c r="B26">
-        <v>-4866.7</v>
+        <v>-2406.06</v>
       </c>
       <c r="C26">
-        <v>-5210.24</v>
+        <v>-2749.6</v>
       </c>
       <c r="D26">
-        <v>-5852.71</v>
+        <v>-3392.07</v>
       </c>
       <c r="E26">
-        <v>-4759.01</v>
+        <v>-2298.38</v>
       </c>
       <c r="F26">
-        <v>-5011.09</v>
+        <v>-2550.45</v>
       </c>
       <c r="G26">
-        <v>-5263.17</v>
+        <v>-2802.53</v>
       </c>
       <c r="H26">
-        <v>-5350.88</v>
+        <v>-2890.25</v>
       </c>
       <c r="I26">
-        <v>-6381.51</v>
+        <v>-3920.87</v>
       </c>
       <c r="J26">
-        <v>-8308.91</v>
+        <v>-5848.27</v>
       </c>
       <c r="K26">
-        <v>-5028.34</v>
+        <v>-2567.7</v>
       </c>
       <c r="L26">
-        <v>-5784.58</v>
+        <v>-3323.94</v>
       </c>
       <c r="M26">
-        <v>-6540.81</v>
+        <v>-4080.18</v>
       </c>
       <c r="N26">
-        <v>-5594.44</v>
+        <v>-3133.81</v>
       </c>
       <c r="O26">
-        <v>-6968.61</v>
+        <v>-4507.97</v>
       </c>
       <c r="P26">
-        <v>-9538.47</v>
+        <v>-7077.84</v>
       </c>
       <c r="Q26">
-        <v>-5163.1</v>
+        <v>-2702.46</v>
       </c>
       <c r="R26">
-        <v>-6171.41</v>
+        <v>-3710.78</v>
       </c>
       <c r="S26">
-        <v>-7179.73</v>
+        <v>-4719.09</v>
       </c>
       <c r="T26">
-        <v>-6080.12</v>
+        <v>-3619.48</v>
       </c>
       <c r="U26">
-        <v>-8141.37</v>
+        <v>-5680.73</v>
       </c>
       <c r="V26">
-        <v>-11996.16</v>
+        <v>-9535.53</v>
       </c>
       <c r="W26">
-        <v>-5433.4</v>
+        <v>-2972.77</v>
       </c>
       <c r="X26">
-        <v>-6945.88</v>
+        <v>-4485.24</v>
       </c>
       <c r="Y26">
-        <v>-8458.35</v>
+        <v>-5997.71</v>
       </c>
       <c r="Z26">
-        <v>-6322.66</v>
+        <v>-3862.02</v>
       </c>
       <c r="AA26">
-        <v>-8727.44</v>
+        <v>-6266.81</v>
       </c>
       <c r="AB26">
-        <v>-13224.71</v>
+        <v>-10764.07</v>
       </c>
       <c r="AC26">
-        <v>-5568.25</v>
+        <v>-3107.62</v>
       </c>
       <c r="AD26">
-        <v>-7332.81</v>
+        <v>-4872.17</v>
       </c>
       <c r="AE26">
-        <v>-9097.36</v>
+        <v>-6636.72</v>
       </c>
       <c r="AF26">
-        <v>-6807.63</v>
+        <v>-4347</v>
       </c>
       <c r="AG26">
-        <v>-9899.5</v>
+        <v>-7438.86</v>
       </c>
       <c r="AH26">
-        <v>-15681.7</v>
+        <v>-13221.06</v>
       </c>
       <c r="AI26">
-        <v>-5837.91</v>
+        <v>-3377.27</v>
       </c>
       <c r="AJ26">
-        <v>-8106.62</v>
+        <v>-5645.98</v>
       </c>
       <c r="AK26">
-        <v>-10375.33</v>
+        <v>-7914.69</v>
       </c>
       <c r="AL26">
-        <v>-7050.12</v>
+        <v>-4589.48</v>
       </c>
       <c r="AM26">
-        <v>-10485.53</v>
+        <v>-8024.89</v>
       </c>
       <c r="AN26">
-        <v>-16910.2</v>
+        <v>-14449.56</v>
       </c>
       <c r="AO26">
-        <v>-5972.71</v>
+        <v>-3512.07</v>
       </c>
       <c r="AP26">
-        <v>-8493.5</v>
+        <v>-6032.86</v>
       </c>
       <c r="AQ26">
-        <v>-11014.29</v>
+        <v>-8553.65</v>
       </c>
       <c r="AR26">
-        <v>-7535.15</v>
+        <v>-5074.51</v>
       </c>
       <c r="AS26">
-        <v>-11657.64</v>
+        <v>-9197</v>
       </c>
       <c r="AT26">
-        <v>-19367.23</v>
+        <v>-16906.6</v>
       </c>
       <c r="AU26">
-        <v>-6242.36</v>
+        <v>-3781.73</v>
       </c>
       <c r="AV26">
-        <v>-9267.31</v>
+        <v>-6806.67</v>
       </c>
       <c r="AW26">
-        <v>-12292.26</v>
+        <v>-9831.62</v>
       </c>
       <c r="AX26">
-        <v>-7777.68</v>
+        <v>-5317.04</v>
       </c>
       <c r="AY26">
-        <v>-12243.71</v>
+        <v>-9783.08</v>
       </c>
       <c r="AZ26">
-        <v>-20595.78</v>
+        <v>-18135.14</v>
       </c>
       <c r="BA26">
-        <v>-6377.17</v>
+        <v>-3916.53</v>
       </c>
       <c r="BB26">
-        <v>-9654.19</v>
+        <v>-7193.55</v>
       </c>
       <c r="BC26">
-        <v>-12931.22</v>
+        <v>-10470.58</v>
       </c>
       <c r="BD26">
-        <v>-8262.7</v>
+        <v>-5802.07</v>
       </c>
       <c r="BE26">
-        <v>-13415.82</v>
+        <v>-10955.18</v>
       </c>
       <c r="BF26">
-        <v>-23052.81</v>
+        <v>-20592.18</v>
       </c>
       <c r="BG26">
-        <v>-6646.91</v>
+        <v>-4186.28</v>
       </c>
       <c r="BH26">
-        <v>-10428.1</v>
+        <v>-7967.46</v>
       </c>
       <c r="BI26">
-        <v>-14209.28</v>
+        <v>-11748.64</v>
       </c>
     </row>
     <row r="27">
@@ -5434,184 +5434,184 @@
         </is>
       </c>
       <c r="B27">
-        <v>8970.8</v>
+        <v>11432.94</v>
       </c>
       <c r="C27">
-        <v>8627.26</v>
+        <v>11089.4</v>
       </c>
       <c r="D27">
-        <v>7984.79</v>
+        <v>10446.93</v>
       </c>
       <c r="E27">
-        <v>9078.49</v>
+        <v>11540.62</v>
       </c>
       <c r="F27">
-        <v>8826.41</v>
+        <v>11288.55</v>
       </c>
       <c r="G27">
-        <v>8574.33</v>
+        <v>11036.47</v>
       </c>
       <c r="H27">
-        <v>8486.62</v>
+        <v>10948.75</v>
       </c>
       <c r="I27">
-        <v>7455.99</v>
+        <v>9918.13</v>
       </c>
       <c r="J27">
-        <v>5528.59</v>
+        <v>7990.73</v>
       </c>
       <c r="K27">
-        <v>8809.16</v>
+        <v>11271.3</v>
       </c>
       <c r="L27">
-        <v>8052.92</v>
+        <v>10515.06</v>
       </c>
       <c r="M27">
-        <v>7296.69</v>
+        <v>9758.82</v>
       </c>
       <c r="N27">
-        <v>8243.06</v>
+        <v>10705.19</v>
       </c>
       <c r="O27">
-        <v>6868.89</v>
+        <v>9331.03</v>
       </c>
       <c r="P27">
-        <v>4299.03</v>
+        <v>6761.16</v>
       </c>
       <c r="Q27">
-        <v>8674.4</v>
+        <v>11136.54</v>
       </c>
       <c r="R27">
-        <v>7666.09</v>
+        <v>10128.22</v>
       </c>
       <c r="S27">
-        <v>6657.77</v>
+        <v>9119.91</v>
       </c>
       <c r="T27">
-        <v>7757.38</v>
+        <v>10219.52</v>
       </c>
       <c r="U27">
-        <v>5696.13</v>
+        <v>8158.27</v>
       </c>
       <c r="V27">
-        <v>1841.34</v>
+        <v>4303.47</v>
       </c>
       <c r="W27">
-        <v>8404.1</v>
+        <v>10866.23</v>
       </c>
       <c r="X27">
-        <v>6891.62</v>
+        <v>9353.76</v>
       </c>
       <c r="Y27">
-        <v>5379.15</v>
+        <v>7841.29</v>
       </c>
       <c r="Z27">
-        <v>7514.84</v>
+        <v>9976.98</v>
       </c>
       <c r="AA27">
-        <v>5110.06</v>
+        <v>7572.19</v>
       </c>
       <c r="AB27">
-        <v>612.79</v>
+        <v>3074.93</v>
       </c>
       <c r="AC27">
-        <v>8269.25</v>
+        <v>10731.38</v>
       </c>
       <c r="AD27">
-        <v>6504.69</v>
+        <v>8966.83</v>
       </c>
       <c r="AE27">
-        <v>4740.14</v>
+        <v>7202.28</v>
       </c>
       <c r="AF27">
-        <v>7029.87</v>
+        <v>9492</v>
       </c>
       <c r="AG27">
-        <v>3938</v>
+        <v>6400.14</v>
       </c>
       <c r="AH27">
-        <v>-1844.2</v>
+        <v>617.94</v>
       </c>
       <c r="AI27">
-        <v>7999.59</v>
+        <v>10461.73</v>
       </c>
       <c r="AJ27">
-        <v>5730.88</v>
+        <v>8193.02</v>
       </c>
       <c r="AK27">
-        <v>3462.17</v>
+        <v>5924.31</v>
       </c>
       <c r="AL27">
-        <v>6787.38</v>
+        <v>9249.52</v>
       </c>
       <c r="AM27">
-        <v>3351.97</v>
+        <v>5814.11</v>
       </c>
       <c r="AN27">
-        <v>-3072.7</v>
+        <v>-610.56</v>
       </c>
       <c r="AO27">
-        <v>7864.79</v>
+        <v>10326.93</v>
       </c>
       <c r="AP27">
-        <v>5344</v>
+        <v>7806.14</v>
       </c>
       <c r="AQ27">
-        <v>2823.21</v>
+        <v>5285.35</v>
       </c>
       <c r="AR27">
-        <v>6302.35</v>
+        <v>8764.49</v>
       </c>
       <c r="AS27">
-        <v>2179.86</v>
+        <v>4642</v>
       </c>
       <c r="AT27">
-        <v>-5529.73</v>
+        <v>-3067.6</v>
       </c>
       <c r="AU27">
-        <v>7595.14</v>
+        <v>10057.27</v>
       </c>
       <c r="AV27">
-        <v>4570.19</v>
+        <v>7032.33</v>
       </c>
       <c r="AW27">
-        <v>1545.24</v>
+        <v>4007.38</v>
       </c>
       <c r="AX27">
-        <v>6059.82</v>
+        <v>8521.96</v>
       </c>
       <c r="AY27">
-        <v>1593.79</v>
+        <v>4055.92</v>
       </c>
       <c r="AZ27">
-        <v>-6758.28</v>
+        <v>-4296.14</v>
       </c>
       <c r="BA27">
-        <v>7460.33</v>
+        <v>9922.47</v>
       </c>
       <c r="BB27">
-        <v>4183.31</v>
+        <v>6645.45</v>
       </c>
       <c r="BC27">
-        <v>906.28</v>
+        <v>3368.42</v>
       </c>
       <c r="BD27">
-        <v>5574.8</v>
+        <v>8036.93</v>
       </c>
       <c r="BE27">
-        <v>421.68</v>
+        <v>2883.82</v>
       </c>
       <c r="BF27">
-        <v>-9215.31</v>
+        <v>-6753.18</v>
       </c>
       <c r="BG27">
-        <v>7190.59</v>
+        <v>9652.72</v>
       </c>
       <c r="BH27">
-        <v>3409.4</v>
+        <v>5871.54</v>
       </c>
       <c r="BI27">
-        <v>-371.78</v>
+        <v>2090.36</v>
       </c>
     </row>
     <row r="28">
@@ -5621,184 +5621,184 @@
         </is>
       </c>
       <c r="B28">
-        <v>22808.3</v>
+        <v>25271.94</v>
       </c>
       <c r="C28">
-        <v>22464.76</v>
+        <v>24928.4</v>
       </c>
       <c r="D28">
-        <v>21822.29</v>
+        <v>24285.93</v>
       </c>
       <c r="E28">
-        <v>22915.99</v>
+        <v>25379.62</v>
       </c>
       <c r="F28">
-        <v>22663.91</v>
+        <v>25127.55</v>
       </c>
       <c r="G28">
-        <v>22411.83</v>
+        <v>24875.47</v>
       </c>
       <c r="H28">
-        <v>22324.12</v>
+        <v>24787.75</v>
       </c>
       <c r="I28">
-        <v>21293.49</v>
+        <v>23757.13</v>
       </c>
       <c r="J28">
-        <v>19366.09</v>
+        <v>21829.73</v>
       </c>
       <c r="K28">
-        <v>22646.66</v>
+        <v>25110.3</v>
       </c>
       <c r="L28">
-        <v>21890.42</v>
+        <v>24354.06</v>
       </c>
       <c r="M28">
-        <v>21134.19</v>
+        <v>23597.82</v>
       </c>
       <c r="N28">
-        <v>22080.56</v>
+        <v>24544.19</v>
       </c>
       <c r="O28">
-        <v>20706.39</v>
+        <v>23170.03</v>
       </c>
       <c r="P28">
-        <v>18136.53</v>
+        <v>20600.16</v>
       </c>
       <c r="Q28">
-        <v>22511.9</v>
+        <v>24975.54</v>
       </c>
       <c r="R28">
-        <v>21503.59</v>
+        <v>23967.22</v>
       </c>
       <c r="S28">
-        <v>20495.27</v>
+        <v>22958.91</v>
       </c>
       <c r="T28">
-        <v>21594.88</v>
+        <v>24058.52</v>
       </c>
       <c r="U28">
-        <v>19533.63</v>
+        <v>21997.27</v>
       </c>
       <c r="V28">
-        <v>15678.84</v>
+        <v>18142.47</v>
       </c>
       <c r="W28">
-        <v>22241.6</v>
+        <v>24705.23</v>
       </c>
       <c r="X28">
-        <v>20729.12</v>
+        <v>23192.76</v>
       </c>
       <c r="Y28">
-        <v>19216.65</v>
+        <v>21680.29</v>
       </c>
       <c r="Z28">
-        <v>21352.34</v>
+        <v>23815.98</v>
       </c>
       <c r="AA28">
-        <v>18947.56</v>
+        <v>21411.19</v>
       </c>
       <c r="AB28">
-        <v>14450.29</v>
+        <v>16913.93</v>
       </c>
       <c r="AC28">
-        <v>22106.75</v>
+        <v>24570.38</v>
       </c>
       <c r="AD28">
-        <v>20342.19</v>
+        <v>22805.83</v>
       </c>
       <c r="AE28">
-        <v>18577.64</v>
+        <v>21041.28</v>
       </c>
       <c r="AF28">
-        <v>20867.37</v>
+        <v>23331</v>
       </c>
       <c r="AG28">
-        <v>17775.5</v>
+        <v>20239.14</v>
       </c>
       <c r="AH28">
-        <v>11993.3</v>
+        <v>14456.94</v>
       </c>
       <c r="AI28">
-        <v>21837.09</v>
+        <v>24300.73</v>
       </c>
       <c r="AJ28">
-        <v>19568.38</v>
+        <v>22032.02</v>
       </c>
       <c r="AK28">
-        <v>17299.67</v>
+        <v>19763.31</v>
       </c>
       <c r="AL28">
-        <v>20624.88</v>
+        <v>23088.52</v>
       </c>
       <c r="AM28">
-        <v>17189.47</v>
+        <v>19653.11</v>
       </c>
       <c r="AN28">
-        <v>10764.8</v>
+        <v>13228.44</v>
       </c>
       <c r="AO28">
-        <v>21702.29</v>
+        <v>24165.93</v>
       </c>
       <c r="AP28">
-        <v>19181.5</v>
+        <v>21645.14</v>
       </c>
       <c r="AQ28">
-        <v>16660.71</v>
+        <v>19124.35</v>
       </c>
       <c r="AR28">
-        <v>20139.85</v>
+        <v>22603.49</v>
       </c>
       <c r="AS28">
-        <v>16017.36</v>
+        <v>18481</v>
       </c>
       <c r="AT28">
-        <v>8307.77</v>
+        <v>10771.4</v>
       </c>
       <c r="AU28">
-        <v>21432.64</v>
+        <v>23896.27</v>
       </c>
       <c r="AV28">
-        <v>18407.69</v>
+        <v>20871.33</v>
       </c>
       <c r="AW28">
-        <v>15382.74</v>
+        <v>17846.38</v>
       </c>
       <c r="AX28">
-        <v>19897.32</v>
+        <v>22360.96</v>
       </c>
       <c r="AY28">
-        <v>15431.29</v>
+        <v>17894.92</v>
       </c>
       <c r="AZ28">
-        <v>7079.22</v>
+        <v>9542.86</v>
       </c>
       <c r="BA28">
-        <v>21297.83</v>
+        <v>23761.47</v>
       </c>
       <c r="BB28">
-        <v>18020.81</v>
+        <v>20484.45</v>
       </c>
       <c r="BC28">
-        <v>14743.78</v>
+        <v>17207.42</v>
       </c>
       <c r="BD28">
-        <v>19412.3</v>
+        <v>21875.93</v>
       </c>
       <c r="BE28">
-        <v>14259.18</v>
+        <v>16722.82</v>
       </c>
       <c r="BF28">
-        <v>4622.19</v>
+        <v>7085.82</v>
       </c>
       <c r="BG28">
-        <v>21028.09</v>
+        <v>23491.72</v>
       </c>
       <c r="BH28">
-        <v>17246.9</v>
+        <v>19710.54</v>
       </c>
       <c r="BI28">
-        <v>13465.72</v>
+        <v>15929.36</v>
       </c>
     </row>
     <row r="29">
@@ -5808,184 +5808,184 @@
         </is>
       </c>
       <c r="B29">
-        <v>-10619.92</v>
+        <v>-8159.28</v>
       </c>
       <c r="C29">
-        <v>-10963.46</v>
+        <v>-8502.82</v>
       </c>
       <c r="D29">
-        <v>-11605.93</v>
+        <v>-9145.29</v>
       </c>
       <c r="E29">
-        <v>-10498.11</v>
+        <v>-8037.48</v>
       </c>
       <c r="F29">
-        <v>-10750.19</v>
+        <v>-8289.55</v>
       </c>
       <c r="G29">
-        <v>-11002.27</v>
+        <v>-8541.63</v>
       </c>
       <c r="H29">
-        <v>-11073.53</v>
+        <v>-8612.9</v>
       </c>
       <c r="I29">
-        <v>-12104.16</v>
+        <v>-9643.52</v>
       </c>
       <c r="J29">
-        <v>-14031.56</v>
+        <v>-11570.92</v>
       </c>
       <c r="K29">
-        <v>-10708.54</v>
+        <v>-8247.9</v>
       </c>
       <c r="L29">
-        <v>-11464.77</v>
+        <v>-9004.14</v>
       </c>
       <c r="M29">
-        <v>-12221.01</v>
+        <v>-9760.37</v>
       </c>
       <c r="N29">
-        <v>-11301.62</v>
+        <v>-8840.98</v>
       </c>
       <c r="O29">
-        <v>-12675.79</v>
+        <v>-10215.15</v>
       </c>
       <c r="P29">
-        <v>-15245.65</v>
+        <v>-12785.01</v>
       </c>
       <c r="Q29">
-        <v>-10813.84</v>
+        <v>-8353.21</v>
       </c>
       <c r="R29">
-        <v>-11822.16</v>
+        <v>-9361.52</v>
       </c>
       <c r="S29">
-        <v>-12830.47</v>
+        <v>-10369.84</v>
       </c>
       <c r="T29">
-        <v>-11756.59</v>
+        <v>-9295.95</v>
       </c>
       <c r="U29">
-        <v>-13817.84</v>
+        <v>-11357.2</v>
       </c>
       <c r="V29">
-        <v>-17672.63</v>
+        <v>-15212</v>
       </c>
       <c r="W29">
-        <v>-11025.25</v>
+        <v>-8564.61</v>
       </c>
       <c r="X29">
-        <v>-12537.72</v>
+        <v>-10077.08</v>
       </c>
       <c r="Y29">
-        <v>-14050.19</v>
+        <v>-11589.55</v>
       </c>
       <c r="Z29">
-        <v>-11983.75</v>
+        <v>-9523.11</v>
       </c>
       <c r="AA29">
-        <v>-14388.53</v>
+        <v>-11927.9</v>
       </c>
       <c r="AB29">
-        <v>-18885.8</v>
+        <v>-16425.16</v>
       </c>
       <c r="AC29">
-        <v>-11130.65</v>
+        <v>-8670.01</v>
       </c>
       <c r="AD29">
-        <v>-12895.2</v>
+        <v>-10434.56</v>
       </c>
       <c r="AE29">
-        <v>-14659.75</v>
+        <v>-12199.11</v>
       </c>
       <c r="AF29">
-        <v>-12438.06</v>
+        <v>-9977.42</v>
       </c>
       <c r="AG29">
-        <v>-15529.93</v>
+        <v>-13069.29</v>
       </c>
       <c r="AH29">
-        <v>-21312.13</v>
+        <v>-18851.49</v>
       </c>
       <c r="AI29">
-        <v>-11341.4</v>
+        <v>-8880.76</v>
       </c>
       <c r="AJ29">
-        <v>-13610.11</v>
+        <v>-11149.47</v>
       </c>
       <c r="AK29">
-        <v>-15878.81</v>
+        <v>-13418.18</v>
       </c>
       <c r="AL29">
-        <v>-12665.22</v>
+        <v>-10204.58</v>
       </c>
       <c r="AM29">
-        <v>-16100.63</v>
+        <v>-13639.99</v>
       </c>
       <c r="AN29">
-        <v>-22525.29</v>
+        <v>-20064.65</v>
       </c>
       <c r="AO29">
-        <v>-11446.7</v>
+        <v>-8986.06</v>
       </c>
       <c r="AP29">
-        <v>-13967.49</v>
+        <v>-11506.85</v>
       </c>
       <c r="AQ29">
-        <v>-16488.28</v>
+        <v>-14027.64</v>
       </c>
       <c r="AR29">
-        <v>-13119.53</v>
+        <v>-10658.89</v>
       </c>
       <c r="AS29">
-        <v>-17242.02</v>
+        <v>-14781.39</v>
       </c>
       <c r="AT29">
-        <v>-24951.62</v>
+        <v>-22490.98</v>
       </c>
       <c r="AU29">
-        <v>-11657.5</v>
+        <v>-9196.86</v>
       </c>
       <c r="AV29">
-        <v>-14682.45</v>
+        <v>-12221.81</v>
       </c>
       <c r="AW29">
-        <v>-17707.39</v>
+        <v>-15246.75</v>
       </c>
       <c r="AX29">
-        <v>-13346.69</v>
+        <v>-10886.05</v>
       </c>
       <c r="AY29">
-        <v>-17812.72</v>
+        <v>-15352.08</v>
       </c>
       <c r="AZ29">
-        <v>-26164.78</v>
+        <v>-23704.15</v>
       </c>
       <c r="BA29">
-        <v>-11762.85</v>
+        <v>-9302.21</v>
       </c>
       <c r="BB29">
-        <v>-15039.88</v>
+        <v>-12579.24</v>
       </c>
       <c r="BC29">
-        <v>-18316.9</v>
+        <v>-15856.26</v>
       </c>
       <c r="BD29">
-        <v>-13801.05</v>
+        <v>-11340.41</v>
       </c>
       <c r="BE29">
-        <v>-18954.17</v>
+        <v>-16493.53</v>
       </c>
       <c r="BF29">
-        <v>-28591.16</v>
+        <v>-26130.52</v>
       </c>
       <c r="BG29">
-        <v>-11973.7</v>
+        <v>-9513.06</v>
       </c>
       <c r="BH29">
-        <v>-15754.88</v>
+        <v>-13294.24</v>
       </c>
       <c r="BI29">
-        <v>-19536.06</v>
+        <v>-17075.42</v>
       </c>
     </row>
     <row r="30">
@@ -5995,184 +5995,184 @@
         </is>
       </c>
       <c r="B30">
-        <v>-6007.42</v>
+        <v>-3545.28</v>
       </c>
       <c r="C30">
-        <v>-6350.96</v>
+        <v>-3888.82</v>
       </c>
       <c r="D30">
-        <v>-6993.43</v>
+        <v>-4531.29</v>
       </c>
       <c r="E30">
-        <v>-5885.61</v>
+        <v>-3423.48</v>
       </c>
       <c r="F30">
-        <v>-6137.69</v>
+        <v>-3675.55</v>
       </c>
       <c r="G30">
-        <v>-6389.77</v>
+        <v>-3927.63</v>
       </c>
       <c r="H30">
-        <v>-6461.03</v>
+        <v>-3998.9</v>
       </c>
       <c r="I30">
-        <v>-7491.66</v>
+        <v>-5029.52</v>
       </c>
       <c r="J30">
-        <v>-9419.06</v>
+        <v>-6956.92</v>
       </c>
       <c r="K30">
-        <v>-6096.04</v>
+        <v>-3633.9</v>
       </c>
       <c r="L30">
-        <v>-6852.27</v>
+        <v>-4390.14</v>
       </c>
       <c r="M30">
-        <v>-7608.51</v>
+        <v>-5146.37</v>
       </c>
       <c r="N30">
-        <v>-6689.12</v>
+        <v>-4226.98</v>
       </c>
       <c r="O30">
-        <v>-8063.29</v>
+        <v>-5601.15</v>
       </c>
       <c r="P30">
-        <v>-10633.15</v>
+        <v>-8171.01</v>
       </c>
       <c r="Q30">
-        <v>-6201.34</v>
+        <v>-3739.21</v>
       </c>
       <c r="R30">
-        <v>-7209.66</v>
+        <v>-4747.52</v>
       </c>
       <c r="S30">
-        <v>-8217.97</v>
+        <v>-5755.84</v>
       </c>
       <c r="T30">
-        <v>-7144.09</v>
+        <v>-4681.95</v>
       </c>
       <c r="U30">
-        <v>-9205.34</v>
+        <v>-6743.2</v>
       </c>
       <c r="V30">
-        <v>-13060.13</v>
+        <v>-10598</v>
       </c>
       <c r="W30">
-        <v>-6412.75</v>
+        <v>-3950.61</v>
       </c>
       <c r="X30">
-        <v>-7925.22</v>
+        <v>-5463.08</v>
       </c>
       <c r="Y30">
-        <v>-9437.69</v>
+        <v>-6975.55</v>
       </c>
       <c r="Z30">
-        <v>-7371.25</v>
+        <v>-4909.11</v>
       </c>
       <c r="AA30">
-        <v>-9776.03</v>
+        <v>-7313.9</v>
       </c>
       <c r="AB30">
-        <v>-14273.3</v>
+        <v>-11811.16</v>
       </c>
       <c r="AC30">
-        <v>-6518.15</v>
+        <v>-4056.01</v>
       </c>
       <c r="AD30">
-        <v>-8282.7</v>
+        <v>-5820.56</v>
       </c>
       <c r="AE30">
-        <v>-10047.25</v>
+        <v>-7585.11</v>
       </c>
       <c r="AF30">
-        <v>-7825.56</v>
+        <v>-5363.42</v>
       </c>
       <c r="AG30">
-        <v>-10917.43</v>
+        <v>-8455.29</v>
       </c>
       <c r="AH30">
-        <v>-16699.63</v>
+        <v>-14237.49</v>
       </c>
       <c r="AI30">
-        <v>-6728.9</v>
+        <v>-4266.76</v>
       </c>
       <c r="AJ30">
-        <v>-8997.61</v>
+        <v>-6535.47</v>
       </c>
       <c r="AK30">
-        <v>-11266.31</v>
+        <v>-8804.18</v>
       </c>
       <c r="AL30">
-        <v>-8052.72</v>
+        <v>-5590.58</v>
       </c>
       <c r="AM30">
-        <v>-11488.13</v>
+        <v>-9025.99</v>
       </c>
       <c r="AN30">
-        <v>-17912.79</v>
+        <v>-15450.65</v>
       </c>
       <c r="AO30">
-        <v>-6834.2</v>
+        <v>-4372.06</v>
       </c>
       <c r="AP30">
-        <v>-9354.99</v>
+        <v>-6892.85</v>
       </c>
       <c r="AQ30">
-        <v>-11875.78</v>
+        <v>-9413.64</v>
       </c>
       <c r="AR30">
-        <v>-8507.03</v>
+        <v>-6044.89</v>
       </c>
       <c r="AS30">
-        <v>-12629.52</v>
+        <v>-10167.39</v>
       </c>
       <c r="AT30">
-        <v>-20339.12</v>
+        <v>-17876.98</v>
       </c>
       <c r="AU30">
-        <v>-7045</v>
+        <v>-4582.86</v>
       </c>
       <c r="AV30">
-        <v>-10069.95</v>
+        <v>-7607.81</v>
       </c>
       <c r="AW30">
-        <v>-13094.89</v>
+        <v>-10632.75</v>
       </c>
       <c r="AX30">
-        <v>-8734.19</v>
+        <v>-6272.05</v>
       </c>
       <c r="AY30">
-        <v>-13200.22</v>
+        <v>-10738.08</v>
       </c>
       <c r="AZ30">
-        <v>-21552.28</v>
+        <v>-19090.15</v>
       </c>
       <c r="BA30">
-        <v>-7150.35</v>
+        <v>-4688.21</v>
       </c>
       <c r="BB30">
-        <v>-10427.38</v>
+        <v>-7965.24</v>
       </c>
       <c r="BC30">
-        <v>-13704.4</v>
+        <v>-11242.26</v>
       </c>
       <c r="BD30">
-        <v>-9188.55</v>
+        <v>-6726.41</v>
       </c>
       <c r="BE30">
-        <v>-14341.67</v>
+        <v>-11879.53</v>
       </c>
       <c r="BF30">
-        <v>-23978.66</v>
+        <v>-21516.52</v>
       </c>
       <c r="BG30">
-        <v>-7361.2</v>
+        <v>-4899.06</v>
       </c>
       <c r="BH30">
-        <v>-11142.38</v>
+        <v>-8680.24</v>
       </c>
       <c r="BI30">
-        <v>-14923.56</v>
+        <v>-12461.42</v>
       </c>
     </row>
     <row r="31">
@@ -6182,184 +6182,184 @@
         </is>
       </c>
       <c r="B31">
-        <v>-1394.92</v>
+        <v>1068.72</v>
       </c>
       <c r="C31">
-        <v>-1738.46</v>
+        <v>725.18</v>
       </c>
       <c r="D31">
-        <v>-2380.93</v>
+        <v>82.71</v>
       </c>
       <c r="E31">
-        <v>-1273.11</v>
+        <v>1190.52</v>
       </c>
       <c r="F31">
-        <v>-1525.19</v>
+        <v>938.45</v>
       </c>
       <c r="G31">
-        <v>-1777.27</v>
+        <v>686.37</v>
       </c>
       <c r="H31">
-        <v>-1848.53</v>
+        <v>615.1</v>
       </c>
       <c r="I31">
-        <v>-2879.16</v>
+        <v>-415.52</v>
       </c>
       <c r="J31">
-        <v>-4806.56</v>
+        <v>-2342.92</v>
       </c>
       <c r="K31">
-        <v>-1483.54</v>
+        <v>980.1</v>
       </c>
       <c r="L31">
-        <v>-2239.77</v>
+        <v>223.86</v>
       </c>
       <c r="M31">
-        <v>-2996.01</v>
+        <v>-532.37</v>
       </c>
       <c r="N31">
-        <v>-2076.62</v>
+        <v>387.02</v>
       </c>
       <c r="O31">
-        <v>-3450.79</v>
+        <v>-987.15</v>
       </c>
       <c r="P31">
-        <v>-6020.65</v>
+        <v>-3557.01</v>
       </c>
       <c r="Q31">
-        <v>-1588.84</v>
+        <v>874.79</v>
       </c>
       <c r="R31">
-        <v>-2597.16</v>
+        <v>-133.52</v>
       </c>
       <c r="S31">
-        <v>-3605.47</v>
+        <v>-1141.84</v>
       </c>
       <c r="T31">
-        <v>-2531.59</v>
+        <v>-67.95</v>
       </c>
       <c r="U31">
-        <v>-4592.84</v>
+        <v>-2129.2</v>
       </c>
       <c r="V31">
-        <v>-8447.63</v>
+        <v>-5984</v>
       </c>
       <c r="W31">
-        <v>-1800.25</v>
+        <v>663.39</v>
       </c>
       <c r="X31">
-        <v>-3312.72</v>
+        <v>-849.08</v>
       </c>
       <c r="Y31">
-        <v>-4825.19</v>
+        <v>-2361.55</v>
       </c>
       <c r="Z31">
-        <v>-2758.75</v>
+        <v>-295.11</v>
       </c>
       <c r="AA31">
-        <v>-5163.53</v>
+        <v>-2699.9</v>
       </c>
       <c r="AB31">
-        <v>-9660.8</v>
+        <v>-7197.16</v>
       </c>
       <c r="AC31">
-        <v>-1905.65</v>
+        <v>557.99</v>
       </c>
       <c r="AD31">
-        <v>-3670.2</v>
+        <v>-1206.56</v>
       </c>
       <c r="AE31">
-        <v>-5434.75</v>
+        <v>-2971.11</v>
       </c>
       <c r="AF31">
-        <v>-3213.06</v>
+        <v>-749.42</v>
       </c>
       <c r="AG31">
-        <v>-6304.93</v>
+        <v>-3841.29</v>
       </c>
       <c r="AH31">
-        <v>-12087.13</v>
+        <v>-9623.49</v>
       </c>
       <c r="AI31">
-        <v>-2116.4</v>
+        <v>347.24</v>
       </c>
       <c r="AJ31">
-        <v>-4385.11</v>
+        <v>-1921.47</v>
       </c>
       <c r="AK31">
-        <v>-6653.81</v>
+        <v>-4190.18</v>
       </c>
       <c r="AL31">
-        <v>-3440.22</v>
+        <v>-976.58</v>
       </c>
       <c r="AM31">
-        <v>-6875.63</v>
+        <v>-4411.99</v>
       </c>
       <c r="AN31">
-        <v>-13300.29</v>
+        <v>-10836.65</v>
       </c>
       <c r="AO31">
-        <v>-2221.7</v>
+        <v>241.94</v>
       </c>
       <c r="AP31">
-        <v>-4742.49</v>
+        <v>-2278.85</v>
       </c>
       <c r="AQ31">
-        <v>-7263.28</v>
+        <v>-4799.64</v>
       </c>
       <c r="AR31">
-        <v>-3894.53</v>
+        <v>-1430.89</v>
       </c>
       <c r="AS31">
-        <v>-8017.02</v>
+        <v>-5553.39</v>
       </c>
       <c r="AT31">
-        <v>-15726.62</v>
+        <v>-13262.98</v>
       </c>
       <c r="AU31">
-        <v>-2432.5</v>
+        <v>31.14</v>
       </c>
       <c r="AV31">
-        <v>-5457.45</v>
+        <v>-2993.81</v>
       </c>
       <c r="AW31">
-        <v>-8482.39</v>
+        <v>-6018.75</v>
       </c>
       <c r="AX31">
-        <v>-4121.69</v>
+        <v>-1658.05</v>
       </c>
       <c r="AY31">
-        <v>-8587.72</v>
+        <v>-6124.08</v>
       </c>
       <c r="AZ31">
-        <v>-16939.78</v>
+        <v>-14476.15</v>
       </c>
       <c r="BA31">
-        <v>-2537.85</v>
+        <v>-74.21</v>
       </c>
       <c r="BB31">
-        <v>-5814.88</v>
+        <v>-3351.24</v>
       </c>
       <c r="BC31">
-        <v>-9091.9</v>
+        <v>-6628.26</v>
       </c>
       <c r="BD31">
-        <v>-4576.05</v>
+        <v>-2112.41</v>
       </c>
       <c r="BE31">
-        <v>-9729.17</v>
+        <v>-7265.53</v>
       </c>
       <c r="BF31">
-        <v>-19366.16</v>
+        <v>-16902.52</v>
       </c>
       <c r="BG31">
-        <v>-2748.7</v>
+        <v>-285.06</v>
       </c>
       <c r="BH31">
-        <v>-6529.88</v>
+        <v>-4066.24</v>
       </c>
       <c r="BI31">
-        <v>-10311.06</v>
+        <v>-7847.42</v>
       </c>
     </row>
     <row r="32">
@@ -6369,184 +6369,184 @@
         </is>
       </c>
       <c r="B32">
-        <v>-7735.64</v>
+        <v>-5275.94</v>
       </c>
       <c r="C32">
-        <v>-8079.18</v>
+        <v>-5619.48</v>
       </c>
       <c r="D32">
-        <v>-8721.65</v>
+        <v>-6261.95</v>
       </c>
       <c r="E32">
-        <v>-7613.84</v>
+        <v>-5154.14</v>
       </c>
       <c r="F32">
-        <v>-7865.92</v>
+        <v>-5406.22</v>
       </c>
       <c r="G32">
-        <v>-8118</v>
+        <v>-5658.3</v>
       </c>
       <c r="H32">
-        <v>-8189.26</v>
+        <v>-5729.56</v>
       </c>
       <c r="I32">
-        <v>-9219.88</v>
+        <v>-6760.18</v>
       </c>
       <c r="J32">
-        <v>-11147.28</v>
+        <v>-8687.58</v>
       </c>
       <c r="K32">
-        <v>-7824.26</v>
+        <v>-5364.56</v>
       </c>
       <c r="L32">
-        <v>-8580.5</v>
+        <v>-6120.8</v>
       </c>
       <c r="M32">
-        <v>-9336.74</v>
+        <v>-6877.04</v>
       </c>
       <c r="N32">
-        <v>-8417.35</v>
+        <v>-5957.65</v>
       </c>
       <c r="O32">
-        <v>-9791.51</v>
+        <v>-7331.81</v>
       </c>
       <c r="P32">
-        <v>-12361.38</v>
+        <v>-9901.68</v>
       </c>
       <c r="Q32">
-        <v>-7929.57</v>
+        <v>-5469.87</v>
       </c>
       <c r="R32">
-        <v>-8937.88</v>
+        <v>-6478.18</v>
       </c>
       <c r="S32">
-        <v>-9946.2</v>
+        <v>-7486.5</v>
       </c>
       <c r="T32">
-        <v>-8872.31</v>
+        <v>-6412.61</v>
       </c>
       <c r="U32">
-        <v>-10933.56</v>
+        <v>-8473.86</v>
       </c>
       <c r="V32">
-        <v>-14788.36</v>
+        <v>-12328.66</v>
       </c>
       <c r="W32">
-        <v>-8140.97</v>
+        <v>-5681.27</v>
       </c>
       <c r="X32">
-        <v>-9653.44</v>
+        <v>-7193.74</v>
       </c>
       <c r="Y32">
-        <v>-11165.92</v>
+        <v>-8706.22</v>
       </c>
       <c r="Z32">
-        <v>-9099.47</v>
+        <v>-6639.77</v>
       </c>
       <c r="AA32">
-        <v>-11504.26</v>
+        <v>-9044.56</v>
       </c>
       <c r="AB32">
-        <v>-16001.52</v>
+        <v>-13541.82</v>
       </c>
       <c r="AC32">
-        <v>-8246.37</v>
+        <v>-5786.67</v>
       </c>
       <c r="AD32">
-        <v>-10010.92</v>
+        <v>-7551.22</v>
       </c>
       <c r="AE32">
-        <v>-11775.47</v>
+        <v>-9315.77</v>
       </c>
       <c r="AF32">
-        <v>-9553.79</v>
+        <v>-7094.09</v>
       </c>
       <c r="AG32">
-        <v>-12645.66</v>
+        <v>-10185.96</v>
       </c>
       <c r="AH32">
-        <v>-18427.85</v>
+        <v>-15968.15</v>
       </c>
       <c r="AI32">
-        <v>-8457.12</v>
+        <v>-5997.42</v>
       </c>
       <c r="AJ32">
-        <v>-10725.83</v>
+        <v>-8266.13</v>
       </c>
       <c r="AK32">
-        <v>-12994.54</v>
+        <v>-10534.84</v>
       </c>
       <c r="AL32">
-        <v>-9780.94</v>
+        <v>-7321.24</v>
       </c>
       <c r="AM32">
-        <v>-13216.35</v>
+        <v>-10756.65</v>
       </c>
       <c r="AN32">
-        <v>-19641.02</v>
+        <v>-17181.32</v>
       </c>
       <c r="AO32">
-        <v>-8562.43</v>
+        <v>-6102.73</v>
       </c>
       <c r="AP32">
-        <v>-11083.22</v>
+        <v>-8623.52</v>
       </c>
       <c r="AQ32">
-        <v>-13604</v>
+        <v>-11144.3</v>
       </c>
       <c r="AR32">
-        <v>-10235.26</v>
+        <v>-7775.56</v>
       </c>
       <c r="AS32">
-        <v>-14357.75</v>
+        <v>-11898.05</v>
       </c>
       <c r="AT32">
-        <v>-22067.35</v>
+        <v>-19607.65</v>
       </c>
       <c r="AU32">
-        <v>-8773.22</v>
+        <v>-6313.52</v>
       </c>
       <c r="AV32">
-        <v>-11798.17</v>
+        <v>-9338.47</v>
       </c>
       <c r="AW32">
-        <v>-14823.12</v>
+        <v>-12363.42</v>
       </c>
       <c r="AX32">
-        <v>-10462.41</v>
+        <v>-8002.71</v>
       </c>
       <c r="AY32">
-        <v>-14928.45</v>
+        <v>-12468.75</v>
       </c>
       <c r="AZ32">
-        <v>-23280.51</v>
+        <v>-20820.81</v>
       </c>
       <c r="BA32">
-        <v>-8878.58</v>
+        <v>-6418.88</v>
       </c>
       <c r="BB32">
-        <v>-12155.6</v>
+        <v>-9695.9</v>
       </c>
       <c r="BC32">
-        <v>-15432.63</v>
+        <v>-12972.93</v>
       </c>
       <c r="BD32">
-        <v>-10916.78</v>
+        <v>-8457.08</v>
       </c>
       <c r="BE32">
-        <v>-16069.89</v>
+        <v>-13610.19</v>
       </c>
       <c r="BF32">
-        <v>-25706.89</v>
+        <v>-23247.19</v>
       </c>
       <c r="BG32">
-        <v>-9089.42</v>
+        <v>-6629.72</v>
       </c>
       <c r="BH32">
-        <v>-12870.6</v>
+        <v>-10410.9</v>
       </c>
       <c r="BI32">
-        <v>-16651.79</v>
+        <v>-14192.09</v>
       </c>
     </row>
     <row r="33">
@@ -6556,184 +6556,184 @@
         </is>
       </c>
       <c r="B33">
-        <v>1489.36</v>
+        <v>3949.06</v>
       </c>
       <c r="C33">
-        <v>1145.82</v>
+        <v>3605.52</v>
       </c>
       <c r="D33">
-        <v>503.35</v>
+        <v>2963.05</v>
       </c>
       <c r="E33">
-        <v>1611.16</v>
+        <v>4070.86</v>
       </c>
       <c r="F33">
-        <v>1359.08</v>
+        <v>3818.78</v>
       </c>
       <c r="G33">
-        <v>1107</v>
+        <v>3566.7</v>
       </c>
       <c r="H33">
-        <v>1035.74</v>
+        <v>3495.44</v>
       </c>
       <c r="I33">
-        <v>5.12</v>
+        <v>2464.82</v>
       </c>
       <c r="J33">
-        <v>-1922.28</v>
+        <v>537.42</v>
       </c>
       <c r="K33">
-        <v>1400.74</v>
+        <v>3860.44</v>
       </c>
       <c r="L33">
-        <v>644.5</v>
+        <v>3104.2</v>
       </c>
       <c r="M33">
-        <v>-111.74</v>
+        <v>2347.96</v>
       </c>
       <c r="N33">
-        <v>807.65</v>
+        <v>3267.35</v>
       </c>
       <c r="O33">
-        <v>-566.51</v>
+        <v>1893.19</v>
       </c>
       <c r="P33">
-        <v>-3136.38</v>
+        <v>-676.68</v>
       </c>
       <c r="Q33">
-        <v>1295.43</v>
+        <v>3755.13</v>
       </c>
       <c r="R33">
-        <v>287.12</v>
+        <v>2746.82</v>
       </c>
       <c r="S33">
-        <v>-721.2</v>
+        <v>1738.5</v>
       </c>
       <c r="T33">
-        <v>352.69</v>
+        <v>2812.39</v>
       </c>
       <c r="U33">
-        <v>-1708.56</v>
+        <v>751.14</v>
       </c>
       <c r="V33">
-        <v>-5563.36</v>
+        <v>-3103.66</v>
       </c>
       <c r="W33">
-        <v>1084.03</v>
+        <v>3543.73</v>
       </c>
       <c r="X33">
-        <v>-428.44</v>
+        <v>2031.26</v>
       </c>
       <c r="Y33">
-        <v>-1940.92</v>
+        <v>518.78</v>
       </c>
       <c r="Z33">
-        <v>125.53</v>
+        <v>2585.23</v>
       </c>
       <c r="AA33">
-        <v>-2279.26</v>
+        <v>180.44</v>
       </c>
       <c r="AB33">
-        <v>-6776.52</v>
+        <v>-4316.82</v>
       </c>
       <c r="AC33">
-        <v>978.63</v>
+        <v>3438.33</v>
       </c>
       <c r="AD33">
-        <v>-785.92</v>
+        <v>1673.78</v>
       </c>
       <c r="AE33">
-        <v>-2550.47</v>
+        <v>-90.77</v>
       </c>
       <c r="AF33">
-        <v>-328.79</v>
+        <v>2130.91</v>
       </c>
       <c r="AG33">
-        <v>-3420.66</v>
+        <v>-960.96</v>
       </c>
       <c r="AH33">
-        <v>-9202.85</v>
+        <v>-6743.15</v>
       </c>
       <c r="AI33">
-        <v>767.88</v>
+        <v>3227.58</v>
       </c>
       <c r="AJ33">
-        <v>-1500.83</v>
+        <v>958.87</v>
       </c>
       <c r="AK33">
-        <v>-3769.54</v>
+        <v>-1309.84</v>
       </c>
       <c r="AL33">
-        <v>-555.94</v>
+        <v>1903.76</v>
       </c>
       <c r="AM33">
-        <v>-3991.35</v>
+        <v>-1531.65</v>
       </c>
       <c r="AN33">
-        <v>-10416.02</v>
+        <v>-7956.32</v>
       </c>
       <c r="AO33">
-        <v>662.57</v>
+        <v>3122.27</v>
       </c>
       <c r="AP33">
-        <v>-1858.22</v>
+        <v>601.48</v>
       </c>
       <c r="AQ33">
-        <v>-4379</v>
+        <v>-1919.3</v>
       </c>
       <c r="AR33">
-        <v>-1010.26</v>
+        <v>1449.44</v>
       </c>
       <c r="AS33">
-        <v>-5132.75</v>
+        <v>-2673.05</v>
       </c>
       <c r="AT33">
-        <v>-12842.35</v>
+        <v>-10382.65</v>
       </c>
       <c r="AU33">
-        <v>451.78</v>
+        <v>2911.48</v>
       </c>
       <c r="AV33">
-        <v>-2573.17</v>
+        <v>-113.47</v>
       </c>
       <c r="AW33">
-        <v>-5598.12</v>
+        <v>-3138.42</v>
       </c>
       <c r="AX33">
-        <v>-1237.41</v>
+        <v>1222.29</v>
       </c>
       <c r="AY33">
-        <v>-5703.45</v>
+        <v>-3243.75</v>
       </c>
       <c r="AZ33">
-        <v>-14055.51</v>
+        <v>-11595.81</v>
       </c>
       <c r="BA33">
-        <v>346.42</v>
+        <v>2806.12</v>
       </c>
       <c r="BB33">
-        <v>-2930.6</v>
+        <v>-470.9</v>
       </c>
       <c r="BC33">
-        <v>-6207.63</v>
+        <v>-3747.93</v>
       </c>
       <c r="BD33">
-        <v>-1691.78</v>
+        <v>767.92</v>
       </c>
       <c r="BE33">
-        <v>-6844.89</v>
+        <v>-4385.19</v>
       </c>
       <c r="BF33">
-        <v>-16481.89</v>
+        <v>-14022.19</v>
       </c>
       <c r="BG33">
-        <v>135.58</v>
+        <v>2595.28</v>
       </c>
       <c r="BH33">
-        <v>-3645.6</v>
+        <v>-1185.9</v>
       </c>
       <c r="BI33">
-        <v>-7426.79</v>
+        <v>-4967.09</v>
       </c>
     </row>
     <row r="34">
@@ -6743,184 +6743,184 @@
         </is>
       </c>
       <c r="B34">
-        <v>10714.36</v>
+        <v>13174.06</v>
       </c>
       <c r="C34">
-        <v>10370.82</v>
+        <v>12830.52</v>
       </c>
       <c r="D34">
-        <v>9728.35</v>
+        <v>12188.05</v>
       </c>
       <c r="E34">
-        <v>10836.16</v>
+        <v>13295.86</v>
       </c>
       <c r="F34">
-        <v>10584.08</v>
+        <v>13043.78</v>
       </c>
       <c r="G34">
-        <v>10332</v>
+        <v>12791.7</v>
       </c>
       <c r="H34">
-        <v>10260.74</v>
+        <v>12720.44</v>
       </c>
       <c r="I34">
-        <v>9230.12</v>
+        <v>11689.82</v>
       </c>
       <c r="J34">
-        <v>7302.72</v>
+        <v>9762.42</v>
       </c>
       <c r="K34">
-        <v>10625.74</v>
+        <v>13085.44</v>
       </c>
       <c r="L34">
-        <v>9869.5</v>
+        <v>12329.2</v>
       </c>
       <c r="M34">
-        <v>9113.26</v>
+        <v>11572.96</v>
       </c>
       <c r="N34">
-        <v>10032.65</v>
+        <v>12492.35</v>
       </c>
       <c r="O34">
-        <v>8658.49</v>
+        <v>11118.19</v>
       </c>
       <c r="P34">
-        <v>6088.62</v>
+        <v>8548.32</v>
       </c>
       <c r="Q34">
-        <v>10520.43</v>
+        <v>12980.13</v>
       </c>
       <c r="R34">
-        <v>9512.12</v>
+        <v>11971.82</v>
       </c>
       <c r="S34">
-        <v>8503.8</v>
+        <v>10963.5</v>
       </c>
       <c r="T34">
-        <v>9577.69</v>
+        <v>12037.39</v>
       </c>
       <c r="U34">
-        <v>7516.44</v>
+        <v>9976.14</v>
       </c>
       <c r="V34">
-        <v>3661.64</v>
+        <v>6121.34</v>
       </c>
       <c r="W34">
-        <v>10309.03</v>
+        <v>12768.73</v>
       </c>
       <c r="X34">
-        <v>8796.56</v>
+        <v>11256.26</v>
       </c>
       <c r="Y34">
-        <v>7284.08</v>
+        <v>9743.78</v>
       </c>
       <c r="Z34">
-        <v>9350.53</v>
+        <v>11810.23</v>
       </c>
       <c r="AA34">
-        <v>6945.74</v>
+        <v>9405.44</v>
       </c>
       <c r="AB34">
-        <v>2448.48</v>
+        <v>4908.18</v>
       </c>
       <c r="AC34">
-        <v>10203.63</v>
+        <v>12663.33</v>
       </c>
       <c r="AD34">
-        <v>8439.08</v>
+        <v>10898.78</v>
       </c>
       <c r="AE34">
-        <v>6674.53</v>
+        <v>9134.23</v>
       </c>
       <c r="AF34">
-        <v>8896.21</v>
+        <v>11355.91</v>
       </c>
       <c r="AG34">
-        <v>5804.34</v>
+        <v>8264.04</v>
       </c>
       <c r="AH34">
-        <v>22.15</v>
+        <v>2481.85</v>
       </c>
       <c r="AI34">
-        <v>9992.88</v>
+        <v>12452.58</v>
       </c>
       <c r="AJ34">
-        <v>7724.17</v>
+        <v>10183.87</v>
       </c>
       <c r="AK34">
-        <v>5455.46</v>
+        <v>7915.16</v>
       </c>
       <c r="AL34">
-        <v>8669.06</v>
+        <v>11128.76</v>
       </c>
       <c r="AM34">
-        <v>5233.65</v>
+        <v>7693.35</v>
       </c>
       <c r="AN34">
-        <v>-1191.02</v>
+        <v>1268.68</v>
       </c>
       <c r="AO34">
-        <v>9887.57</v>
+        <v>12347.27</v>
       </c>
       <c r="AP34">
-        <v>7366.78</v>
+        <v>9826.48</v>
       </c>
       <c r="AQ34">
-        <v>4846</v>
+        <v>7305.7</v>
       </c>
       <c r="AR34">
-        <v>8214.74</v>
+        <v>10674.44</v>
       </c>
       <c r="AS34">
-        <v>4092.25</v>
+        <v>6551.95</v>
       </c>
       <c r="AT34">
-        <v>-3617.35</v>
+        <v>-1157.65</v>
       </c>
       <c r="AU34">
-        <v>9676.78</v>
+        <v>12136.48</v>
       </c>
       <c r="AV34">
-        <v>6651.83</v>
+        <v>9111.53</v>
       </c>
       <c r="AW34">
-        <v>3626.88</v>
+        <v>6086.58</v>
       </c>
       <c r="AX34">
-        <v>7987.59</v>
+        <v>10447.29</v>
       </c>
       <c r="AY34">
-        <v>3521.55</v>
+        <v>5981.25</v>
       </c>
       <c r="AZ34">
-        <v>-4830.51</v>
+        <v>-2370.81</v>
       </c>
       <c r="BA34">
-        <v>9571.42</v>
+        <v>12031.12</v>
       </c>
       <c r="BB34">
-        <v>6294.4</v>
+        <v>8754.1</v>
       </c>
       <c r="BC34">
-        <v>3017.37</v>
+        <v>5477.07</v>
       </c>
       <c r="BD34">
-        <v>7533.22</v>
+        <v>9992.92</v>
       </c>
       <c r="BE34">
-        <v>2380.11</v>
+        <v>4839.81</v>
       </c>
       <c r="BF34">
-        <v>-7256.89</v>
+        <v>-4797.19</v>
       </c>
       <c r="BG34">
-        <v>9360.58</v>
+        <v>11820.28</v>
       </c>
       <c r="BH34">
-        <v>5579.4</v>
+        <v>8039.1</v>
       </c>
       <c r="BI34">
-        <v>1798.21</v>
+        <v>4257.91</v>
       </c>
     </row>
     <row r="35">
@@ -6930,184 +6930,184 @@
         </is>
       </c>
       <c r="B35">
-        <v>-4851.37</v>
+        <v>-2390.73</v>
       </c>
       <c r="C35">
-        <v>-5194.91</v>
+        <v>-2734.27</v>
       </c>
       <c r="D35">
-        <v>-5837.38</v>
+        <v>-3376.74</v>
       </c>
       <c r="E35">
-        <v>-4729.56</v>
+        <v>-2268.93</v>
       </c>
       <c r="F35">
-        <v>-4981.64</v>
+        <v>-2521</v>
       </c>
       <c r="G35">
-        <v>-5233.72</v>
+        <v>-2773.08</v>
       </c>
       <c r="H35">
-        <v>-5304.98</v>
+        <v>-2844.35</v>
       </c>
       <c r="I35">
-        <v>-6335.61</v>
+        <v>-3874.97</v>
       </c>
       <c r="J35">
-        <v>-8263.01</v>
+        <v>-5802.37</v>
       </c>
       <c r="K35">
-        <v>-4939.99</v>
+        <v>-2479.35</v>
       </c>
       <c r="L35">
-        <v>-5696.22</v>
+        <v>-3235.59</v>
       </c>
       <c r="M35">
-        <v>-6452.46</v>
+        <v>-3991.82</v>
       </c>
       <c r="N35">
-        <v>-5533.07</v>
+        <v>-3072.43</v>
       </c>
       <c r="O35">
-        <v>-6907.24</v>
+        <v>-4446.6</v>
       </c>
       <c r="P35">
-        <v>-9477.1</v>
+        <v>-7016.46</v>
       </c>
       <c r="Q35">
-        <v>-5045.29</v>
+        <v>-2584.66</v>
       </c>
       <c r="R35">
-        <v>-6053.61</v>
+        <v>-3592.97</v>
       </c>
       <c r="S35">
-        <v>-7061.92</v>
+        <v>-4601.29</v>
       </c>
       <c r="T35">
-        <v>-5988.04</v>
+        <v>-3527.4</v>
       </c>
       <c r="U35">
-        <v>-8049.29</v>
+        <v>-5588.65</v>
       </c>
       <c r="V35">
-        <v>-11904.08</v>
+        <v>-9443.45</v>
       </c>
       <c r="W35">
-        <v>-5256.7</v>
+        <v>-2796.06</v>
       </c>
       <c r="X35">
-        <v>-6769.17</v>
+        <v>-4308.53</v>
       </c>
       <c r="Y35">
-        <v>-8281.64</v>
+        <v>-5821</v>
       </c>
       <c r="Z35">
-        <v>-6215.2</v>
+        <v>-3754.56</v>
       </c>
       <c r="AA35">
-        <v>-8619.98</v>
+        <v>-6159.35</v>
       </c>
       <c r="AB35">
-        <v>-13117.25</v>
+        <v>-10656.61</v>
       </c>
       <c r="AC35">
-        <v>-5362.1</v>
+        <v>-2901.46</v>
       </c>
       <c r="AD35">
-        <v>-7126.65</v>
+        <v>-4666.01</v>
       </c>
       <c r="AE35">
-        <v>-8891.2</v>
+        <v>-6430.56</v>
       </c>
       <c r="AF35">
-        <v>-6669.51</v>
+        <v>-4208.87</v>
       </c>
       <c r="AG35">
-        <v>-9761.38</v>
+        <v>-7300.74</v>
       </c>
       <c r="AH35">
-        <v>-15543.58</v>
+        <v>-13082.94</v>
       </c>
       <c r="AI35">
-        <v>-5572.85</v>
+        <v>-3112.21</v>
       </c>
       <c r="AJ35">
-        <v>-7841.56</v>
+        <v>-5380.92</v>
       </c>
       <c r="AK35">
-        <v>-10110.26</v>
+        <v>-7649.63</v>
       </c>
       <c r="AL35">
-        <v>-6896.67</v>
+        <v>-4436.03</v>
       </c>
       <c r="AM35">
-        <v>-10332.08</v>
+        <v>-7871.44</v>
       </c>
       <c r="AN35">
-        <v>-16756.74</v>
+        <v>-14296.1</v>
       </c>
       <c r="AO35">
-        <v>-5678.15</v>
+        <v>-3217.51</v>
       </c>
       <c r="AP35">
-        <v>-8198.94</v>
+        <v>-5738.3</v>
       </c>
       <c r="AQ35">
-        <v>-10719.73</v>
+        <v>-8259.09</v>
       </c>
       <c r="AR35">
-        <v>-7350.98</v>
+        <v>-4890.34</v>
       </c>
       <c r="AS35">
-        <v>-11473.47</v>
+        <v>-9012.84</v>
       </c>
       <c r="AT35">
-        <v>-19183.07</v>
+        <v>-16722.43</v>
       </c>
       <c r="AU35">
-        <v>-5888.95</v>
+        <v>-3428.31</v>
       </c>
       <c r="AV35">
-        <v>-8913.9</v>
+        <v>-6453.26</v>
       </c>
       <c r="AW35">
-        <v>-11938.84</v>
+        <v>-9478.2</v>
       </c>
       <c r="AX35">
-        <v>-7578.14</v>
+        <v>-5117.5</v>
       </c>
       <c r="AY35">
-        <v>-12044.17</v>
+        <v>-9583.53</v>
       </c>
       <c r="AZ35">
-        <v>-20396.23</v>
+        <v>-17935.6</v>
       </c>
       <c r="BA35">
-        <v>-5994.3</v>
+        <v>-3533.66</v>
       </c>
       <c r="BB35">
-        <v>-9271.33</v>
+        <v>-6810.69</v>
       </c>
       <c r="BC35">
-        <v>-12548.35</v>
+        <v>-10087.71</v>
       </c>
       <c r="BD35">
-        <v>-8032.5</v>
+        <v>-5571.86</v>
       </c>
       <c r="BE35">
-        <v>-13185.62</v>
+        <v>-10724.98</v>
       </c>
       <c r="BF35">
-        <v>-22822.61</v>
+        <v>-20361.97</v>
       </c>
       <c r="BG35">
-        <v>-6205.15</v>
+        <v>-3744.51</v>
       </c>
       <c r="BH35">
-        <v>-9986.33</v>
+        <v>-7525.69</v>
       </c>
       <c r="BI35">
-        <v>-13767.51</v>
+        <v>-11306.87</v>
       </c>
     </row>
     <row r="36">
@@ -7117,184 +7117,184 @@
         </is>
       </c>
       <c r="B36">
-        <v>8986.13</v>
+        <v>11448.27</v>
       </c>
       <c r="C36">
-        <v>8642.59</v>
+        <v>11104.73</v>
       </c>
       <c r="D36">
-        <v>8000.12</v>
+        <v>10462.26</v>
       </c>
       <c r="E36">
-        <v>9107.94</v>
+        <v>11570.07</v>
       </c>
       <c r="F36">
-        <v>8855.86</v>
+        <v>11318</v>
       </c>
       <c r="G36">
-        <v>8603.78</v>
+        <v>11065.92</v>
       </c>
       <c r="H36">
-        <v>8532.52</v>
+        <v>10994.65</v>
       </c>
       <c r="I36">
-        <v>7501.89</v>
+        <v>9964.03</v>
       </c>
       <c r="J36">
-        <v>5574.49</v>
+        <v>8036.63</v>
       </c>
       <c r="K36">
-        <v>8897.51</v>
+        <v>11359.65</v>
       </c>
       <c r="L36">
-        <v>8141.28</v>
+        <v>10603.41</v>
       </c>
       <c r="M36">
-        <v>7385.04</v>
+        <v>9847.18</v>
       </c>
       <c r="N36">
-        <v>8304.43</v>
+        <v>10766.57</v>
       </c>
       <c r="O36">
-        <v>6930.26</v>
+        <v>9392.4</v>
       </c>
       <c r="P36">
-        <v>4360.4</v>
+        <v>6822.54</v>
       </c>
       <c r="Q36">
-        <v>8792.21</v>
+        <v>11254.34</v>
       </c>
       <c r="R36">
-        <v>7783.89</v>
+        <v>10246.03</v>
       </c>
       <c r="S36">
-        <v>6775.58</v>
+        <v>9237.71</v>
       </c>
       <c r="T36">
-        <v>7849.46</v>
+        <v>10311.6</v>
       </c>
       <c r="U36">
-        <v>5788.21</v>
+        <v>8250.35</v>
       </c>
       <c r="V36">
-        <v>1933.42</v>
+        <v>4395.55</v>
       </c>
       <c r="W36">
-        <v>8580.8</v>
+        <v>11042.94</v>
       </c>
       <c r="X36">
-        <v>7068.33</v>
+        <v>9530.47</v>
       </c>
       <c r="Y36">
-        <v>5555.86</v>
+        <v>8018</v>
       </c>
       <c r="Z36">
-        <v>7622.3</v>
+        <v>10084.44</v>
       </c>
       <c r="AA36">
-        <v>5217.52</v>
+        <v>7679.65</v>
       </c>
       <c r="AB36">
-        <v>720.25</v>
+        <v>3182.39</v>
       </c>
       <c r="AC36">
-        <v>8475.4</v>
+        <v>10937.54</v>
       </c>
       <c r="AD36">
-        <v>6710.85</v>
+        <v>9172.99</v>
       </c>
       <c r="AE36">
-        <v>4946.3</v>
+        <v>7408.44</v>
       </c>
       <c r="AF36">
-        <v>7167.99</v>
+        <v>9630.13</v>
       </c>
       <c r="AG36">
-        <v>4076.12</v>
+        <v>6538.26</v>
       </c>
       <c r="AH36">
-        <v>-1706.08</v>
+        <v>756.06</v>
       </c>
       <c r="AI36">
-        <v>8264.65</v>
+        <v>10726.79</v>
       </c>
       <c r="AJ36">
-        <v>5995.94</v>
+        <v>8458.08</v>
       </c>
       <c r="AK36">
-        <v>3727.24</v>
+        <v>6189.37</v>
       </c>
       <c r="AL36">
-        <v>6940.83</v>
+        <v>9402.97</v>
       </c>
       <c r="AM36">
-        <v>3505.42</v>
+        <v>5967.56</v>
       </c>
       <c r="AN36">
-        <v>-2919.24</v>
+        <v>-457.1</v>
       </c>
       <c r="AO36">
-        <v>8159.35</v>
+        <v>10621.49</v>
       </c>
       <c r="AP36">
-        <v>5638.56</v>
+        <v>8100.7</v>
       </c>
       <c r="AQ36">
-        <v>3117.77</v>
+        <v>5579.91</v>
       </c>
       <c r="AR36">
-        <v>6486.52</v>
+        <v>8948.66</v>
       </c>
       <c r="AS36">
-        <v>2364.03</v>
+        <v>4826.16</v>
       </c>
       <c r="AT36">
-        <v>-5345.57</v>
+        <v>-2883.43</v>
       </c>
       <c r="AU36">
-        <v>7948.55</v>
+        <v>10410.69</v>
       </c>
       <c r="AV36">
-        <v>4923.6</v>
+        <v>7385.74</v>
       </c>
       <c r="AW36">
-        <v>1898.66</v>
+        <v>4360.8</v>
       </c>
       <c r="AX36">
-        <v>6259.36</v>
+        <v>8721.5</v>
       </c>
       <c r="AY36">
-        <v>1793.33</v>
+        <v>4255.47</v>
       </c>
       <c r="AZ36">
-        <v>-6558.73</v>
+        <v>-4096.6</v>
       </c>
       <c r="BA36">
-        <v>7843.2</v>
+        <v>10305.34</v>
       </c>
       <c r="BB36">
-        <v>4566.17</v>
+        <v>7028.31</v>
       </c>
       <c r="BC36">
-        <v>1289.15</v>
+        <v>3751.29</v>
       </c>
       <c r="BD36">
-        <v>5805</v>
+        <v>8267.14</v>
       </c>
       <c r="BE36">
-        <v>651.88</v>
+        <v>3114.02</v>
       </c>
       <c r="BF36">
-        <v>-8985.11</v>
+        <v>-6522.97</v>
       </c>
       <c r="BG36">
-        <v>7632.35</v>
+        <v>10094.49</v>
       </c>
       <c r="BH36">
-        <v>3851.17</v>
+        <v>6313.31</v>
       </c>
       <c r="BI36">
-        <v>69.99</v>
+        <v>2532.13</v>
       </c>
     </row>
     <row r="37">
@@ -7304,184 +7304,184 @@
         </is>
       </c>
       <c r="B37">
-        <v>22823.63</v>
+        <v>25287.27</v>
       </c>
       <c r="C37">
-        <v>22480.09</v>
+        <v>24943.73</v>
       </c>
       <c r="D37">
-        <v>21837.62</v>
+        <v>24301.26</v>
       </c>
       <c r="E37">
-        <v>22945.44</v>
+        <v>25409.07</v>
       </c>
       <c r="F37">
-        <v>22693.36</v>
+        <v>25157</v>
       </c>
       <c r="G37">
-        <v>22441.28</v>
+        <v>24904.92</v>
       </c>
       <c r="H37">
-        <v>22370.02</v>
+        <v>24833.65</v>
       </c>
       <c r="I37">
-        <v>21339.39</v>
+        <v>23803.03</v>
       </c>
       <c r="J37">
-        <v>19411.99</v>
+        <v>21875.63</v>
       </c>
       <c r="K37">
-        <v>22735.01</v>
+        <v>25198.65</v>
       </c>
       <c r="L37">
-        <v>21978.78</v>
+        <v>24442.41</v>
       </c>
       <c r="M37">
-        <v>21222.54</v>
+        <v>23686.18</v>
       </c>
       <c r="N37">
-        <v>22141.93</v>
+        <v>24605.57</v>
       </c>
       <c r="O37">
-        <v>20767.76</v>
+        <v>23231.4</v>
       </c>
       <c r="P37">
-        <v>18197.9</v>
+        <v>20661.54</v>
       </c>
       <c r="Q37">
-        <v>22629.71</v>
+        <v>25093.34</v>
       </c>
       <c r="R37">
-        <v>21621.39</v>
+        <v>24085.03</v>
       </c>
       <c r="S37">
-        <v>20613.08</v>
+        <v>23076.71</v>
       </c>
       <c r="T37">
-        <v>21686.96</v>
+        <v>24150.6</v>
       </c>
       <c r="U37">
-        <v>19625.71</v>
+        <v>22089.35</v>
       </c>
       <c r="V37">
-        <v>15770.92</v>
+        <v>18234.55</v>
       </c>
       <c r="W37">
-        <v>22418.3</v>
+        <v>24881.94</v>
       </c>
       <c r="X37">
-        <v>20905.83</v>
+        <v>23369.47</v>
       </c>
       <c r="Y37">
-        <v>19393.36</v>
+        <v>21857</v>
       </c>
       <c r="Z37">
-        <v>21459.8</v>
+        <v>23923.44</v>
       </c>
       <c r="AA37">
-        <v>19055.02</v>
+        <v>21518.65</v>
       </c>
       <c r="AB37">
-        <v>14557.75</v>
+        <v>17021.39</v>
       </c>
       <c r="AC37">
-        <v>22312.9</v>
+        <v>24776.54</v>
       </c>
       <c r="AD37">
-        <v>20548.35</v>
+        <v>23011.99</v>
       </c>
       <c r="AE37">
-        <v>18783.8</v>
+        <v>21247.44</v>
       </c>
       <c r="AF37">
-        <v>21005.49</v>
+        <v>23469.13</v>
       </c>
       <c r="AG37">
-        <v>17913.62</v>
+        <v>20377.26</v>
       </c>
       <c r="AH37">
-        <v>12131.42</v>
+        <v>14595.06</v>
       </c>
       <c r="AI37">
-        <v>22102.15</v>
+        <v>24565.79</v>
       </c>
       <c r="AJ37">
-        <v>19833.44</v>
+        <v>22297.08</v>
       </c>
       <c r="AK37">
-        <v>17564.74</v>
+        <v>20028.37</v>
       </c>
       <c r="AL37">
-        <v>20778.33</v>
+        <v>23241.97</v>
       </c>
       <c r="AM37">
-        <v>17342.92</v>
+        <v>19806.56</v>
       </c>
       <c r="AN37">
-        <v>10918.26</v>
+        <v>13381.9</v>
       </c>
       <c r="AO37">
-        <v>21996.85</v>
+        <v>24460.49</v>
       </c>
       <c r="AP37">
-        <v>19476.06</v>
+        <v>21939.7</v>
       </c>
       <c r="AQ37">
-        <v>16955.27</v>
+        <v>19418.91</v>
       </c>
       <c r="AR37">
-        <v>20324.02</v>
+        <v>22787.66</v>
       </c>
       <c r="AS37">
-        <v>16201.53</v>
+        <v>18665.16</v>
       </c>
       <c r="AT37">
-        <v>8491.93</v>
+        <v>10955.57</v>
       </c>
       <c r="AU37">
-        <v>21786.05</v>
+        <v>24249.69</v>
       </c>
       <c r="AV37">
-        <v>18761.1</v>
+        <v>21224.74</v>
       </c>
       <c r="AW37">
-        <v>15736.16</v>
+        <v>18199.8</v>
       </c>
       <c r="AX37">
-        <v>20096.86</v>
+        <v>22560.5</v>
       </c>
       <c r="AY37">
-        <v>15630.83</v>
+        <v>18094.47</v>
       </c>
       <c r="AZ37">
-        <v>7278.77</v>
+        <v>9742.4</v>
       </c>
       <c r="BA37">
-        <v>21680.7</v>
+        <v>24144.34</v>
       </c>
       <c r="BB37">
-        <v>18403.67</v>
+        <v>20867.31</v>
       </c>
       <c r="BC37">
-        <v>15126.65</v>
+        <v>17590.29</v>
       </c>
       <c r="BD37">
-        <v>19642.5</v>
+        <v>22106.14</v>
       </c>
       <c r="BE37">
-        <v>14489.38</v>
+        <v>16953.02</v>
       </c>
       <c r="BF37">
-        <v>4852.39</v>
+        <v>7316.03</v>
       </c>
       <c r="BG37">
-        <v>21469.85</v>
+        <v>23933.49</v>
       </c>
       <c r="BH37">
-        <v>17688.67</v>
+        <v>20152.31</v>
       </c>
       <c r="BI37">
-        <v>13907.49</v>
+        <v>16371.13</v>
       </c>
     </row>
   </sheetData>
